--- a/data_month/zb/工业/集体工业企业主要经济指标.xlsx
+++ b/data_month/zb/工业/集体工业企业主要经济指标.xlsx
@@ -1182,7 +1182,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34.21999999999957</v>
+        <v>16.70999999999924</v>
       </c>
       <c r="C4" t="n">
         <v>2683.41</v>
@@ -1191,7 +1191,7 @@
         <v>13.1</v>
       </c>
       <c r="E4" t="n">
-        <v>62.22000000000003</v>
+        <v>8.62000000000058</v>
       </c>
       <c r="F4" t="n">
         <v>3144.29</v>
@@ -1245,7 +1245,7 @@
         <v>-4.34</v>
       </c>
       <c r="W4" t="n">
-        <v>6.780000000000001</v>
+        <v>0.9900000000000022</v>
       </c>
       <c r="X4" t="n">
         <v>122.92</v>
@@ -1260,7 +1260,7 @@
       <c r="AB4" t="inlineStr"/>
       <c r="AC4" t="inlineStr"/>
       <c r="AD4" t="n">
-        <v>2.20999999999999</v>
+        <v>0.2599999999999838</v>
       </c>
       <c r="AE4" t="n">
         <v>95.59</v>
@@ -1329,7 +1329,7 @@
         <v>8848.82</v>
       </c>
       <c r="BE4" t="n">
-        <v>3.400000000000009</v>
+        <v>1.280000000000005</v>
       </c>
       <c r="BF4" t="n">
         <v>113.45</v>
@@ -1377,7 +1377,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71.16000000000031</v>
+        <v>3.520000000002259</v>
       </c>
       <c r="C5" t="n">
         <v>3506.33</v>
@@ -1386,7 +1386,7 @@
         <v>13.44</v>
       </c>
       <c r="E5" t="n">
-        <v>61.48000000000047</v>
+        <v>12.66000000000032</v>
       </c>
       <c r="F5" t="n">
         <v>4104.09</v>
@@ -1431,7 +1431,7 @@
         <v>901.7</v>
       </c>
       <c r="T5" t="n">
-        <v>1.07000000000002</v>
+        <v>0.5300000000000298</v>
       </c>
       <c r="U5" t="n">
         <v>57.4</v>
@@ -1440,7 +1440,7 @@
         <v>-5.08</v>
       </c>
       <c r="W5" t="n">
-        <v>1.780000000000001</v>
+        <v>0.7899999999999987</v>
       </c>
       <c r="X5" t="n">
         <v>164.81</v>
@@ -1455,7 +1455,7 @@
       <c r="AB5" t="inlineStr"/>
       <c r="AC5" t="inlineStr"/>
       <c r="AD5" t="n">
-        <v>1.039999999999999</v>
+        <v>0.130000000000013</v>
       </c>
       <c r="AE5" t="n">
         <v>123.01</v>
@@ -1485,7 +1485,7 @@
         <v>4686.82</v>
       </c>
       <c r="AP5" t="n">
-        <v>3.999999999999972</v>
+        <v>0.7799999999999661</v>
       </c>
       <c r="AQ5" t="n">
         <v>176.37</v>
@@ -1506,7 +1506,7 @@
         <v>5851.2</v>
       </c>
       <c r="AY5" t="n">
-        <v>2.950000000000001</v>
+        <v>1.950000000000001</v>
       </c>
       <c r="AZ5" t="n">
         <v>70.81999999999999</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>686.3000000000002</v>
+        <v>554.4499999999954</v>
       </c>
       <c r="C6" t="n">
         <v>4360.28</v>
@@ -1581,7 +1581,7 @@
         <v>12.36</v>
       </c>
       <c r="E6" t="n">
-        <v>826.9899999999998</v>
+        <v>678.7099999999982</v>
       </c>
       <c r="F6" t="n">
         <v>5110.63</v>
@@ -1590,7 +1590,7 @@
         <v>12.14</v>
       </c>
       <c r="H6" t="n">
-        <v>7.149999999999999</v>
+        <v>1.269999999999975</v>
       </c>
       <c r="I6" t="n">
         <v>42.3</v>
@@ -1626,7 +1626,7 @@
         <v>917.8099999999999</v>
       </c>
       <c r="T6" t="n">
-        <v>12.39</v>
+        <v>9.72999999999989</v>
       </c>
       <c r="U6" t="n">
         <v>70.31</v>
@@ -1635,7 +1635,7 @@
         <v>-5.64</v>
       </c>
       <c r="W6" t="n">
-        <v>34.47</v>
+        <v>27.35</v>
       </c>
       <c r="X6" t="n">
         <v>211.76</v>
@@ -1650,7 +1650,7 @@
       <c r="AB6" t="inlineStr"/>
       <c r="AC6" t="inlineStr"/>
       <c r="AD6" t="n">
-        <v>23.69000000000003</v>
+        <v>20.44000000000002</v>
       </c>
       <c r="AE6" t="n">
         <v>153.62</v>
@@ -1680,7 +1680,7 @@
         <v>4742.37</v>
       </c>
       <c r="AP6" t="n">
-        <v>36.03</v>
+        <v>29.69000000000013</v>
       </c>
       <c r="AQ6" t="n">
         <v>217.94</v>
@@ -1701,7 +1701,7 @@
         <v>5895.87</v>
       </c>
       <c r="AY6" t="n">
-        <v>13.96000000000001</v>
+        <v>3.660000000000007</v>
       </c>
       <c r="AZ6" t="n">
         <v>86.77</v>
@@ -1719,7 +1719,7 @@
         <v>9028.91</v>
       </c>
       <c r="BE6" t="n">
-        <v>5.56999999999999</v>
+        <v>2.850000000000019</v>
       </c>
       <c r="BF6" t="n">
         <v>184.2</v>
@@ -1767,7 +1767,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>669.9099999999999</v>
+        <v>54.76999999999998</v>
       </c>
       <c r="C7" t="n">
         <v>5120.41</v>
@@ -1776,7 +1776,7 @@
         <v>12.12</v>
       </c>
       <c r="E7" t="n">
-        <v>773.21</v>
+        <v>7.700000000000728</v>
       </c>
       <c r="F7" t="n">
         <v>6005.71</v>
@@ -1785,7 +1785,7 @@
         <v>11.54</v>
       </c>
       <c r="H7" t="n">
-        <v>7.009999999999998</v>
+        <v>1.330000000000005</v>
       </c>
       <c r="I7" t="n">
         <v>49.08</v>
@@ -1794,7 +1794,7 @@
         <v>6.89</v>
       </c>
       <c r="K7" t="n">
-        <v>4.979999999999997</v>
+        <v>1.139999999999994</v>
       </c>
       <c r="L7" t="n">
         <v>46.91</v>
@@ -1821,7 +1821,7 @@
         <v>922.03</v>
       </c>
       <c r="T7" t="n">
-        <v>11.55999999999999</v>
+        <v>0.2400000000000091</v>
       </c>
       <c r="U7" t="n">
         <v>83.3</v>
@@ -1830,7 +1830,7 @@
         <v>-4.14</v>
       </c>
       <c r="W7" t="n">
-        <v>31.22</v>
+        <v>0.3099999999999987</v>
       </c>
       <c r="X7" t="n">
         <v>244.48</v>
@@ -1845,7 +1845,7 @@
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
       <c r="AD7" t="n">
-        <v>22.89999999999998</v>
+        <v>0.2499999999999503</v>
       </c>
       <c r="AE7" t="n">
         <v>178.24</v>
@@ -1875,7 +1875,7 @@
         <v>4801.87</v>
       </c>
       <c r="AP7" t="n">
-        <v>34.74000000000004</v>
+        <v>2.710000000000008</v>
       </c>
       <c r="AQ7" t="n">
         <v>257.16</v>
@@ -1914,7 +1914,7 @@
         <v>9114.799999999999</v>
       </c>
       <c r="BE7" t="n">
-        <v>30.92000000000002</v>
+        <v>12.72000000000001</v>
       </c>
       <c r="BF7" t="n">
         <v>218.54</v>
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>74.09000000000015</v>
+        <v>19.32000000000016</v>
       </c>
       <c r="C8" t="n">
         <v>5837.79</v>
@@ -1971,7 +1971,7 @@
         <v>11.48</v>
       </c>
       <c r="E8" t="n">
-        <v>107.5</v>
+        <v>92.09999999999854</v>
       </c>
       <c r="F8" t="n">
         <v>6844.07</v>
@@ -1989,7 +1989,7 @@
         <v>6.69</v>
       </c>
       <c r="K8" t="n">
-        <v>4.880000000000003</v>
+        <v>0.04000000000001203</v>
       </c>
       <c r="L8" t="n">
         <v>52.17</v>
@@ -2016,7 +2016,7 @@
         <v>924.8099999999999</v>
       </c>
       <c r="T8" t="n">
-        <v>1.82000000000002</v>
+        <v>1.340000000000002</v>
       </c>
       <c r="U8" t="n">
         <v>94.83</v>
@@ -2025,7 +2025,7 @@
         <v>-3.68</v>
       </c>
       <c r="W8" t="n">
-        <v>4.260000000000019</v>
+        <v>3.950000000000021</v>
       </c>
       <c r="X8" t="n">
         <v>279.48</v>
@@ -2040,7 +2040,7 @@
       <c r="AB8" t="inlineStr"/>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="n">
-        <v>4.070000000000018</v>
+        <v>3.570000000000118</v>
       </c>
       <c r="AE8" t="n">
         <v>202.27</v>
@@ -2070,7 +2070,7 @@
         <v>4812.98</v>
       </c>
       <c r="AP8" t="n">
-        <v>4.139999999999965</v>
+        <v>1.429999999999957</v>
       </c>
       <c r="AQ8" t="n">
         <v>292.62</v>
@@ -2091,7 +2091,7 @@
         <v>5992.43</v>
       </c>
       <c r="AY8" t="n">
-        <v>2.57</v>
+        <v>2.210000000000036</v>
       </c>
       <c r="AZ8" t="n">
         <v>116.03</v>
@@ -2175,7 +2175,7 @@
         <v>10.69</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4400000000000048</v>
+        <v>0.1999999999999956</v>
       </c>
       <c r="I9" t="n">
         <v>64.09999999999999</v>
@@ -2184,7 +2184,7 @@
         <v>6.84</v>
       </c>
       <c r="K9" t="n">
-        <v>4.079999999999998</v>
+        <v>1.719999999999986</v>
       </c>
       <c r="L9" t="n">
         <v>56.46</v>
@@ -2211,7 +2211,7 @@
         <v>931.3200000000001</v>
       </c>
       <c r="T9" t="n">
-        <v>12.63</v>
+        <v>5.58999999999993</v>
       </c>
       <c r="U9" t="n">
         <v>106.7</v>
@@ -2235,7 +2235,7 @@
       <c r="AB9" t="inlineStr"/>
       <c r="AC9" t="inlineStr"/>
       <c r="AD9" t="n">
-        <v>24.99000000000001</v>
+        <v>8.959999999999882</v>
       </c>
       <c r="AE9" t="n">
         <v>230.74</v>
@@ -2265,7 +2265,7 @@
         <v>4839.25</v>
       </c>
       <c r="AP9" t="n">
-        <v>36.88999999999999</v>
+        <v>23.04000000000013</v>
       </c>
       <c r="AQ9" t="n">
         <v>331.54</v>
@@ -2286,7 +2286,7 @@
         <v>6004.24</v>
       </c>
       <c r="AY9" t="n">
-        <v>15.20999999999998</v>
+        <v>5.469999999999924</v>
       </c>
       <c r="AZ9" t="n">
         <v>130.72</v>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.57999999999902</v>
+        <v>7.23999999999887</v>
       </c>
       <c r="C10" t="n">
         <v>7475.13</v>
@@ -2361,7 +2361,7 @@
         <v>10.99</v>
       </c>
       <c r="E10" t="n">
-        <v>30.57000000000062</v>
+        <v>12.41000000000077</v>
       </c>
       <c r="F10" t="n">
         <v>8761.200000000001</v>
@@ -2370,7 +2370,7 @@
         <v>10.57</v>
       </c>
       <c r="H10" t="n">
-        <v>1.279999999999987</v>
+        <v>0.1399999999999794</v>
       </c>
       <c r="I10" t="n">
         <v>72.43000000000001</v>
@@ -2406,7 +2406,7 @@
         <v>952.15</v>
       </c>
       <c r="T10" t="n">
-        <v>11.22</v>
+        <v>0.4100000000000215</v>
       </c>
       <c r="U10" t="n">
         <v>119.19</v>
@@ -2415,7 +2415,7 @@
         <v>-4.24</v>
       </c>
       <c r="W10" t="n">
-        <v>3.450000000000045</v>
+        <v>0.4500000000001019</v>
       </c>
       <c r="X10" t="n">
         <v>365.79</v>
@@ -2481,7 +2481,7 @@
         <v>6067.64</v>
       </c>
       <c r="AY10" t="n">
-        <v>14.60000000000002</v>
+        <v>1.96000000000004</v>
       </c>
       <c r="AZ10" t="n">
         <v>146.64</v>
@@ -2499,7 +2499,7 @@
         <v>9363.459999999999</v>
       </c>
       <c r="BE10" t="n">
-        <v>33.45999999999998</v>
+        <v>28.37999999999982</v>
       </c>
       <c r="BF10" t="n">
         <v>318.39</v>
@@ -2547,7 +2547,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>508.1200000000008</v>
+        <v>468.8200000000051</v>
       </c>
       <c r="C11" t="n">
         <v>8324.49</v>
@@ -2556,7 +2556,7 @@
         <v>10.89</v>
       </c>
       <c r="E11" t="n">
-        <v>595.3599999999988</v>
+        <v>500.3199999999961</v>
       </c>
       <c r="F11" t="n">
         <v>9745.9</v>
@@ -2565,7 +2565,7 @@
         <v>10.25</v>
       </c>
       <c r="H11" t="n">
-        <v>7.460000000000008</v>
+        <v>4.74000000000008</v>
       </c>
       <c r="I11" t="n">
         <v>82.01000000000001</v>
@@ -2601,7 +2601,7 @@
         <v>952.34</v>
       </c>
       <c r="T11" t="n">
-        <v>9.840000000000003</v>
+        <v>9.01999999999996</v>
       </c>
       <c r="U11" t="n">
         <v>129.99</v>
@@ -2610,7 +2610,7 @@
         <v>-4.2</v>
       </c>
       <c r="W11" t="n">
-        <v>30.56</v>
+        <v>25.75999999999965</v>
       </c>
       <c r="X11" t="n">
         <v>413.86</v>
@@ -2625,7 +2625,7 @@
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
       <c r="AD11" t="n">
-        <v>22.85000000000002</v>
+        <v>10.09000000000002</v>
       </c>
       <c r="AE11" t="n">
         <v>289.59</v>
@@ -2655,7 +2655,7 @@
         <v>4941.18</v>
       </c>
       <c r="AP11" t="n">
-        <v>33.87</v>
+        <v>26.39</v>
       </c>
       <c r="AQ11" t="n">
         <v>410.59</v>
@@ -2676,7 +2676,7 @@
         <v>6097.53</v>
       </c>
       <c r="AY11" t="n">
-        <v>11.01999999999998</v>
+        <v>7.0999999999999</v>
       </c>
       <c r="AZ11" t="n">
         <v>161.29</v>
@@ -2769,7 +2769,7 @@
         <v>6.5</v>
       </c>
       <c r="K12" t="n">
-        <v>12.02</v>
+        <v>6.059999999999993</v>
       </c>
       <c r="L12" t="n">
         <v>61.38</v>
@@ -2871,7 +2871,7 @@
         <v>5845.74</v>
       </c>
       <c r="AY12" t="n">
-        <v>10.14000000000002</v>
+        <v>1.08000000000008</v>
       </c>
       <c r="AZ12" t="n">
         <v>170.68</v>
@@ -2937,7 +2937,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>583.9399999999999</v>
+        <v>209.1600000000008</v>
       </c>
       <c r="C13" t="n">
         <v>986.79</v>
@@ -2946,7 +2946,7 @@
         <v>11.77</v>
       </c>
       <c r="E13" t="n">
-        <v>687.5</v>
+        <v>244.8699999999988</v>
       </c>
       <c r="F13" t="n">
         <v>1158.67</v>
@@ -2955,7 +2955,7 @@
         <v>11.63</v>
       </c>
       <c r="H13" t="n">
-        <v>5.220000000000001</v>
+        <v>0.5700000000000249</v>
       </c>
       <c r="I13" t="n">
         <v>9.25</v>
@@ -2991,7 +2991,7 @@
         <v>679.45</v>
       </c>
       <c r="T13" t="n">
-        <v>9.970000000000002</v>
+        <v>3.480000000000008</v>
       </c>
       <c r="U13" t="n">
         <v>16.23</v>
@@ -3000,7 +3000,7 @@
         <v>-0.62</v>
       </c>
       <c r="W13" t="n">
-        <v>28.51</v>
+        <v>7.469999999999999</v>
       </c>
       <c r="X13" t="n">
         <v>42.46</v>
@@ -3015,7 +3015,7 @@
       <c r="AB13" t="inlineStr"/>
       <c r="AC13" t="inlineStr"/>
       <c r="AD13" t="n">
-        <v>20.7</v>
+        <v>1.980000000000038</v>
       </c>
       <c r="AE13" t="n">
         <v>35.84</v>
@@ -3045,7 +3045,7 @@
         <v>3815.76</v>
       </c>
       <c r="AP13" t="n">
-        <v>28.19</v>
+        <v>11.14</v>
       </c>
       <c r="AQ13" t="n">
         <v>53.91</v>
@@ -3066,7 +3066,7 @@
         <v>4693.4</v>
       </c>
       <c r="AY13" t="n">
-        <v>10.68</v>
+        <v>0.5399999999999796</v>
       </c>
       <c r="AZ13" t="n">
         <v>19.99</v>
@@ -3084,7 +3084,7 @@
         <v>7349.37</v>
       </c>
       <c r="BE13" t="n">
-        <v>24.65000000000001</v>
+        <v>4.01000000000001</v>
       </c>
       <c r="BF13" t="n">
         <v>43.12</v>
@@ -3186,7 +3186,7 @@
         <v>693.87</v>
       </c>
       <c r="T14" t="n">
-        <v>9.09</v>
+        <v>2.129999999999984</v>
       </c>
       <c r="U14" t="n">
         <v>26.27</v>
@@ -3210,7 +3210,7 @@
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
       <c r="AD14" t="n">
-        <v>20.58</v>
+        <v>5.279999999999903</v>
       </c>
       <c r="AE14" t="n">
         <v>57.59</v>
@@ -3279,7 +3279,7 @@
         <v>7401.58</v>
       </c>
       <c r="BE14" t="n">
-        <v>23.58</v>
+        <v>1.229999999999968</v>
       </c>
       <c r="BF14" t="n">
         <v>69.2</v>
@@ -3327,7 +3327,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>42.95000000000005</v>
+        <v>1.389999999999869</v>
       </c>
       <c r="C15" t="n">
         <v>2340.15</v>
@@ -3336,7 +3336,7 @@
         <v>13</v>
       </c>
       <c r="E15" t="n">
-        <v>58.57000000000039</v>
+        <v>5.130000000000791</v>
       </c>
       <c r="F15" t="n">
         <v>2728.18</v>
@@ -3345,7 +3345,7 @@
         <v>12.4</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7800000000000047</v>
+        <v>0.6200000000000152</v>
       </c>
       <c r="I15" t="n">
         <v>21.11</v>
@@ -3381,7 +3381,7 @@
         <v>718.27</v>
       </c>
       <c r="T15" t="n">
-        <v>9.049999999999997</v>
+        <v>1.310000000000021</v>
       </c>
       <c r="U15" t="n">
         <v>36.17</v>
@@ -3390,7 +3390,7 @@
         <v>2.2</v>
       </c>
       <c r="W15" t="n">
-        <v>3.190000000000012</v>
+        <v>1.370000000000015</v>
       </c>
       <c r="X15" t="n">
         <v>109.25</v>
@@ -3435,7 +3435,7 @@
         <v>3915.1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.45999999999999</v>
+        <v>0.45999999999999</v>
       </c>
       <c r="AQ15" t="n">
         <v>115.53</v>
@@ -3456,7 +3456,7 @@
         <v>4820.22</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.7300000000000111</v>
+        <v>0.0500000000000114</v>
       </c>
       <c r="AZ15" t="n">
         <v>44.45</v>
@@ -3474,7 +3474,7 @@
         <v>7508.22</v>
       </c>
       <c r="BE15" t="n">
-        <v>5.450000000000003</v>
+        <v>0.2100000000000248</v>
       </c>
       <c r="BF15" t="n">
         <v>95.48999999999999</v>
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14.44000000000005</v>
+        <v>11.66000000000031</v>
       </c>
       <c r="C16" t="n">
         <v>3081.18</v>
@@ -3531,7 +3531,7 @@
         <v>13.3</v>
       </c>
       <c r="E16" t="n">
-        <v>25.59999999999945</v>
+        <v>7.10999999999876</v>
       </c>
       <c r="F16" t="n">
         <v>3594.62</v>
@@ -3540,7 +3540,7 @@
         <v>12.8</v>
       </c>
       <c r="H16" t="n">
-        <v>1.199999999999999</v>
+        <v>0.4199999999999944</v>
       </c>
       <c r="I16" t="n">
         <v>27.8</v>
@@ -3549,7 +3549,7 @@
         <v>8.9</v>
       </c>
       <c r="K16" t="n">
-        <v>3.810000000000002</v>
+        <v>1.249999999999998</v>
       </c>
       <c r="L16" t="n">
         <v>28.82</v>
@@ -3630,7 +3630,7 @@
         <v>3948.29</v>
       </c>
       <c r="AP16" t="n">
-        <v>2.840000000000018</v>
+        <v>0.1700000000000381</v>
       </c>
       <c r="AQ16" t="n">
         <v>147.81</v>
@@ -3651,7 +3651,7 @@
         <v>4842.19</v>
       </c>
       <c r="AY16" t="n">
-        <v>1.089999999999979</v>
+        <v>0.1399999999999566</v>
       </c>
       <c r="AZ16" t="n">
         <v>56.63</v>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>607.5999999999999</v>
+        <v>551.2299999999996</v>
       </c>
       <c r="C17" t="n">
         <v>3855.52</v>
@@ -3726,7 +3726,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="n">
-        <v>707.9600000000005</v>
+        <v>605.5600000000027</v>
       </c>
       <c r="F17" t="n">
         <v>4501.82</v>
@@ -3735,7 +3735,7 @@
         <v>13.4</v>
       </c>
       <c r="H17" t="n">
-        <v>5.259999999999998</v>
+        <v>2.800000000000016</v>
       </c>
       <c r="I17" t="n">
         <v>35.79</v>
@@ -3771,7 +3771,7 @@
         <v>732.08</v>
       </c>
       <c r="T17" t="n">
-        <v>9.679999999999993</v>
+        <v>2.519999999999983</v>
       </c>
       <c r="U17" t="n">
         <v>57.25</v>
@@ -3780,7 +3780,7 @@
         <v>3.6</v>
       </c>
       <c r="W17" t="n">
-        <v>29.41</v>
+        <v>27.97000000000004</v>
       </c>
       <c r="X17" t="n">
         <v>192.86</v>
@@ -3795,7 +3795,7 @@
       <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="n">
-        <v>20.69000000000001</v>
+        <v>20.65000000000005</v>
       </c>
       <c r="AE17" t="n">
         <v>130.14</v>
@@ -3825,7 +3825,7 @@
         <v>3995.37</v>
       </c>
       <c r="AP17" t="n">
-        <v>30.28999999999999</v>
+        <v>25.72999999999986</v>
       </c>
       <c r="AQ17" t="n">
         <v>182.73</v>
@@ -3846,7 +3846,7 @@
         <v>4896.79</v>
       </c>
       <c r="AY17" t="n">
-        <v>11.24000000000001</v>
+        <v>9.070000000000128</v>
       </c>
       <c r="AZ17" t="n">
         <v>69.7</v>
@@ -3864,7 +3864,7 @@
         <v>7697.53</v>
       </c>
       <c r="BE17" t="n">
-        <v>27.90000000000001</v>
+        <v>26.90000000000005</v>
       </c>
       <c r="BF17" t="n">
         <v>155.92</v>
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>606.0999999999999</v>
+        <v>12.94000000000005</v>
       </c>
       <c r="C18" t="n">
         <v>4537.8</v>
@@ -3921,7 +3921,7 @@
         <v>13.8</v>
       </c>
       <c r="E18" t="n">
-        <v>702.5099999999993</v>
+        <v>20.14999999999827</v>
       </c>
       <c r="F18" t="n">
         <v>5295.64</v>
@@ -4107,7 +4107,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>39.9699999999998</v>
+        <v>14.0899999999997</v>
       </c>
       <c r="C19" t="n">
         <v>5218.93</v>
@@ -4116,7 +4116,7 @@
         <v>13.6</v>
       </c>
       <c r="E19" t="n">
-        <v>50.76000000000113</v>
+        <v>10.46000000000459</v>
       </c>
       <c r="F19" t="n">
         <v>6102.89</v>
@@ -4134,7 +4134,7 @@
         <v>9.5</v>
       </c>
       <c r="K19" t="n">
-        <v>3.109999999999999</v>
+        <v>1.590000000000019</v>
       </c>
       <c r="L19" t="n">
         <v>40.31</v>
@@ -4161,7 +4161,7 @@
         <v>722.96</v>
       </c>
       <c r="T19" t="n">
-        <v>9.049999999999997</v>
+        <v>8.369999999999933</v>
       </c>
       <c r="U19" t="n">
         <v>75.95999999999999</v>
@@ -4170,7 +4170,7 @@
         <v>1.5</v>
       </c>
       <c r="W19" t="n">
-        <v>1.090000000000011</v>
+        <v>0.450000000000053</v>
       </c>
       <c r="X19" t="n">
         <v>266.7</v>
@@ -4215,7 +4215,7 @@
         <v>4076.41</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.499999999999968</v>
+        <v>0.08999999999993591</v>
       </c>
       <c r="AQ19" t="n">
         <v>247.49</v>
@@ -4236,7 +4236,7 @@
         <v>4965.21</v>
       </c>
       <c r="AY19" t="n">
-        <v>1.09</v>
+        <v>0.1900000000000229</v>
       </c>
       <c r="AZ19" t="n">
         <v>93.31</v>
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>622.6700000000001</v>
+        <v>475.7300000000009</v>
       </c>
       <c r="C20" t="n">
         <v>5973</v>
@@ -4311,7 +4311,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="n">
-        <v>735.8599999999997</v>
+        <v>552.9699999999934</v>
       </c>
       <c r="F20" t="n">
         <v>6968.01</v>
@@ -4320,7 +4320,7 @@
         <v>13.6</v>
       </c>
       <c r="H20" t="n">
-        <v>6</v>
+        <v>5.879999999999995</v>
       </c>
       <c r="I20" t="n">
         <v>55.77</v>
@@ -4365,7 +4365,7 @@
         <v>3.2</v>
       </c>
       <c r="W20" t="n">
-        <v>3.700000000000006</v>
+        <v>0.2999999999998995</v>
       </c>
       <c r="X20" t="n">
         <v>306.19</v>
@@ -4380,7 +4380,7 @@
       <c r="AB20" t="inlineStr"/>
       <c r="AC20" t="inlineStr"/>
       <c r="AD20" t="n">
-        <v>21.99000000000001</v>
+        <v>12.07000000000005</v>
       </c>
       <c r="AE20" t="n">
         <v>204.81</v>
@@ -4410,7 +4410,7 @@
         <v>4082.59</v>
       </c>
       <c r="AP20" t="n">
-        <v>8.170000000000009</v>
+        <v>7.400000000000233</v>
       </c>
       <c r="AQ20" t="n">
         <v>283.85</v>
@@ -4431,7 +4431,7 @@
         <v>4995.47</v>
       </c>
       <c r="AY20" t="n">
-        <v>12.09999999999999</v>
+        <v>9.989999999999938</v>
       </c>
       <c r="AZ20" t="n">
         <v>106.2</v>
@@ -4524,7 +4524,7 @@
         <v>10.78</v>
       </c>
       <c r="K21" t="n">
-        <v>2.759999999999998</v>
+        <v>0.2999999999999949</v>
       </c>
       <c r="L21" t="n">
         <v>44.47</v>
@@ -4551,7 +4551,7 @@
         <v>728.37</v>
       </c>
       <c r="T21" t="n">
-        <v>8.420000000000002</v>
+        <v>2.259999999999991</v>
       </c>
       <c r="U21" t="n">
         <v>96.48</v>
@@ -4560,7 +4560,7 @@
         <v>2.15</v>
       </c>
       <c r="W21" t="n">
-        <v>0.9799999999999613</v>
+        <v>0.07000000000001938</v>
       </c>
       <c r="X21" t="n">
         <v>351.8</v>
@@ -4605,7 +4605,7 @@
         <v>4133.36</v>
       </c>
       <c r="AP21" t="n">
-        <v>21.29000000000002</v>
+        <v>5.449999999999969</v>
       </c>
       <c r="AQ21" t="n">
         <v>314.96</v>
@@ -4626,7 +4626,7 @@
         <v>5046.11</v>
       </c>
       <c r="AY21" t="n">
-        <v>11.09</v>
+        <v>0.08000000000001073</v>
       </c>
       <c r="AZ21" t="n">
         <v>119.36</v>
@@ -4692,7 +4692,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>466.5100000000002</v>
+        <v>304.9899999999998</v>
       </c>
       <c r="C22" t="n">
         <v>7512.6</v>
@@ -4701,7 +4701,7 @@
         <v>15.1</v>
       </c>
       <c r="E22" t="n">
-        <v>578.5900000000011</v>
+        <v>458.8699999999999</v>
       </c>
       <c r="F22" t="n">
         <v>8766.889999999999</v>
@@ -4719,7 +4719,7 @@
         <v>11.12</v>
       </c>
       <c r="K22" t="n">
-        <v>46.72</v>
+        <v>40.60000000000002</v>
       </c>
       <c r="L22" t="n">
         <v>45.52</v>
@@ -4755,7 +4755,7 @@
         <v>2.64</v>
       </c>
       <c r="W22" t="n">
-        <v>3.67000000000008</v>
+        <v>0.7300000000001967</v>
       </c>
       <c r="X22" t="n">
         <v>399.91</v>
@@ -4800,7 +4800,7 @@
         <v>4165.78</v>
       </c>
       <c r="AP22" t="n">
-        <v>13.77999999999997</v>
+        <v>0.6599999999999593</v>
       </c>
       <c r="AQ22" t="n">
         <v>348.79</v>
@@ -4821,7 +4821,7 @@
         <v>5068.54</v>
       </c>
       <c r="AY22" t="n">
-        <v>0.2799999999999994</v>
+        <v>0.119999999999978</v>
       </c>
       <c r="AZ22" t="n">
         <v>131.31</v>
@@ -4839,7 +4839,7 @@
         <v>8038.53</v>
       </c>
       <c r="BE22" t="n">
-        <v>28.11999999999995</v>
+        <v>6.839999999999872</v>
       </c>
       <c r="BF22" t="n">
         <v>302.29</v>
@@ -4887,7 +4887,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>352.8299999999998</v>
+        <v>7.459999999999923</v>
       </c>
       <c r="C23" t="n">
         <v>7991.33</v>
@@ -4905,7 +4905,7 @@
         <v>13.7</v>
       </c>
       <c r="H23" t="n">
-        <v>0.8900000000000032</v>
+        <v>0.03000000000001801</v>
       </c>
       <c r="I23" t="n">
         <v>77.23</v>
@@ -4941,7 +4941,7 @@
         <v>682.76</v>
       </c>
       <c r="T23" t="n">
-        <v>4.510000000000003</v>
+        <v>3.990000000000022</v>
       </c>
       <c r="U23" t="n">
         <v>112.27</v>
@@ -4950,7 +4950,7 @@
         <v>0.76</v>
       </c>
       <c r="W23" t="n">
-        <v>37.84</v>
+        <v>29.03999999999946</v>
       </c>
       <c r="X23" t="n">
         <v>439.07</v>
@@ -4965,7 +4965,7 @@
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="n">
-        <v>2.349999999999973</v>
+        <v>1.029999999999916</v>
       </c>
       <c r="AE23" t="n">
         <v>283.3</v>
@@ -4995,7 +4995,7 @@
         <v>3976.98</v>
       </c>
       <c r="AP23" t="n">
-        <v>10.01000000000001</v>
+        <v>8.690000000000092</v>
       </c>
       <c r="AQ23" t="n">
         <v>378.57</v>
@@ -5016,7 +5016,7 @@
         <v>4928.28</v>
       </c>
       <c r="AY23" t="n">
-        <v>5.020000000000001</v>
+        <v>3.980000000000015</v>
       </c>
       <c r="AZ23" t="n">
         <v>138.62</v>
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>537.2099999999999</v>
+        <v>184.3800000000001</v>
       </c>
       <c r="C24" t="n">
         <v>1012.83</v>
@@ -5091,7 +5091,7 @@
         <v>23.62</v>
       </c>
       <c r="E24" t="n">
-        <v>624.6300000000001</v>
+        <v>238.1900000000012</v>
       </c>
       <c r="F24" t="n">
         <v>1183.36</v>
@@ -5100,7 +5100,7 @@
         <v>22.62</v>
       </c>
       <c r="H24" t="n">
-        <v>5.010000000000001</v>
+        <v>3.599999999999951</v>
       </c>
       <c r="I24" t="n">
         <v>8.960000000000001</v>
@@ -5136,7 +5136,7 @@
         <v>538.5700000000001</v>
       </c>
       <c r="T24" t="n">
-        <v>7.880000000000001</v>
+        <v>3.369999999999997</v>
       </c>
       <c r="U24" t="n">
         <v>16.5</v>
@@ -5160,7 +5160,7 @@
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
       <c r="AD24" t="n">
-        <v>18.53</v>
+        <v>13.09000000000028</v>
       </c>
       <c r="AE24" t="n">
         <v>34.46</v>
@@ -5190,7 +5190,7 @@
         <v>3306.97</v>
       </c>
       <c r="AP24" t="n">
-        <v>26.21000000000001</v>
+        <v>6.189999999999989</v>
       </c>
       <c r="AQ24" t="n">
         <v>49.84</v>
@@ -5211,7 +5211,7 @@
         <v>4027.92</v>
       </c>
       <c r="AY24" t="n">
-        <v>10.21</v>
+        <v>0.4499999999999984</v>
       </c>
       <c r="AZ24" t="n">
         <v>16.95</v>
@@ -5229,7 +5229,7 @@
         <v>6536.54</v>
       </c>
       <c r="BE24" t="n">
-        <v>20.06</v>
+        <v>1.799999999999901</v>
       </c>
       <c r="BF24" t="n">
         <v>43.14</v>
@@ -5295,7 +5295,7 @@
         <v>23.03</v>
       </c>
       <c r="H25" t="n">
-        <v>4.81</v>
+        <v>0.6900000000000022</v>
       </c>
       <c r="I25" t="n">
         <v>15.13</v>
@@ -5385,7 +5385,7 @@
         <v>3387.53</v>
       </c>
       <c r="AP25" t="n">
-        <v>25.52</v>
+        <v>3.130000000000011</v>
       </c>
       <c r="AQ25" t="n">
         <v>77.41</v>
@@ -5406,7 +5406,7 @@
         <v>4118.72</v>
       </c>
       <c r="AY25" t="n">
-        <v>9.859999999999999</v>
+        <v>3.770000000000002</v>
       </c>
       <c r="AZ25" t="n">
         <v>27.16</v>
@@ -5424,7 +5424,7 @@
         <v>6605.21</v>
       </c>
       <c r="BE25" t="n">
-        <v>4.289999999999992</v>
+        <v>0.6900000000001898</v>
       </c>
       <c r="BF25" t="n">
         <v>67.2</v>
@@ -5490,7 +5490,7 @@
         <v>21.19</v>
       </c>
       <c r="H26" t="n">
-        <v>0.8500000000000005</v>
+        <v>0.1599999999999984</v>
       </c>
       <c r="I26" t="n">
         <v>20.27</v>
@@ -5526,7 +5526,7 @@
         <v>577.55</v>
       </c>
       <c r="T26" t="n">
-        <v>7.609999999999999</v>
+        <v>7.570000000000014</v>
       </c>
       <c r="U26" t="n">
         <v>29.57</v>
@@ -5550,7 +5550,7 @@
       <c r="AB26" t="inlineStr"/>
       <c r="AC26" t="inlineStr"/>
       <c r="AD26" t="n">
-        <v>1.47999999999999</v>
+        <v>0.3799999999999744</v>
       </c>
       <c r="AE26" t="n">
         <v>76.54000000000001</v>
@@ -5580,7 +5580,7 @@
         <v>3447.86</v>
       </c>
       <c r="AP26" t="n">
-        <v>5.460000000000001</v>
+        <v>2.32999999999999</v>
       </c>
       <c r="AQ26" t="n">
         <v>105.56</v>
@@ -5601,7 +5601,7 @@
         <v>4193.29</v>
       </c>
       <c r="AY26" t="n">
-        <v>9.420000000000002</v>
+        <v>0.530000000000002</v>
       </c>
       <c r="AZ26" t="n">
         <v>36.5</v>
@@ -5667,7 +5667,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>29.4699999999998</v>
+        <v>2.479999999999791</v>
       </c>
       <c r="C27" t="n">
         <v>3051.63</v>
@@ -5685,7 +5685,7 @@
         <v>20.24</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8999999999999986</v>
+        <v>0.04999999999999805</v>
       </c>
       <c r="I27" t="n">
         <v>26.81</v>
@@ -5730,7 +5730,7 @@
         <v>2.57</v>
       </c>
       <c r="W27" t="n">
-        <v>34.07999999999998</v>
+        <v>15.44000000000001</v>
       </c>
       <c r="X27" t="n">
         <v>165.9</v>
@@ -5745,7 +5745,7 @@
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
       <c r="AD27" t="n">
-        <v>0.7199999999999918</v>
+        <v>0.3400000000000173</v>
       </c>
       <c r="AE27" t="n">
         <v>101.54</v>
@@ -5775,7 +5775,7 @@
         <v>3506.71</v>
       </c>
       <c r="AP27" t="n">
-        <v>24.57000000000001</v>
+        <v>2.730000000000008</v>
       </c>
       <c r="AQ27" t="n">
         <v>135.73</v>
@@ -5814,7 +5814,7 @@
         <v>6856.77</v>
       </c>
       <c r="BE27" t="n">
-        <v>1.34</v>
+        <v>0.03999999999998161</v>
       </c>
       <c r="BF27" t="n">
         <v>118.77</v>
@@ -5862,7 +5862,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>551.23</v>
+        <v>514.3200000000008</v>
       </c>
       <c r="C28" t="n">
         <v>3839.75</v>
@@ -5871,7 +5871,7 @@
         <v>21.67</v>
       </c>
       <c r="E28" t="n">
-        <v>644.5699999999997</v>
+        <v>525.369999999999</v>
       </c>
       <c r="F28" t="n">
         <v>4474.13</v>
@@ -5880,7 +5880,7 @@
         <v>21.14</v>
       </c>
       <c r="H28" t="n">
-        <v>5.059999999999999</v>
+        <v>4.010000000000006</v>
       </c>
       <c r="I28" t="n">
         <v>33.46</v>
@@ -5916,7 +5916,7 @@
         <v>587.83</v>
       </c>
       <c r="T28" t="n">
-        <v>6.969999999999999</v>
+        <v>1.929999999999979</v>
       </c>
       <c r="U28" t="n">
         <v>46.52</v>
@@ -5925,7 +5925,7 @@
         <v>2.68</v>
       </c>
       <c r="W28" t="n">
-        <v>26.63</v>
+        <v>1.870000000000008</v>
       </c>
       <c r="X28" t="n">
         <v>214.07</v>
@@ -5940,7 +5940,7 @@
       <c r="AB28" t="inlineStr"/>
       <c r="AC28" t="inlineStr"/>
       <c r="AD28" t="n">
-        <v>19.58</v>
+        <v>17.08000000000001</v>
       </c>
       <c r="AE28" t="n">
         <v>127.07</v>
@@ -5991,7 +5991,7 @@
         <v>4315.32</v>
       </c>
       <c r="AY28" t="n">
-        <v>9.219999999999999</v>
+        <v>4.100000000000009</v>
       </c>
       <c r="AZ28" t="n">
         <v>58.38</v>
@@ -6009,7 +6009,7 @@
         <v>6957.91</v>
       </c>
       <c r="BE28" t="n">
-        <v>23.50999999999999</v>
+        <v>21.40000000000004</v>
       </c>
       <c r="BF28" t="n">
         <v>148.75</v>
@@ -6084,7 +6084,7 @@
         <v>14.83</v>
       </c>
       <c r="K29" t="n">
-        <v>0.389999999999997</v>
+        <v>0.06000000000000001</v>
       </c>
       <c r="L29" t="n">
         <v>26.57</v>
@@ -6120,7 +6120,7 @@
         <v>4.01</v>
       </c>
       <c r="W29" t="n">
-        <v>3.060000000000031</v>
+        <v>1.190000000000023</v>
       </c>
       <c r="X29" t="n">
         <v>253.73</v>
@@ -6165,7 +6165,7 @@
         <v>3606.26</v>
       </c>
       <c r="AP29" t="n">
-        <v>26.93000000000001</v>
+        <v>17.01000000000013</v>
       </c>
       <c r="AQ29" t="n">
         <v>195.8</v>
@@ -6204,7 +6204,7 @@
         <v>7033.97</v>
       </c>
       <c r="BE29" t="n">
-        <v>22.75</v>
+        <v>0.580000000000009</v>
       </c>
       <c r="BF29" t="n">
         <v>176.9</v>
@@ -6252,7 +6252,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>29.72999999999956</v>
+        <v>4.229999999999109</v>
       </c>
       <c r="C30" t="n">
         <v>5228.93</v>
@@ -6279,7 +6279,7 @@
         <v>13.67</v>
       </c>
       <c r="K30" t="n">
-        <v>2.239999999999998</v>
+        <v>1.340000000000004</v>
       </c>
       <c r="L30" t="n">
         <v>29.25</v>
@@ -6306,7 +6306,7 @@
         <v>604.0599999999999</v>
       </c>
       <c r="T30" t="n">
-        <v>6.19</v>
+        <v>3.069999999999996</v>
       </c>
       <c r="U30" t="n">
         <v>62.57</v>
@@ -6381,7 +6381,7 @@
         <v>4410.1</v>
       </c>
       <c r="AY30" t="n">
-        <v>10.22</v>
+        <v>5.779999999999996</v>
       </c>
       <c r="AZ30" t="n">
         <v>78.29000000000001</v>
@@ -6399,7 +6399,7 @@
         <v>7096.07</v>
       </c>
       <c r="BE30" t="n">
-        <v>2.940000000000001</v>
+        <v>1.779999999999983</v>
       </c>
       <c r="BF30" t="n">
         <v>206.27</v>
@@ -6447,7 +6447,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>29.30999999999949</v>
+        <v>16.62000000000216</v>
       </c>
       <c r="C31" t="n">
         <v>5958.87</v>
@@ -6456,7 +6456,7 @@
         <v>21.85</v>
       </c>
       <c r="E31" t="n">
-        <v>32.59000000000015</v>
+        <v>1.329999999999934</v>
       </c>
       <c r="F31" t="n">
         <v>6963.09</v>
@@ -6465,7 +6465,7 @@
         <v>21.67</v>
       </c>
       <c r="H31" t="n">
-        <v>0.5600000000000023</v>
+        <v>0.4000000000000056</v>
       </c>
       <c r="I31" t="n">
         <v>52.23</v>
@@ -6474,7 +6474,7 @@
         <v>13.51</v>
       </c>
       <c r="K31" t="n">
-        <v>1.810000000000002</v>
+        <v>0.2399999999999991</v>
       </c>
       <c r="L31" t="n">
         <v>31.45</v>
@@ -6510,7 +6510,7 @@
         <v>5.25</v>
       </c>
       <c r="W31" t="n">
-        <v>5.680000000000028</v>
+        <v>0.640000000000192</v>
       </c>
       <c r="X31" t="n">
         <v>331.8</v>
@@ -6555,7 +6555,7 @@
         <v>3684.8</v>
       </c>
       <c r="AP31" t="n">
-        <v>28.79999999999998</v>
+        <v>20.76000000000002</v>
       </c>
       <c r="AQ31" t="n">
         <v>257.97</v>
@@ -6594,7 +6594,7 @@
         <v>7191.49</v>
       </c>
       <c r="BE31" t="n">
-        <v>25.54000000000002</v>
+        <v>14.36000000000003</v>
       </c>
       <c r="BF31" t="n">
         <v>235.36</v>
@@ -6642,7 +6642,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>612.5200000000004</v>
+        <v>507.9699999999998</v>
       </c>
       <c r="C32" t="n">
         <v>6709.24</v>
@@ -6651,7 +6651,7 @@
         <v>21.41</v>
       </c>
       <c r="E32" t="n">
-        <v>729.1100000000006</v>
+        <v>692.5300000000007</v>
       </c>
       <c r="F32" t="n">
         <v>7839.66</v>
@@ -6660,7 +6660,7 @@
         <v>21.29</v>
       </c>
       <c r="H32" t="n">
-        <v>5.619999999999997</v>
+        <v>3.619999999999983</v>
       </c>
       <c r="I32" t="n">
         <v>59.35</v>
@@ -6669,7 +6669,7 @@
         <v>13.88</v>
       </c>
       <c r="K32" t="n">
-        <v>0.8299999999999983</v>
+        <v>0.5899999999999992</v>
       </c>
       <c r="L32" t="n">
         <v>33.77</v>
@@ -6696,7 +6696,7 @@
         <v>607.1799999999999</v>
       </c>
       <c r="T32" t="n">
-        <v>4.710000000000008</v>
+        <v>0.210000000000008</v>
       </c>
       <c r="U32" t="n">
         <v>79.22</v>
@@ -6720,7 +6720,7 @@
       <c r="AB32" t="inlineStr"/>
       <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="n">
-        <v>2.06999999999999</v>
+        <v>0.3499999999999492</v>
       </c>
       <c r="AE32" t="n">
         <v>222.65</v>
@@ -6750,7 +6750,7 @@
         <v>3748.79</v>
       </c>
       <c r="AP32" t="n">
-        <v>28.17000000000002</v>
+        <v>1.380000000000031</v>
       </c>
       <c r="AQ32" t="n">
         <v>289.62</v>
@@ -6771,7 +6771,7 @@
         <v>4543.48</v>
       </c>
       <c r="AY32" t="n">
-        <v>9.189999999999998</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="AZ32" t="n">
         <v>100.32</v>
@@ -6789,7 +6789,7 @@
         <v>7314.48</v>
       </c>
       <c r="BE32" t="n">
-        <v>24.81</v>
+        <v>2.20999999999998</v>
       </c>
       <c r="BF32" t="n">
         <v>267.45</v>
@@ -6846,7 +6846,7 @@
         <v>21.78</v>
       </c>
       <c r="E33" t="n">
-        <v>727.8499999999995</v>
+        <v>31.32999999999902</v>
       </c>
       <c r="F33" t="n">
         <v>8725.049999999999</v>
@@ -6891,7 +6891,7 @@
         <v>617.38</v>
       </c>
       <c r="T33" t="n">
-        <v>2.819999999999979</v>
+        <v>0.149999999999963</v>
       </c>
       <c r="U33" t="n">
         <v>85.67</v>
@@ -6900,7 +6900,7 @@
         <v>3</v>
       </c>
       <c r="W33" t="n">
-        <v>5.149999999999963</v>
+        <v>2.110000000000056</v>
       </c>
       <c r="X33" t="n">
         <v>424.39</v>
@@ -6915,7 +6915,7 @@
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="n">
-        <v>4.93000000000001</v>
+        <v>0.01000000000006995</v>
       </c>
       <c r="AE33" t="n">
         <v>250.07</v>
@@ -6945,7 +6945,7 @@
         <v>3786.32</v>
       </c>
       <c r="AP33" t="n">
-        <v>7.479999999999958</v>
+        <v>4.719999999999896</v>
       </c>
       <c r="AQ33" t="n">
         <v>321.52</v>
@@ -6966,7 +6966,7 @@
         <v>4584.08</v>
       </c>
       <c r="AY33" t="n">
-        <v>9.050000000000011</v>
+        <v>0.06000000000001293</v>
       </c>
       <c r="AZ33" t="n">
         <v>109.75</v>
@@ -6984,7 +6984,7 @@
         <v>7439.05</v>
       </c>
       <c r="BE33" t="n">
-        <v>5.949999999999992</v>
+        <v>1.530000000000032</v>
       </c>
       <c r="BF33" t="n">
         <v>297.66</v>
@@ -7032,7 +7032,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>196.2600000000001</v>
+        <v>138.8600000000025</v>
       </c>
       <c r="C34" t="n">
         <v>8243.379999999999</v>
@@ -7041,7 +7041,7 @@
         <v>21.84</v>
       </c>
       <c r="E34" t="n">
-        <v>237.0600000000005</v>
+        <v>174.4000000000025</v>
       </c>
       <c r="F34" t="n">
         <v>9617.08</v>
@@ -7059,7 +7059,7 @@
         <v>16.35</v>
       </c>
       <c r="K34" t="n">
-        <v>7.909999999999997</v>
+        <v>5.269999999999983</v>
       </c>
       <c r="L34" t="n">
         <v>35.19</v>
@@ -7086,7 +7086,7 @@
         <v>582.4400000000001</v>
       </c>
       <c r="T34" t="n">
-        <v>1.220000000000013</v>
+        <v>0.710000000000079</v>
       </c>
       <c r="U34" t="n">
         <v>97.13</v>
@@ -7095,7 +7095,7 @@
         <v>4.49</v>
       </c>
       <c r="W34" t="n">
-        <v>41.89</v>
+        <v>25.85000000000001</v>
       </c>
       <c r="X34" t="n">
         <v>479.97</v>
@@ -7110,7 +7110,7 @@
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="n">
-        <v>0.03999999999998849</v>
+        <v>0.02999999999991854</v>
       </c>
       <c r="AE34" t="n">
         <v>284.57</v>
@@ -7140,7 +7140,7 @@
         <v>3778.39</v>
       </c>
       <c r="AP34" t="n">
-        <v>6.810000000000024</v>
+        <v>0.7100000000000968</v>
       </c>
       <c r="AQ34" t="n">
         <v>369.18</v>
@@ -7161,7 +7161,7 @@
         <v>4610.65</v>
       </c>
       <c r="AY34" t="n">
-        <v>4.569999999999988</v>
+        <v>4.449999999999962</v>
       </c>
       <c r="AZ34" t="n">
         <v>123.66</v>
@@ -7179,7 +7179,7 @@
         <v>7470.03</v>
       </c>
       <c r="BE34" t="n">
-        <v>5.580000000000013</v>
+        <v>1.840000000000001</v>
       </c>
       <c r="BF34" t="n">
         <v>333.81</v>
@@ -7227,7 +7227,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>535.92</v>
+        <v>4.539999999997292</v>
       </c>
       <c r="C35" t="n">
         <v>1014.37</v>
@@ -7236,7 +7236,7 @@
         <v>23.23</v>
       </c>
       <c r="E35" t="n">
-        <v>622.12</v>
+        <v>147.999999999999</v>
       </c>
       <c r="F35" t="n">
         <v>1189.75</v>
@@ -7245,7 +7245,7 @@
         <v>23.3</v>
       </c>
       <c r="H35" t="n">
-        <v>4.29</v>
+        <v>2.57000000000002</v>
       </c>
       <c r="I35" t="n">
         <v>9.119999999999999</v>
@@ -7281,7 +7281,7 @@
         <v>451.56</v>
       </c>
       <c r="T35" t="n">
-        <v>6.32</v>
+        <v>1.799999999999919</v>
       </c>
       <c r="U35" t="n">
         <v>11.85</v>
@@ -7305,7 +7305,7 @@
       <c r="AB35" t="inlineStr"/>
       <c r="AC35" t="inlineStr"/>
       <c r="AD35" t="n">
-        <v>17.24</v>
+        <v>17.08000000000004</v>
       </c>
       <c r="AE35" t="n">
         <v>35.74</v>
@@ -7335,7 +7335,7 @@
         <v>3138.73</v>
       </c>
       <c r="AP35" t="n">
-        <v>23.38</v>
+        <v>2.949999999999932</v>
       </c>
       <c r="AQ35" t="n">
         <v>49.92</v>
@@ -7356,7 +7356,7 @@
         <v>3760.15</v>
       </c>
       <c r="AY35" t="n">
-        <v>7.610000000000001</v>
+        <v>3.040000000000013</v>
       </c>
       <c r="AZ35" t="n">
         <v>15.57</v>
@@ -7374,7 +7374,7 @@
         <v>6078.77</v>
       </c>
       <c r="BE35" t="n">
-        <v>19.44</v>
+        <v>2.699999999999963</v>
       </c>
       <c r="BF35" t="n">
         <v>44.73</v>
@@ -7476,7 +7476,7 @@
         <v>469.39</v>
       </c>
       <c r="T36" t="n">
-        <v>6.079999999999998</v>
+        <v>0.9800000000000111</v>
       </c>
       <c r="U36" t="n">
         <v>19.4</v>
@@ -7500,7 +7500,7 @@
       <c r="AB36" t="inlineStr"/>
       <c r="AC36" t="inlineStr"/>
       <c r="AD36" t="n">
-        <v>17.23999999999999</v>
+        <v>0.03999999999998138</v>
       </c>
       <c r="AE36" t="n">
         <v>56.06</v>
@@ -7551,7 +7551,7 @@
         <v>3872.59</v>
       </c>
       <c r="AY36" t="n">
-        <v>7.41</v>
+        <v>1.329999999999974</v>
       </c>
       <c r="AZ36" t="n">
         <v>25.66</v>
@@ -7695,7 +7695,7 @@
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="n">
-        <v>2.440000000000008</v>
+        <v>2.360000000000046</v>
       </c>
       <c r="AE37" t="n">
         <v>80.98</v>
@@ -7725,7 +7725,7 @@
         <v>3288.8</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.260000000000009</v>
+        <v>0.3800000000000276</v>
       </c>
       <c r="AQ37" t="n">
         <v>105.1</v>
@@ -7764,7 +7764,7 @@
         <v>6265.51</v>
       </c>
       <c r="BE37" t="n">
-        <v>2.050000000000011</v>
+        <v>0.2500000000000495</v>
       </c>
       <c r="BF37" t="n">
         <v>96.38</v>
@@ -7812,7 +7812,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>79.40000000000009</v>
+        <v>66.83999999999969</v>
       </c>
       <c r="C38" t="n">
         <v>3153.14</v>
@@ -7821,7 +7821,7 @@
         <v>27.49</v>
       </c>
       <c r="E38" t="n">
-        <v>116.0000000000005</v>
+        <v>80.52000000000182</v>
       </c>
       <c r="F38" t="n">
         <v>3668.46</v>
@@ -7830,7 +7830,7 @@
         <v>27.71</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5200000000000031</v>
+        <v>0.04000000000000281</v>
       </c>
       <c r="I38" t="n">
         <v>27.37</v>
@@ -7839,7 +7839,7 @@
         <v>26.42</v>
       </c>
       <c r="K38" t="n">
-        <v>1.850000000000001</v>
+        <v>1.490000000000001</v>
       </c>
       <c r="L38" t="n">
         <v>18.54</v>
@@ -7866,7 +7866,7 @@
         <v>511.39</v>
       </c>
       <c r="T38" t="n">
-        <v>1.099999999999994</v>
+        <v>0.1799999999999782</v>
       </c>
       <c r="U38" t="n">
         <v>33.91</v>
@@ -7875,7 +7875,7 @@
         <v>14.14</v>
       </c>
       <c r="W38" t="n">
-        <v>5.399999999999991</v>
+        <v>0.02999999999996095</v>
       </c>
       <c r="X38" t="n">
         <v>177.89</v>
@@ -7920,7 +7920,7 @@
         <v>3384.44</v>
       </c>
       <c r="AP38" t="n">
-        <v>0.409999999999993</v>
+        <v>0.02999999999996539</v>
       </c>
       <c r="AQ38" t="n">
         <v>134.09</v>
@@ -7941,7 +7941,7 @@
         <v>3972.05</v>
       </c>
       <c r="AY38" t="n">
-        <v>1.730000000000004</v>
+        <v>0.1400000000000108</v>
       </c>
       <c r="AZ38" t="n">
         <v>43.88</v>
@@ -7959,7 +7959,7 @@
         <v>6400.75</v>
       </c>
       <c r="BE38" t="n">
-        <v>2.900000000000009</v>
+        <v>0.5999999999999484</v>
       </c>
       <c r="BF38" t="n">
         <v>122.17</v>
@@ -8007,7 +8007,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>561.5</v>
+        <v>262.7400000000002</v>
       </c>
       <c r="C39" t="n">
         <v>3986.7</v>
@@ -8016,7 +8016,7 @@
         <v>28.14</v>
       </c>
       <c r="E39" t="n">
-        <v>649.77</v>
+        <v>238.9899999999961</v>
       </c>
       <c r="F39" t="n">
         <v>4632.03</v>
@@ -8025,7 +8025,7 @@
         <v>27.4</v>
       </c>
       <c r="H39" t="n">
-        <v>5.330000000000002</v>
+        <v>4.20999999999999</v>
       </c>
       <c r="I39" t="n">
         <v>34.36</v>
@@ -8061,7 +8061,7 @@
         <v>518.79</v>
       </c>
       <c r="T39" t="n">
-        <v>6.010000000000005</v>
+        <v>2.990000000000051</v>
       </c>
       <c r="U39" t="n">
         <v>41.86</v>
@@ -8070,7 +8070,7 @@
         <v>12.77</v>
       </c>
       <c r="W39" t="n">
-        <v>30.88</v>
+        <v>20.0200000000001</v>
       </c>
       <c r="X39" t="n">
         <v>222.01</v>
@@ -8085,7 +8085,7 @@
       <c r="AB39" t="inlineStr"/>
       <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="n">
-        <v>18.84999999999999</v>
+        <v>14.28999999999995</v>
       </c>
       <c r="AE39" t="n">
         <v>129.67</v>
@@ -8115,7 +8115,7 @@
         <v>3404.87</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.1000000000000085</v>
+        <v>0.07000000000004311</v>
       </c>
       <c r="AQ39" t="n">
         <v>165.82</v>
@@ -8136,7 +8136,7 @@
         <v>4010.11</v>
       </c>
       <c r="AY39" t="n">
-        <v>8.049999999999997</v>
+        <v>4.309999999999967</v>
       </c>
       <c r="AZ39" t="n">
         <v>54.32</v>
@@ -8154,7 +8154,7 @@
         <v>6429.23</v>
       </c>
       <c r="BE39" t="n">
-        <v>23.46000000000001</v>
+        <v>18.01</v>
       </c>
       <c r="BF39" t="n">
         <v>152.01</v>
@@ -8220,7 +8220,7 @@
         <v>26.94</v>
       </c>
       <c r="H40" t="n">
-        <v>5.199999999999996</v>
+        <v>0.389999999999997</v>
       </c>
       <c r="I40" t="n">
         <v>40.7</v>
@@ -8229,7 +8229,7 @@
         <v>25.42</v>
       </c>
       <c r="K40" t="n">
-        <v>0.370000000000005</v>
+        <v>0.05000000000001101</v>
       </c>
       <c r="L40" t="n">
         <v>24.24</v>
@@ -8280,7 +8280,7 @@
       <c r="AB40" t="inlineStr"/>
       <c r="AC40" t="inlineStr"/>
       <c r="AD40" t="n">
-        <v>18.47000000000001</v>
+        <v>0.76000000000003</v>
       </c>
       <c r="AE40" t="n">
         <v>151.34</v>
@@ -8310,7 +8310,7 @@
         <v>3444.9</v>
       </c>
       <c r="AP40" t="n">
-        <v>0.9900000000000091</v>
+        <v>0.589999999999975</v>
       </c>
       <c r="AQ40" t="n">
         <v>196.05</v>
@@ -8397,7 +8397,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.15999999999985</v>
+        <v>0.920000000000071</v>
       </c>
       <c r="C41" t="n">
         <v>5445.18</v>
@@ -8406,7 +8406,7 @@
         <v>28.14</v>
       </c>
       <c r="E41" t="n">
-        <v>22.14999999999964</v>
+        <v>1.44999999999937</v>
       </c>
       <c r="F41" t="n">
         <v>6320.87</v>
@@ -8424,7 +8424,7 @@
         <v>24.7</v>
       </c>
       <c r="K41" t="n">
-        <v>1.849999999999998</v>
+        <v>1.169999999999963</v>
       </c>
       <c r="L41" t="n">
         <v>26.27</v>
@@ -8451,7 +8451,7 @@
         <v>520.91</v>
       </c>
       <c r="T41" t="n">
-        <v>0.470000000000006</v>
+        <v>0.150000000000027</v>
       </c>
       <c r="U41" t="n">
         <v>56.81</v>
@@ -8475,7 +8475,7 @@
       <c r="AB41" t="inlineStr"/>
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="n">
-        <v>1.889999999999979</v>
+        <v>0.3699999999999191</v>
       </c>
       <c r="AE41" t="n">
         <v>174.78</v>
@@ -8526,7 +8526,7 @@
         <v>4087.25</v>
       </c>
       <c r="AY41" t="n">
-        <v>0.2199999999999989</v>
+        <v>0.03999999999999205</v>
       </c>
       <c r="AZ41" t="n">
         <v>74.52</v>
@@ -8544,7 +8544,7 @@
         <v>6575.56</v>
       </c>
       <c r="BE41" t="n">
-        <v>22.34</v>
+        <v>21.78000000000008</v>
       </c>
       <c r="BF41" t="n">
         <v>209.82</v>
@@ -8592,7 +8592,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>52.72000000000116</v>
+        <v>33.80000000000108</v>
       </c>
       <c r="C42" t="n">
         <v>6234.31</v>
@@ -8601,7 +8601,7 @@
         <v>28.74</v>
       </c>
       <c r="E42" t="n">
-        <v>58.94999999999982</v>
+        <v>32.45000000000207</v>
       </c>
       <c r="F42" t="n">
         <v>7242.34</v>
@@ -8610,7 +8610,7 @@
         <v>28.21</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5599999999999952</v>
+        <v>0.05999999999998101</v>
       </c>
       <c r="I42" t="n">
         <v>54.18</v>
@@ -8619,7 +8619,7 @@
         <v>25.71</v>
       </c>
       <c r="K42" t="n">
-        <v>1.280000000000001</v>
+        <v>0.010000000000016</v>
       </c>
       <c r="L42" t="n">
         <v>28.75</v>
@@ -8646,7 +8646,7 @@
         <v>529.88</v>
       </c>
       <c r="T42" t="n">
-        <v>6.450000000000003</v>
+        <v>5.369999999999926</v>
       </c>
       <c r="U42" t="n">
         <v>63.74</v>
@@ -8655,7 +8655,7 @@
         <v>13.94</v>
       </c>
       <c r="W42" t="n">
-        <v>3.839999999999975</v>
+        <v>0.8799999999999388</v>
       </c>
       <c r="X42" t="n">
         <v>350.01</v>
@@ -8670,7 +8670,7 @@
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="n">
-        <v>2.400000000000002</v>
+        <v>0.5100000000000231</v>
       </c>
       <c r="AE42" t="n">
         <v>200.16</v>
@@ -8700,7 +8700,7 @@
         <v>3514.49</v>
       </c>
       <c r="AP42" t="n">
-        <v>26.21000000000001</v>
+        <v>24.33000000000013</v>
       </c>
       <c r="AQ42" t="n">
         <v>256.91</v>
@@ -8721,7 +8721,7 @@
         <v>4133.3</v>
       </c>
       <c r="AY42" t="n">
-        <v>0.2400000000000091</v>
+        <v>0.0200000000000102</v>
       </c>
       <c r="AZ42" t="n">
         <v>84.45</v>
@@ -8787,7 +8787,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>603.8899999999994</v>
+        <v>444.2499999999945</v>
       </c>
       <c r="C43" t="n">
         <v>7028.95</v>
@@ -8796,7 +8796,7 @@
         <v>28.08</v>
       </c>
       <c r="E43" t="n">
-        <v>721.3100000000004</v>
+        <v>556.3099999999981</v>
       </c>
       <c r="F43" t="n">
         <v>8155.14</v>
@@ -8805,7 +8805,7 @@
         <v>27.42</v>
       </c>
       <c r="H43" t="n">
-        <v>5.960000000000001</v>
+        <v>4.970000000000056</v>
       </c>
       <c r="I43" t="n">
         <v>61.66</v>
@@ -8814,7 +8814,7 @@
         <v>25.55</v>
       </c>
       <c r="K43" t="n">
-        <v>0.02999999999999758</v>
+        <v>0.01999999999998158</v>
       </c>
       <c r="L43" t="n">
         <v>31.6</v>
@@ -8841,7 +8841,7 @@
         <v>530.09</v>
       </c>
       <c r="T43" t="n">
-        <v>6.129999999999995</v>
+        <v>0.1499999999999977</v>
       </c>
       <c r="U43" t="n">
         <v>71.92</v>
@@ -8850,7 +8850,7 @@
         <v>15.27</v>
       </c>
       <c r="W43" t="n">
-        <v>4.409999999999968</v>
+        <v>0.5699999999999932</v>
       </c>
       <c r="X43" t="n">
         <v>398.89</v>
@@ -8865,7 +8865,7 @@
       <c r="AB43" t="inlineStr"/>
       <c r="AC43" t="inlineStr"/>
       <c r="AD43" t="n">
-        <v>0.7300000000000182</v>
+        <v>0.2199999999999951</v>
       </c>
       <c r="AE43" t="n">
         <v>227.25</v>
@@ -8916,7 +8916,7 @@
         <v>4178.18</v>
       </c>
       <c r="AY43" t="n">
-        <v>8.329999999999998</v>
+        <v>8.029999999999959</v>
       </c>
       <c r="AZ43" t="n">
         <v>94.44</v>
@@ -8934,7 +8934,7 @@
         <v>6753.33</v>
       </c>
       <c r="BE43" t="n">
-        <v>23.72</v>
+        <v>1.24000000000008</v>
       </c>
       <c r="BF43" t="n">
         <v>266.2</v>
@@ -9009,7 +9009,7 @@
         <v>25.39</v>
       </c>
       <c r="K44" t="n">
-        <v>1.770000000000003</v>
+        <v>1.650000000000012</v>
       </c>
       <c r="L44" t="n">
         <v>32.77</v>
@@ -9036,7 +9036,7 @@
         <v>541.27</v>
       </c>
       <c r="T44" t="n">
-        <v>3.540000000000007</v>
+        <v>3.240000000000011</v>
       </c>
       <c r="U44" t="n">
         <v>79.73</v>
@@ -9045,7 +9045,7 @@
         <v>16.36</v>
       </c>
       <c r="W44" t="n">
-        <v>4.640000000000036</v>
+        <v>0.2300000000000679</v>
       </c>
       <c r="X44" t="n">
         <v>445.8</v>
@@ -9060,7 +9060,7 @@
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="n">
-        <v>6.900000000000002</v>
+        <v>4.999999999999975</v>
       </c>
       <c r="AE44" t="n">
         <v>256.6</v>
@@ -9090,7 +9090,7 @@
         <v>3595.8</v>
       </c>
       <c r="AP44" t="n">
-        <v>12.42999999999998</v>
+        <v>6.189999999999984</v>
       </c>
       <c r="AQ44" t="n">
         <v>321.33</v>
@@ -9129,7 +9129,7 @@
         <v>6879.01</v>
       </c>
       <c r="BE44" t="n">
-        <v>8.11000000000001</v>
+        <v>1.24999999999995</v>
       </c>
       <c r="BF44" t="n">
         <v>298</v>
@@ -9177,7 +9177,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>225.37</v>
+        <v>48.78999999999822</v>
       </c>
       <c r="C45" t="n">
         <v>8595.33</v>
@@ -9186,7 +9186,7 @@
         <v>27.25</v>
       </c>
       <c r="E45" t="n">
-        <v>261.4100000000003</v>
+        <v>30.37000000000307</v>
       </c>
       <c r="F45" t="n">
         <v>10008.76</v>
@@ -9204,7 +9204,7 @@
         <v>22.72</v>
       </c>
       <c r="K45" t="n">
-        <v>7.359999999999999</v>
+        <v>0.4599999999999729</v>
       </c>
       <c r="L45" t="n">
         <v>32.68</v>
@@ -9240,7 +9240,7 @@
         <v>13.62</v>
       </c>
       <c r="W45" t="n">
-        <v>1.420000000000002</v>
+        <v>0.7299999999997981</v>
       </c>
       <c r="X45" t="n">
         <v>512.3099999999999</v>
@@ -9255,7 +9255,7 @@
       <c r="AB45" t="inlineStr"/>
       <c r="AC45" t="inlineStr"/>
       <c r="AD45" t="n">
-        <v>29.45</v>
+        <v>5.720000000000079</v>
       </c>
       <c r="AE45" t="n">
         <v>291.33</v>
@@ -9306,7 +9306,7 @@
         <v>4272</v>
       </c>
       <c r="AY45" t="n">
-        <v>2.300000000000001</v>
+        <v>0.2199999999999993</v>
       </c>
       <c r="AZ45" t="n">
         <v>117.15</v>
@@ -9372,7 +9372,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>510.2900000000001</v>
+        <v>10.7600000000019</v>
       </c>
       <c r="C46" t="n">
         <v>1118.23</v>
@@ -9381,7 +9381,7 @@
         <v>25.91</v>
       </c>
       <c r="E46" t="n">
-        <v>579.8799999999999</v>
+        <v>26.68999999999622</v>
       </c>
       <c r="F46" t="n">
         <v>1297.34</v>
@@ -9390,7 +9390,7 @@
         <v>24.69</v>
       </c>
       <c r="H46" t="n">
-        <v>3.37</v>
+        <v>2.889999999999992</v>
       </c>
       <c r="I46" t="n">
         <v>8.41</v>
@@ -9426,7 +9426,7 @@
         <v>427</v>
       </c>
       <c r="T46" t="n">
-        <v>5.200000000000001</v>
+        <v>5.08000000000001</v>
       </c>
       <c r="U46" t="n">
         <v>10.82</v>
@@ -9435,7 +9435,7 @@
         <v>11.55</v>
       </c>
       <c r="W46" t="n">
-        <v>30.39000000000001</v>
+        <v>25.40000000000022</v>
       </c>
       <c r="X46" t="n">
         <v>59.46</v>
@@ -9450,7 +9450,7 @@
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
       <c r="AD46" t="n">
-        <v>16.72</v>
+        <v>0.3399999999999785</v>
       </c>
       <c r="AE46" t="n">
         <v>36.18</v>
@@ -9480,7 +9480,7 @@
         <v>3212.36</v>
       </c>
       <c r="AP46" t="n">
-        <v>24.81</v>
+        <v>8.609999999999959</v>
       </c>
       <c r="AQ46" t="n">
         <v>49.98</v>
@@ -9501,7 +9501,7 @@
         <v>3613.37</v>
       </c>
       <c r="AY46" t="n">
-        <v>6.25</v>
+        <v>3.290000000000002</v>
       </c>
       <c r="AZ46" t="n">
         <v>14.21</v>
@@ -9519,7 +9519,7 @@
         <v>5991.79</v>
       </c>
       <c r="BE46" t="n">
-        <v>12.03</v>
+        <v>1.050000000000017</v>
       </c>
       <c r="BF46" t="n">
         <v>43.52</v>
@@ -9567,7 +9567,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>496.1299999999999</v>
+        <v>82.03999999999722</v>
       </c>
       <c r="C47" t="n">
         <v>1747.6</v>
@@ -9576,7 +9576,7 @@
         <v>24.97</v>
       </c>
       <c r="E47" t="n">
-        <v>575.5400000000002</v>
+        <v>27.43000000000339</v>
       </c>
       <c r="F47" t="n">
         <v>2009.09</v>
@@ -9621,7 +9621,7 @@
         <v>417.7</v>
       </c>
       <c r="T47" t="n">
-        <v>5.200000000000001</v>
+        <v>0.02999999999999847</v>
       </c>
       <c r="U47" t="n">
         <v>17.06</v>
@@ -9645,7 +9645,7 @@
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
       <c r="AD47" t="n">
-        <v>16.26</v>
+        <v>15.92000000000002</v>
       </c>
       <c r="AE47" t="n">
         <v>56.6</v>
@@ -9675,7 +9675,7 @@
         <v>3100.26</v>
       </c>
       <c r="AP47" t="n">
-        <v>15.05</v>
+        <v>2.390000000000031</v>
       </c>
       <c r="AQ47" t="n">
         <v>72.83</v>
@@ -9696,7 +9696,7 @@
         <v>3459.58</v>
       </c>
       <c r="AY47" t="n">
-        <v>6.199999999999999</v>
+        <v>2.25</v>
       </c>
       <c r="AZ47" t="n">
         <v>21.53</v>
@@ -9714,7 +9714,7 @@
         <v>5711.33</v>
       </c>
       <c r="BE47" t="n">
-        <v>3.92</v>
+        <v>1.819999999999966</v>
       </c>
       <c r="BF47" t="n">
         <v>55.42</v>
@@ -9780,7 +9780,7 @@
         <v>24.8</v>
       </c>
       <c r="H48" t="n">
-        <v>0.6700000000000021</v>
+        <v>0.09000000000000341</v>
       </c>
       <c r="I48" t="n">
         <v>18.25</v>
@@ -9816,7 +9816,7 @@
         <v>419.21</v>
       </c>
       <c r="T48" t="n">
-        <v>0.1199999999999992</v>
+        <v>0.06000000000000226</v>
       </c>
       <c r="U48" t="n">
         <v>22.5</v>
@@ -9825,7 +9825,7 @@
         <v>11.94</v>
       </c>
       <c r="W48" t="n">
-        <v>2.240000000000013</v>
+        <v>0.6000000000000565</v>
       </c>
       <c r="X48" t="n">
         <v>137.37</v>
@@ -9909,7 +9909,7 @@
         <v>5580.61</v>
       </c>
       <c r="BE48" t="n">
-        <v>3.470000000000002</v>
+        <v>0.6000000000000192</v>
       </c>
       <c r="BF48" t="n">
         <v>75.29000000000001</v>
@@ -9957,7 +9957,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>105.2400000000002</v>
+        <v>9.499999999999964</v>
       </c>
       <c r="C49" t="n">
         <v>3077.39</v>
@@ -9966,7 +9966,7 @@
         <v>26.2</v>
       </c>
       <c r="E49" t="n">
-        <v>113.7199999999998</v>
+        <v>55.75999999999999</v>
       </c>
       <c r="F49" t="n">
         <v>3532</v>
@@ -9975,7 +9975,7 @@
         <v>24.83</v>
       </c>
       <c r="H49" t="n">
-        <v>0.5199999999999996</v>
+        <v>0.2499999999999894</v>
       </c>
       <c r="I49" t="n">
         <v>23.44</v>
@@ -9984,7 +9984,7 @@
         <v>19.78</v>
       </c>
       <c r="K49" t="n">
-        <v>2.049999999999999</v>
+        <v>0.02999999999999714</v>
       </c>
       <c r="L49" t="n">
         <v>18.42</v>
@@ -10011,7 +10011,7 @@
         <v>426.33</v>
       </c>
       <c r="T49" t="n">
-        <v>0.4599999999999973</v>
+        <v>0.009999999999998954</v>
       </c>
       <c r="U49" t="n">
         <v>28.6</v>
@@ -10020,7 +10020,7 @@
         <v>12.51</v>
       </c>
       <c r="W49" t="n">
-        <v>2.449999999999967</v>
+        <v>0.2099999999999538</v>
       </c>
       <c r="X49" t="n">
         <v>182.72</v>
@@ -10035,7 +10035,7 @@
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
       <c r="AD49" t="n">
-        <v>5.459999999999997</v>
+        <v>1.099999999999998</v>
       </c>
       <c r="AE49" t="n">
         <v>101.89</v>
@@ -10086,7 +10086,7 @@
         <v>3451.98</v>
       </c>
       <c r="AY49" t="n">
-        <v>0.4800000000000004</v>
+        <v>0.1099999999999994</v>
       </c>
       <c r="AZ49" t="n">
         <v>36.01</v>
@@ -10152,7 +10152,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>550.3299999999999</v>
+        <v>368.7199999999996</v>
       </c>
       <c r="C50" t="n">
         <v>3871.91</v>
@@ -10161,7 +10161,7 @@
         <v>25.39</v>
       </c>
       <c r="E50" t="n">
-        <v>640.9000000000005</v>
+        <v>359.9000000000008</v>
       </c>
       <c r="F50" t="n">
         <v>4462.1</v>
@@ -10170,7 +10170,7 @@
         <v>24.76</v>
       </c>
       <c r="H50" t="n">
-        <v>4.579999999999998</v>
+        <v>2.77000000000001</v>
       </c>
       <c r="I50" t="n">
         <v>30.17</v>
@@ -10179,7 +10179,7 @@
         <v>22.1</v>
       </c>
       <c r="K50" t="n">
-        <v>0.4500000000000011</v>
+        <v>0.3900000000000068</v>
       </c>
       <c r="L50" t="n">
         <v>20.92</v>
@@ -10206,7 +10206,7 @@
         <v>443.6</v>
       </c>
       <c r="T50" t="n">
-        <v>0.3500000000000014</v>
+        <v>0.01000000000000334</v>
       </c>
       <c r="U50" t="n">
         <v>35.88</v>
@@ -10215,7 +10215,7 @@
         <v>15</v>
       </c>
       <c r="W50" t="n">
-        <v>35.35000000000002</v>
+        <v>32.27000000000021</v>
       </c>
       <c r="X50" t="n">
         <v>229.93</v>
@@ -10230,7 +10230,7 @@
       <c r="AB50" t="inlineStr"/>
       <c r="AC50" t="inlineStr"/>
       <c r="AD50" t="n">
-        <v>19.33</v>
+        <v>4.030000000000006</v>
       </c>
       <c r="AE50" t="n">
         <v>130.93</v>
@@ -10260,7 +10260,7 @@
         <v>3115.51</v>
       </c>
       <c r="AP50" t="n">
-        <v>23.88999999999999</v>
+        <v>17.60999999999995</v>
       </c>
       <c r="AQ50" t="n">
         <v>148.54</v>
@@ -10281,7 +10281,7 @@
         <v>3498.27</v>
       </c>
       <c r="AY50" t="n">
-        <v>0.6699999999999982</v>
+        <v>0.07999999999999829</v>
       </c>
       <c r="AZ50" t="n">
         <v>45.22</v>
@@ -10299,7 +10299,7 @@
         <v>5755.05</v>
       </c>
       <c r="BE50" t="n">
-        <v>20.8</v>
+        <v>11.6</v>
       </c>
       <c r="BF50" t="n">
         <v>123.54</v>
@@ -10374,7 +10374,7 @@
         <v>24.92</v>
       </c>
       <c r="K51" t="n">
-        <v>2.360000000000003</v>
+        <v>0.5899999999999961</v>
       </c>
       <c r="L51" t="n">
         <v>24.21</v>
@@ -10401,7 +10401,7 @@
         <v>447.18</v>
       </c>
       <c r="T51" t="n">
-        <v>5.270000000000003</v>
+        <v>4.549999999999994</v>
       </c>
       <c r="U51" t="n">
         <v>41.96</v>
@@ -10410,7 +10410,7 @@
         <v>12.4</v>
       </c>
       <c r="W51" t="n">
-        <v>32.78999999999999</v>
+        <v>0.09999999999988063</v>
       </c>
       <c r="X51" t="n">
         <v>273.91</v>
@@ -10425,7 +10425,7 @@
       <c r="AB51" t="inlineStr"/>
       <c r="AC51" t="inlineStr"/>
       <c r="AD51" t="n">
-        <v>18.57000000000001</v>
+        <v>4.700000000000012</v>
       </c>
       <c r="AE51" t="n">
         <v>155.45</v>
@@ -10476,7 +10476,7 @@
         <v>3545.78</v>
       </c>
       <c r="AY51" t="n">
-        <v>7.469999999999999</v>
+        <v>6.450000000000006</v>
       </c>
       <c r="AZ51" t="n">
         <v>54.44</v>
@@ -10494,7 +10494,7 @@
         <v>5849.96</v>
       </c>
       <c r="BE51" t="n">
-        <v>20.76000000000001</v>
+        <v>2.260000000000009</v>
       </c>
       <c r="BF51" t="n">
         <v>149.14</v>
@@ -10569,7 +10569,7 @@
         <v>23.77</v>
       </c>
       <c r="K52" t="n">
-        <v>1.529999999999998</v>
+        <v>0.06999999999999695</v>
       </c>
       <c r="L52" t="n">
         <v>26.68</v>
@@ -10596,7 +10596,7 @@
         <v>461.65</v>
       </c>
       <c r="T52" t="n">
-        <v>4.769999999999996</v>
+        <v>0.1999999999999957</v>
       </c>
       <c r="U52" t="n">
         <v>48.06</v>
@@ -10605,7 +10605,7 @@
         <v>12.82</v>
       </c>
       <c r="W52" t="n">
-        <v>3.860000000000021</v>
+        <v>3.760000000000141</v>
       </c>
       <c r="X52" t="n">
         <v>315.47</v>
@@ -10650,7 +10650,7 @@
         <v>3220.46</v>
       </c>
       <c r="AP52" t="n">
-        <v>23.96000000000001</v>
+        <v>22.15999999999997</v>
       </c>
       <c r="AQ52" t="n">
         <v>205.78</v>
@@ -10671,7 +10671,7 @@
         <v>3570.02</v>
       </c>
       <c r="AY52" t="n">
-        <v>6.550000000000004</v>
+        <v>0.01999999999999957</v>
       </c>
       <c r="AZ52" t="n">
         <v>62.37</v>
@@ -10689,7 +10689,7 @@
         <v>5906.82</v>
       </c>
       <c r="BE52" t="n">
-        <v>17.19999999999999</v>
+        <v>12.67999999999997</v>
       </c>
       <c r="BF52" t="n">
         <v>173.81</v>
@@ -10746,7 +10746,7 @@
         <v>23.57</v>
       </c>
       <c r="E53" t="n">
-        <v>687.8100000000004</v>
+        <v>632.2500000000027</v>
       </c>
       <c r="F53" t="n">
         <v>6897.73</v>
@@ -10764,7 +10764,7 @@
         <v>25.08</v>
       </c>
       <c r="K53" t="n">
-        <v>0.450000000000002</v>
+        <v>0.3800000000000051</v>
       </c>
       <c r="L53" t="n">
         <v>28.42</v>
@@ -10791,7 +10791,7 @@
         <v>463.66</v>
       </c>
       <c r="T53" t="n">
-        <v>1.750000000000007</v>
+        <v>1.550000000000011</v>
       </c>
       <c r="U53" t="n">
         <v>54.01</v>
@@ -10845,7 +10845,7 @@
         <v>3260.77</v>
       </c>
       <c r="AP53" t="n">
-        <v>23.23999999999998</v>
+        <v>0.1799999999999891</v>
       </c>
       <c r="AQ53" t="n">
         <v>232.6</v>
@@ -10932,7 +10932,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>16.6299999999992</v>
+        <v>8.829999999999922</v>
       </c>
       <c r="C54" t="n">
         <v>6707.55</v>
@@ -10950,7 +10950,7 @@
         <v>23.55</v>
       </c>
       <c r="H54" t="n">
-        <v>1.580000000000005</v>
+        <v>0.8600000000000052</v>
       </c>
       <c r="I54" t="n">
         <v>55.75</v>
@@ -10959,7 +10959,7 @@
         <v>24.44</v>
       </c>
       <c r="K54" t="n">
-        <v>0.9800000000000004</v>
+        <v>0.07999999999999646</v>
       </c>
       <c r="L54" t="n">
         <v>30.94</v>
@@ -10995,7 +10995,7 @@
         <v>11.76</v>
       </c>
       <c r="W54" t="n">
-        <v>35.25</v>
+        <v>22.33000000000004</v>
       </c>
       <c r="X54" t="n">
         <v>412.27</v>
@@ -11010,7 +11010,7 @@
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="n">
-        <v>4.009999999999991</v>
+        <v>1.689999999999912</v>
       </c>
       <c r="AE54" t="n">
         <v>226.88</v>
@@ -11040,7 +11040,7 @@
         <v>3307.35</v>
       </c>
       <c r="AP54" t="n">
-        <v>4.30000000000004</v>
+        <v>4.120000000000051</v>
       </c>
       <c r="AQ54" t="n">
         <v>261.48</v>
@@ -11061,7 +11061,7 @@
         <v>3629.19</v>
       </c>
       <c r="AY54" t="n">
-        <v>1.610000000000007</v>
+        <v>0.7900000000000138</v>
       </c>
       <c r="AZ54" t="n">
         <v>78.79000000000001</v>
@@ -11079,7 +11079,7 @@
         <v>6024.73</v>
       </c>
       <c r="BE54" t="n">
-        <v>4.12999999999996</v>
+        <v>1.129999999999896</v>
       </c>
       <c r="BF54" t="n">
         <v>220.56</v>
@@ -11127,7 +11127,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>15.98000000000138</v>
+        <v>1.300000000002001</v>
       </c>
       <c r="C55" t="n">
         <v>7503.14</v>
@@ -11145,7 +11145,7 @@
         <v>23.92</v>
       </c>
       <c r="H55" t="n">
-        <v>6.539999999999999</v>
+        <v>1.299999999999979</v>
       </c>
       <c r="I55" t="n">
         <v>64.75</v>
@@ -11154,7 +11154,7 @@
         <v>25.12</v>
       </c>
       <c r="K55" t="n">
-        <v>24.19</v>
+        <v>22.52000000000001</v>
       </c>
       <c r="L55" t="n">
         <v>32.43</v>
@@ -11205,7 +11205,7 @@
       <c r="AB55" t="inlineStr"/>
       <c r="AC55" t="inlineStr"/>
       <c r="AD55" t="n">
-        <v>9.400000000000002</v>
+        <v>1.96000000000004</v>
       </c>
       <c r="AE55" t="n">
         <v>258.29</v>
@@ -11235,7 +11235,7 @@
         <v>3334.88</v>
       </c>
       <c r="AP55" t="n">
-        <v>9.20999999999998</v>
+        <v>0.6099999999999</v>
       </c>
       <c r="AQ55" t="n">
         <v>293.23</v>
@@ -11256,7 +11256,7 @@
         <v>3671.01</v>
       </c>
       <c r="AY55" t="n">
-        <v>8.929999999999993</v>
+        <v>4.949999999999946</v>
       </c>
       <c r="AZ55" t="n">
         <v>89.09999999999999</v>
@@ -11274,7 +11274,7 @@
         <v>6109.46</v>
       </c>
       <c r="BE55" t="n">
-        <v>7.090000000000039</v>
+        <v>0.3300000000001511</v>
       </c>
       <c r="BF55" t="n">
         <v>249.66</v>
@@ -11322,7 +11322,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>158.9799999999993</v>
+        <v>124.4199999999925</v>
       </c>
       <c r="C56" t="n">
         <v>8332.389999999999</v>
@@ -11331,7 +11331,7 @@
         <v>24.52</v>
       </c>
       <c r="E56" t="n">
-        <v>162.0799999999998</v>
+        <v>31.11999999999702</v>
       </c>
       <c r="F56" t="n">
         <v>9674.9</v>
@@ -11376,7 +11376,7 @@
         <v>458.12</v>
       </c>
       <c r="T56" t="n">
-        <v>7.88</v>
+        <v>5.999999999999948</v>
       </c>
       <c r="U56" t="n">
         <v>81.68000000000001</v>
@@ -11385,7 +11385,7 @@
         <v>18.07</v>
       </c>
       <c r="W56" t="n">
-        <v>41.8</v>
+        <v>16.40000000000002</v>
       </c>
       <c r="X56" t="n">
         <v>550.8099999999999</v>
@@ -11400,7 +11400,7 @@
       <c r="AB56" t="inlineStr"/>
       <c r="AC56" t="inlineStr"/>
       <c r="AD56" t="n">
-        <v>27.95</v>
+        <v>9.23999999999991</v>
       </c>
       <c r="AE56" t="n">
         <v>304.41</v>
@@ -11430,7 +11430,7 @@
         <v>3328.91</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.759999999999998</v>
+        <v>0.5400000000001981</v>
       </c>
       <c r="AQ56" t="n">
         <v>332.84</v>
@@ -11469,7 +11469,7 @@
         <v>6206.46</v>
       </c>
       <c r="BE56" t="n">
-        <v>25.14</v>
+        <v>14.42999999999958</v>
       </c>
       <c r="BF56" t="n">
         <v>272.5</v>
@@ -11517,7 +11517,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>535</v>
+        <v>106.0000000000063</v>
       </c>
       <c r="C57" t="n">
         <v>992.16</v>
@@ -11526,7 +11526,7 @@
         <v>24.76</v>
       </c>
       <c r="E57" t="n">
-        <v>610.1799999999999</v>
+        <v>158.3000000000049</v>
       </c>
       <c r="F57" t="n">
         <v>1142.03</v>
@@ -11535,7 +11535,7 @@
         <v>23.99</v>
       </c>
       <c r="H57" t="n">
-        <v>4.34</v>
+        <v>0.4599999999999973</v>
       </c>
       <c r="I57" t="n">
         <v>9.470000000000001</v>
@@ -11580,7 +11580,7 @@
         <v>15.23</v>
       </c>
       <c r="W57" t="n">
-        <v>33.2</v>
+        <v>0.3999999999999595</v>
       </c>
       <c r="X57" t="n">
         <v>55.09</v>
@@ -11595,7 +11595,7 @@
       <c r="AB57" t="inlineStr"/>
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="n">
-        <v>16.58</v>
+        <v>3.420000000000009</v>
       </c>
       <c r="AE57" t="n">
         <v>33.94</v>
@@ -11625,7 +11625,7 @@
         <v>2790.65</v>
       </c>
       <c r="AP57" t="n">
-        <v>19.72</v>
+        <v>13.2899999999999</v>
       </c>
       <c r="AQ57" t="n">
         <v>42.59</v>
@@ -11646,7 +11646,7 @@
         <v>3041.83</v>
       </c>
       <c r="AY57" t="n">
-        <v>6.440000000000001</v>
+        <v>2.239999999999969</v>
       </c>
       <c r="AZ57" t="n">
         <v>11.86</v>
@@ -11664,7 +11664,7 @@
         <v>5147.94</v>
       </c>
       <c r="BE57" t="n">
-        <v>14.92</v>
+        <v>0.1600000000002701</v>
       </c>
       <c r="BF57" t="n">
         <v>29.79</v>
@@ -11712,7 +11712,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>527.8099999999999</v>
+        <v>45.7899999999929</v>
       </c>
       <c r="C58" t="n">
         <v>1643.53</v>
@@ -11775,7 +11775,7 @@
         <v>11.18</v>
       </c>
       <c r="W58" t="n">
-        <v>0.3999999999999844</v>
+        <v>2.492450690283476e-14</v>
       </c>
       <c r="X58" t="n">
         <v>99.48</v>
@@ -11841,7 +11841,7 @@
         <v>3022.66</v>
       </c>
       <c r="AY58" t="n">
-        <v>6.159999999999997</v>
+        <v>0.770000000000004</v>
       </c>
       <c r="AZ58" t="n">
         <v>18.95</v>
@@ -11916,7 +11916,7 @@
         <v>23.54</v>
       </c>
       <c r="E59" t="n">
-        <v>35.93000000000029</v>
+        <v>17.17000000000053</v>
       </c>
       <c r="F59" t="n">
         <v>2648.36</v>
@@ -11925,7 +11925,7 @@
         <v>23.4</v>
       </c>
       <c r="H59" t="n">
-        <v>4.189999999999998</v>
+        <v>2.26999999999999</v>
       </c>
       <c r="I59" t="n">
         <v>22.77</v>
@@ -11934,7 +11934,7 @@
         <v>36.59</v>
       </c>
       <c r="K59" t="n">
-        <v>2.300000000000001</v>
+        <v>0.7400000000000051</v>
       </c>
       <c r="L59" t="n">
         <v>15.06</v>
@@ -11970,7 +11970,7 @@
         <v>9.93</v>
       </c>
       <c r="W59" t="n">
-        <v>3.550000000000026</v>
+        <v>1.950000000000089</v>
       </c>
       <c r="X59" t="n">
         <v>142.55</v>
@@ -11985,7 +11985,7 @@
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="n">
-        <v>2.649999999999999</v>
+        <v>0.2099999999999871</v>
       </c>
       <c r="AE59" t="n">
         <v>78.14</v>
@@ -12036,7 +12036,7 @@
         <v>3068.19</v>
       </c>
       <c r="AY59" t="n">
-        <v>5.930000000000003</v>
+        <v>4.389999999999995</v>
       </c>
       <c r="AZ59" t="n">
         <v>25.29</v>
@@ -12054,7 +12054,7 @@
         <v>5207.12</v>
       </c>
       <c r="BE59" t="n">
-        <v>1.77000000000001</v>
+        <v>0.390000000000009</v>
       </c>
       <c r="BF59" t="n">
         <v>67.88</v>
@@ -12102,7 +12102,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>66.8599999999999</v>
+        <v>28.27999999999975</v>
       </c>
       <c r="C60" t="n">
         <v>3005.78</v>
@@ -12111,7 +12111,7 @@
         <v>23.98</v>
       </c>
       <c r="E60" t="n">
-        <v>86.52999999999975</v>
+        <v>19.3599999999991</v>
       </c>
       <c r="F60" t="n">
         <v>3467.57</v>
@@ -12129,7 +12129,7 @@
         <v>28.09</v>
       </c>
       <c r="K60" t="n">
-        <v>1.940000000000001</v>
+        <v>0.02999999999999914</v>
       </c>
       <c r="L60" t="n">
         <v>19.49</v>
@@ -12156,7 +12156,7 @@
         <v>372</v>
       </c>
       <c r="T60" t="n">
-        <v>0.730000000000004</v>
+        <v>0.2500000000000176</v>
       </c>
       <c r="U60" t="n">
         <v>24.49</v>
@@ -12180,7 +12180,7 @@
       <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="n">
-        <v>3.649999999999991</v>
+        <v>0.1800000000000019</v>
       </c>
       <c r="AE60" t="n">
         <v>102.65</v>
@@ -12210,7 +12210,7 @@
         <v>2935.66</v>
       </c>
       <c r="AP60" t="n">
-        <v>3.300000000000008</v>
+        <v>2.94000000000008</v>
       </c>
       <c r="AQ60" t="n">
         <v>118.18</v>
@@ -12249,7 +12249,7 @@
         <v>5358.47</v>
       </c>
       <c r="BE60" t="n">
-        <v>4.039999999999988</v>
+        <v>1.09999999999995</v>
       </c>
       <c r="BF60" t="n">
         <v>88.31999999999999</v>
@@ -12297,7 +12297,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>552.4299999999998</v>
+        <v>400.7300000000005</v>
       </c>
       <c r="C61" t="n">
         <v>3832.5</v>
@@ -12306,7 +12306,7 @@
         <v>25.34</v>
       </c>
       <c r="E61" t="n">
-        <v>644.0899999999997</v>
+        <v>468.2400000000023</v>
       </c>
       <c r="F61" t="n">
         <v>4420.47</v>
@@ -12315,7 +12315,7 @@
         <v>25.07</v>
       </c>
       <c r="H61" t="n">
-        <v>4.91</v>
+        <v>0.3199999999999972</v>
       </c>
       <c r="I61" t="n">
         <v>34.49</v>
@@ -12351,7 +12351,7 @@
         <v>387.71</v>
       </c>
       <c r="T61" t="n">
-        <v>4.649999999999999</v>
+        <v>2.449999999999963</v>
       </c>
       <c r="U61" t="n">
         <v>30.61</v>
@@ -12360,7 +12360,7 @@
         <v>8.35</v>
       </c>
       <c r="W61" t="n">
-        <v>37.19</v>
+        <v>32.35000000000002</v>
       </c>
       <c r="X61" t="n">
         <v>245.58</v>
@@ -12375,7 +12375,7 @@
       <c r="AB61" t="inlineStr"/>
       <c r="AC61" t="inlineStr"/>
       <c r="AD61" t="n">
-        <v>20.42</v>
+        <v>13.77000000000004</v>
       </c>
       <c r="AE61" t="n">
         <v>133.55</v>
@@ -12405,7 +12405,7 @@
         <v>2971.77</v>
       </c>
       <c r="AP61" t="n">
-        <v>24.37</v>
+        <v>11.70999999999986</v>
       </c>
       <c r="AQ61" t="n">
         <v>146.94</v>
@@ -12426,7 +12426,7 @@
         <v>3202.11</v>
       </c>
       <c r="AY61" t="n">
-        <v>6.700000000000003</v>
+        <v>2.460000000000023</v>
       </c>
       <c r="AZ61" t="n">
         <v>39.58</v>
@@ -12444,7 +12444,7 @@
         <v>5436.61</v>
       </c>
       <c r="BE61" t="n">
-        <v>20.72</v>
+        <v>11.0400000000001</v>
       </c>
       <c r="BF61" t="n">
         <v>111.74</v>
@@ -12519,7 +12519,7 @@
         <v>27.66</v>
       </c>
       <c r="K62" t="n">
-        <v>0.570000000000001</v>
+        <v>0.5300000000000089</v>
       </c>
       <c r="L62" t="n">
         <v>23.83</v>
@@ -12555,7 +12555,7 @@
         <v>11.46</v>
       </c>
       <c r="W62" t="n">
-        <v>34.92000000000002</v>
+        <v>0.1500000000000199</v>
       </c>
       <c r="X62" t="n">
         <v>292.09</v>
@@ -12570,7 +12570,7 @@
       <c r="AB62" t="inlineStr"/>
       <c r="AC62" t="inlineStr"/>
       <c r="AD62" t="n">
-        <v>19.63</v>
+        <v>2.859999999999989</v>
       </c>
       <c r="AE62" t="n">
         <v>158.58</v>
@@ -12621,7 +12621,7 @@
         <v>3236.78</v>
       </c>
       <c r="AY62" t="n">
-        <v>6.589999999999996</v>
+        <v>0.9499999999999886</v>
       </c>
       <c r="AZ62" t="n">
         <v>46.9</v>
@@ -12639,7 +12639,7 @@
         <v>5505.36</v>
       </c>
       <c r="BE62" t="n">
-        <v>19.02</v>
+        <v>2.339999999999989</v>
       </c>
       <c r="BF62" t="n">
         <v>137.38</v>
@@ -12687,7 +12687,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>584.75</v>
+        <v>421.3899999999995</v>
       </c>
       <c r="C63" t="n">
         <v>5241.53</v>
@@ -12705,7 +12705,7 @@
         <v>24.53</v>
       </c>
       <c r="H63" t="n">
-        <v>0.9300000000000033</v>
+        <v>0.1500000000000092</v>
       </c>
       <c r="I63" t="n">
         <v>47.75</v>
@@ -12714,7 +12714,7 @@
         <v>30.25</v>
       </c>
       <c r="K63" t="n">
-        <v>1.050000000000001</v>
+        <v>0.48</v>
       </c>
       <c r="L63" t="n">
         <v>25.71</v>
@@ -12750,7 +12750,7 @@
         <v>21.86</v>
       </c>
       <c r="W63" t="n">
-        <v>4.589999999999968</v>
+        <v>4.439999999999948</v>
       </c>
       <c r="X63" t="n">
         <v>338.49</v>
@@ -12765,7 +12765,7 @@
       <c r="AB63" t="inlineStr"/>
       <c r="AC63" t="inlineStr"/>
       <c r="AD63" t="n">
-        <v>18.20000000000002</v>
+        <v>12.48000000000004</v>
       </c>
       <c r="AE63" t="n">
         <v>181.4</v>
@@ -12795,7 +12795,7 @@
         <v>3073.2</v>
       </c>
       <c r="AP63" t="n">
-        <v>24.19</v>
+        <v>18.31</v>
       </c>
       <c r="AQ63" t="n">
         <v>202.39</v>
@@ -12834,7 +12834,7 @@
         <v>5603.25</v>
       </c>
       <c r="BE63" t="n">
-        <v>18.16</v>
+        <v>13.48000000000002</v>
       </c>
       <c r="BF63" t="n">
         <v>158.67</v>
@@ -12891,7 +12891,7 @@
         <v>25.5</v>
       </c>
       <c r="E64" t="n">
-        <v>34.33000000000084</v>
+        <v>23.93000000000302</v>
       </c>
       <c r="F64" t="n">
         <v>6923.97</v>
@@ -12900,7 +12900,7 @@
         <v>24.75</v>
       </c>
       <c r="H64" t="n">
-        <v>0.259999999999998</v>
+        <v>0.1099999999999888</v>
       </c>
       <c r="I64" t="n">
         <v>53.65</v>
@@ -12909,7 +12909,7 @@
         <v>25.47</v>
       </c>
       <c r="K64" t="n">
-        <v>1.479999999999997</v>
+        <v>0.4299999999999962</v>
       </c>
       <c r="L64" t="n">
         <v>29.47</v>
@@ -12936,7 +12936,7 @@
         <v>407.15</v>
       </c>
       <c r="T64" t="n">
-        <v>5.009999999999998</v>
+        <v>4.010000000000026</v>
       </c>
       <c r="U64" t="n">
         <v>49.35</v>
@@ -12990,7 +12990,7 @@
         <v>3083.52</v>
       </c>
       <c r="AP64" t="n">
-        <v>23.68000000000001</v>
+        <v>0.9600000000000115</v>
       </c>
       <c r="AQ64" t="n">
         <v>231.59</v>
@@ -13011,7 +13011,7 @@
         <v>3331.5</v>
       </c>
       <c r="AY64" t="n">
-        <v>6.530000000000001</v>
+        <v>4.609999999999985</v>
       </c>
       <c r="AZ64" t="n">
         <v>63.61</v>
@@ -13029,7 +13029,7 @@
         <v>5685.85</v>
       </c>
       <c r="BE64" t="n">
-        <v>16.62</v>
+        <v>0.7999999999999918</v>
       </c>
       <c r="BF64" t="n">
         <v>178.65</v>
@@ -13077,7 +13077,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>622.1599999999999</v>
+        <v>453.119999999999</v>
       </c>
       <c r="C65" t="n">
         <v>6719.72</v>
@@ -13086,7 +13086,7 @@
         <v>24.09</v>
       </c>
       <c r="E65" t="n">
-        <v>720.4200000000001</v>
+        <v>598.6999999999935</v>
       </c>
       <c r="F65" t="n">
         <v>7770.11</v>
@@ -13095,7 +13095,7 @@
         <v>23.89</v>
       </c>
       <c r="H65" t="n">
-        <v>5.780000000000001</v>
+        <v>4.740000000000009</v>
       </c>
       <c r="I65" t="n">
         <v>60.9</v>
@@ -13104,7 +13104,7 @@
         <v>23.98</v>
       </c>
       <c r="K65" t="n">
-        <v>0.5199999999999996</v>
+        <v>0.09000000000000336</v>
       </c>
       <c r="L65" t="n">
         <v>30</v>
@@ -13131,7 +13131,7 @@
         <v>418.57</v>
       </c>
       <c r="T65" t="n">
-        <v>4.68</v>
+        <v>0.1699999999999875</v>
       </c>
       <c r="U65" t="n">
         <v>54.77</v>
@@ -13140,7 +13140,7 @@
         <v>14.01</v>
       </c>
       <c r="W65" t="n">
-        <v>5.490000000000016</v>
+        <v>1.350000000000044</v>
       </c>
       <c r="X65" t="n">
         <v>441.33</v>
@@ -13185,7 +13185,7 @@
         <v>3128.32</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.619999999999969</v>
+        <v>0.6999999999999464</v>
       </c>
       <c r="AQ65" t="n">
         <v>259.93</v>
@@ -13206,7 +13206,7 @@
         <v>3366.97</v>
       </c>
       <c r="AY65" t="n">
-        <v>5.989999999999995</v>
+        <v>0.4200000000000017</v>
       </c>
       <c r="AZ65" t="n">
         <v>70.65000000000001</v>
@@ -13299,7 +13299,7 @@
         <v>24.24</v>
       </c>
       <c r="K66" t="n">
-        <v>25.05</v>
+        <v>23.83</v>
       </c>
       <c r="L66" t="n">
         <v>30.94</v>
@@ -13326,7 +13326,7 @@
         <v>425.07</v>
       </c>
       <c r="T66" t="n">
-        <v>1.950000000000003</v>
+        <v>1.780000000000016</v>
       </c>
       <c r="U66" t="n">
         <v>60.01</v>
@@ -13335,7 +13335,7 @@
         <v>13.83</v>
       </c>
       <c r="W66" t="n">
-        <v>1.5</v>
+        <v>0.1499999999999559</v>
       </c>
       <c r="X66" t="n">
         <v>497.87</v>
@@ -13350,7 +13350,7 @@
       <c r="AB66" t="inlineStr"/>
       <c r="AC66" t="inlineStr"/>
       <c r="AD66" t="n">
-        <v>9.090000000000028</v>
+        <v>7.170000000000069</v>
       </c>
       <c r="AE66" t="n">
         <v>262.78</v>
@@ -13380,7 +13380,7 @@
         <v>3164.52</v>
       </c>
       <c r="AP66" t="n">
-        <v>22.29999999999998</v>
+        <v>12.78000000000011</v>
       </c>
       <c r="AQ66" t="n">
         <v>289.15</v>
@@ -13401,7 +13401,7 @@
         <v>3385.38</v>
       </c>
       <c r="AY66" t="n">
-        <v>5.329999999999998</v>
+        <v>4.909999999999997</v>
       </c>
       <c r="AZ66" t="n">
         <v>77.59999999999999</v>
@@ -13419,7 +13419,7 @@
         <v>5824.72</v>
       </c>
       <c r="BE66" t="n">
-        <v>17.25999999999999</v>
+        <v>6.539999999999949</v>
       </c>
       <c r="BF66" t="n">
         <v>222.29</v>
@@ -13485,7 +13485,7 @@
         <v>22.92</v>
       </c>
       <c r="H67" t="n">
-        <v>1.749999999999996</v>
+        <v>0.6699999999999837</v>
       </c>
       <c r="I67" t="n">
         <v>76.77</v>
@@ -13530,7 +13530,7 @@
         <v>11.02</v>
       </c>
       <c r="W67" t="n">
-        <v>3.460000000000008</v>
+        <v>0.3100000000000521</v>
       </c>
       <c r="X67" t="n">
         <v>560.84</v>
@@ -13545,7 +13545,7 @@
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="n">
-        <v>29.46</v>
+        <v>3.629999999999882</v>
       </c>
       <c r="AE67" t="n">
         <v>298.2</v>
@@ -13575,7 +13575,7 @@
         <v>3103.42</v>
       </c>
       <c r="AP67" t="n">
-        <v>16.32000000000002</v>
+        <v>1.879999999999951</v>
       </c>
       <c r="AQ67" t="n">
         <v>315.06</v>
@@ -13596,7 +13596,7 @@
         <v>3310.35</v>
       </c>
       <c r="AY67" t="n">
-        <v>5.720000000000002</v>
+        <v>0.3900000000000041</v>
       </c>
       <c r="AZ67" t="n">
         <v>82.98999999999999</v>
@@ -13614,7 +13614,7 @@
         <v>5758.59</v>
       </c>
       <c r="BE67" t="n">
-        <v>10.34000000000001</v>
+        <v>1.120000000000051</v>
       </c>
       <c r="BF67" t="n">
         <v>242.6</v>
@@ -13662,7 +13662,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>941.91</v>
+        <v>128.2900000000002</v>
       </c>
       <c r="C68" t="n">
         <v>1120.04</v>
@@ -13671,7 +13671,7 @@
         <v>26</v>
       </c>
       <c r="E68" t="n">
-        <v>1096.85</v>
+        <v>207.9899999999993</v>
       </c>
       <c r="F68" t="n">
         <v>1293.42</v>
@@ -13680,7 +13680,7 @@
         <v>26.25</v>
       </c>
       <c r="H68" t="n">
-        <v>8.370000000000001</v>
+        <v>2.990000000000035</v>
       </c>
       <c r="I68" t="n">
         <v>9.1</v>
@@ -13716,7 +13716,7 @@
         <v>331.63</v>
       </c>
       <c r="T68" t="n">
-        <v>6.66</v>
+        <v>1.060000000000013</v>
       </c>
       <c r="U68" t="n">
         <v>9.300000000000001</v>
@@ -13725,7 +13725,7 @@
         <v>15.82</v>
       </c>
       <c r="W68" t="n">
-        <v>75.73</v>
+        <v>69.38999999999997</v>
       </c>
       <c r="X68" t="n">
         <v>70.73999999999999</v>
@@ -13740,7 +13740,7 @@
       <c r="AB68" t="inlineStr"/>
       <c r="AC68" t="inlineStr"/>
       <c r="AD68" t="n">
-        <v>31.42</v>
+        <v>1.960000000000001</v>
       </c>
       <c r="AE68" t="n">
         <v>39.34</v>
@@ -13770,7 +13770,7 @@
         <v>2859.62</v>
       </c>
       <c r="AP68" t="n">
-        <v>30.47000000000001</v>
+        <v>14.14999999999999</v>
       </c>
       <c r="AQ68" t="n">
         <v>44.73</v>
@@ -13791,7 +13791,7 @@
         <v>3032.32</v>
       </c>
       <c r="AY68" t="n">
-        <v>7.18</v>
+        <v>0.2899999999999847</v>
       </c>
       <c r="AZ68" t="n">
         <v>12.98</v>
@@ -13809,7 +13809,7 @@
         <v>5301.99</v>
       </c>
       <c r="BE68" t="n">
-        <v>26.64</v>
+        <v>5.95999999999998</v>
       </c>
       <c r="BF68" t="n">
         <v>31.89</v>
@@ -13857,7 +13857,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>149.1100000000001</v>
+        <v>20.81999999999991</v>
       </c>
       <c r="C69" t="n">
         <v>3443.7</v>
@@ -13935,7 +13935,7 @@
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr"/>
       <c r="AD69" t="n">
-        <v>8.129999999999988</v>
+        <v>2.249999999999985</v>
       </c>
       <c r="AE69" t="n">
         <v>116.72</v>
@@ -13986,7 +13986,7 @@
         <v>3187.48</v>
       </c>
       <c r="AY69" t="n">
-        <v>2.699999999999999</v>
+        <v>0.170000000000009</v>
       </c>
       <c r="AZ69" t="n">
         <v>35.83</v>
@@ -14004,7 +14004,7 @@
         <v>5596.91</v>
       </c>
       <c r="BE69" t="n">
-        <v>10.10999999999999</v>
+        <v>4.15000000000001</v>
       </c>
       <c r="BF69" t="n">
         <v>92.81999999999999</v>
@@ -14106,7 +14106,7 @@
         <v>401.44</v>
       </c>
       <c r="T70" t="n">
-        <v>16.15</v>
+        <v>10.23</v>
       </c>
       <c r="U70" t="n">
         <v>45.93</v>
@@ -14115,7 +14115,7 @@
         <v>18.1</v>
       </c>
       <c r="W70" t="n">
-        <v>9.139999999999986</v>
+        <v>1.299999999999983</v>
       </c>
       <c r="X70" t="n">
         <v>393.37</v>
@@ -14130,7 +14130,7 @@
       <c r="AB70" t="inlineStr"/>
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="n">
-        <v>4.750000000000028</v>
+        <v>0.5400000000000427</v>
       </c>
       <c r="AE70" t="n">
         <v>203.01</v>
@@ -14181,7 +14181,7 @@
         <v>3309.52</v>
       </c>
       <c r="AY70" t="n">
-        <v>20.74</v>
+        <v>13.92999999999999</v>
       </c>
       <c r="AZ70" t="n">
         <v>60.02</v>
@@ -14199,7 +14199,7 @@
         <v>5829.11</v>
       </c>
       <c r="BE70" t="n">
-        <v>55.86000000000001</v>
+        <v>21.38000000000001</v>
       </c>
       <c r="BF70" t="n">
         <v>159.81</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>1007.06</v>
+        <v>932.0999999999999</v>
       </c>
       <c r="C71" t="n">
         <v>8276.75</v>
@@ -14256,7 +14256,7 @@
         <v>23.57</v>
       </c>
       <c r="E71" t="n">
-        <v>1166.84</v>
+        <v>902.9200000000001</v>
       </c>
       <c r="F71" t="n">
         <v>9585.35</v>
@@ -14265,7 +14265,7 @@
         <v>23.09</v>
       </c>
       <c r="H71" t="n">
-        <v>8.470000000000001</v>
+        <v>6.19</v>
       </c>
       <c r="I71" t="n">
         <v>71.86</v>
@@ -14274,7 +14274,7 @@
         <v>17.61</v>
       </c>
       <c r="K71" t="n">
-        <v>5.4</v>
+        <v>1.81</v>
       </c>
       <c r="L71" t="n">
         <v>30.81</v>
@@ -14310,7 +14310,7 @@
         <v>20.13</v>
       </c>
       <c r="W71" t="n">
-        <v>65.14</v>
+        <v>48.18000000000006</v>
       </c>
       <c r="X71" t="n">
         <v>566.05</v>
@@ -14325,7 +14325,7 @@
       <c r="AB71" t="inlineStr"/>
       <c r="AC71" t="inlineStr"/>
       <c r="AD71" t="n">
-        <v>34.44</v>
+        <v>15.43999999999988</v>
       </c>
       <c r="AE71" t="n">
         <v>288.26</v>
@@ -14355,7 +14355,7 @@
         <v>3242.71</v>
       </c>
       <c r="AP71" t="n">
-        <v>40.38</v>
+        <v>33.26000000000008</v>
       </c>
       <c r="AQ71" t="n">
         <v>307.75</v>
@@ -14394,7 +14394,7 @@
         <v>6036.31</v>
       </c>
       <c r="BE71" t="n">
-        <v>29.38</v>
+        <v>3.84999999999998</v>
       </c>
       <c r="BF71" t="n">
         <v>223.74</v>
@@ -14442,7 +14442,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>1062.78</v>
+        <v>55.72000000000003</v>
       </c>
       <c r="C72" t="n">
         <v>1259.44</v>
@@ -14451,7 +14451,7 @@
         <v>25.06</v>
       </c>
       <c r="E72" t="n">
-        <v>1222.29</v>
+        <v>55.45000000000005</v>
       </c>
       <c r="F72" t="n">
         <v>1468.3</v>
@@ -14460,7 +14460,7 @@
         <v>25.84</v>
       </c>
       <c r="H72" t="n">
-        <v>8.85</v>
+        <v>0.379999999999999</v>
       </c>
       <c r="I72" t="n">
         <v>10.58</v>
@@ -14469,7 +14469,7 @@
         <v>24.91</v>
       </c>
       <c r="K72" t="n">
-        <v>8.339999999999998</v>
+        <v>1.129999999999998</v>
       </c>
       <c r="L72" t="n">
         <v>11.06</v>
@@ -14505,7 +14505,7 @@
         <v>32.1</v>
       </c>
       <c r="W72" t="n">
-        <v>78.52999999999999</v>
+        <v>13.38999999999999</v>
       </c>
       <c r="X72" t="n">
         <v>87.93000000000001</v>
@@ -14520,7 +14520,7 @@
       <c r="AB72" t="inlineStr"/>
       <c r="AC72" t="inlineStr"/>
       <c r="AD72" t="n">
-        <v>36.83</v>
+        <v>2.390000000000001</v>
       </c>
       <c r="AE72" t="n">
         <v>42.4</v>
@@ -14637,7 +14637,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>166.3599999999997</v>
+        <v>54.91999999999967</v>
       </c>
       <c r="C73" t="n">
         <v>3823.57</v>
@@ -14646,7 +14646,7 @@
         <v>24.27</v>
       </c>
       <c r="E73" t="n">
-        <v>203.4400000000001</v>
+        <v>37.09</v>
       </c>
       <c r="F73" t="n">
         <v>4458.37</v>
@@ -14655,7 +14655,7 @@
         <v>25.38</v>
       </c>
       <c r="H73" t="n">
-        <v>3.440000000000001</v>
+        <v>2.300000000000004</v>
       </c>
       <c r="I73" t="n">
         <v>31.75</v>
@@ -14664,7 +14664,7 @@
         <v>23.11</v>
       </c>
       <c r="K73" t="n">
-        <v>4.630000000000003</v>
+        <v>0.560000000000006</v>
       </c>
       <c r="L73" t="n">
         <v>20.68</v>
@@ -14700,7 +14700,7 @@
         <v>25.76</v>
       </c>
       <c r="W73" t="n">
-        <v>16.45000000000002</v>
+        <v>3.060000000000031</v>
       </c>
       <c r="X73" t="n">
         <v>282.6</v>
@@ -14715,7 +14715,7 @@
       <c r="AB73" t="inlineStr"/>
       <c r="AC73" t="inlineStr"/>
       <c r="AD73" t="n">
-        <v>6.590000000000003</v>
+        <v>1.810000000000002</v>
       </c>
       <c r="AE73" t="n">
         <v>127.49</v>
@@ -14832,7 +14832,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>2187.86</v>
+        <v>1689.58</v>
       </c>
       <c r="C74" t="n">
         <v>6512.74</v>
@@ -14841,7 +14841,7 @@
         <v>22.58</v>
       </c>
       <c r="E74" t="n">
-        <v>2509.78</v>
+        <v>1862.37</v>
       </c>
       <c r="F74" t="n">
         <v>7658.92</v>
@@ -14859,7 +14859,7 @@
         <v>24.06</v>
       </c>
       <c r="K74" t="n">
-        <v>3.84</v>
+        <v>1.58999999999999</v>
       </c>
       <c r="L74" t="n">
         <v>28.93</v>
@@ -14910,7 +14910,7 @@
       <c r="AB74" t="inlineStr"/>
       <c r="AC74" t="inlineStr"/>
       <c r="AD74" t="n">
-        <v>75</v>
+        <v>55.80999999999999</v>
       </c>
       <c r="AE74" t="n">
         <v>223.37</v>
@@ -14940,7 +14940,7 @@
         <v>3243.65</v>
       </c>
       <c r="AP74" t="n">
-        <v>79.44000000000003</v>
+        <v>47.71999999999994</v>
       </c>
       <c r="AQ74" t="n">
         <v>247.74</v>
@@ -14979,7 +14979,7 @@
         <v>5946.52</v>
       </c>
       <c r="BE74" t="n">
-        <v>59.41999999999999</v>
+        <v>26.85999999999993</v>
       </c>
       <c r="BF74" t="n">
         <v>171.32</v>
@@ -15045,7 +15045,7 @@
         <v>20.88</v>
       </c>
       <c r="H75" t="n">
-        <v>8.69</v>
+        <v>7.769999999999969</v>
       </c>
       <c r="I75" t="n">
         <v>81.26000000000001</v>
@@ -15054,7 +15054,7 @@
         <v>20.31</v>
       </c>
       <c r="K75" t="n">
-        <v>5.41</v>
+        <v>1.57</v>
       </c>
       <c r="L75" t="n">
         <v>35.08</v>
@@ -15081,7 +15081,7 @@
         <v>457.7</v>
       </c>
       <c r="T75" t="n">
-        <v>8.460000000000001</v>
+        <v>7.899999999999999</v>
       </c>
       <c r="U75" t="n">
         <v>68.5</v>
@@ -15090,7 +15090,7 @@
         <v>18.55</v>
       </c>
       <c r="W75" t="n">
-        <v>62.25</v>
+        <v>56.85000000000002</v>
       </c>
       <c r="X75" t="n">
         <v>687.01</v>
@@ -15156,7 +15156,7 @@
         <v>3317.08</v>
       </c>
       <c r="AY75" t="n">
-        <v>11.49</v>
+        <v>7.610000000000035</v>
       </c>
       <c r="AZ75" t="n">
         <v>88.73999999999999</v>
@@ -15222,7 +15222,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>1016</v>
+        <v>34.90999999999997</v>
       </c>
       <c r="C76" t="n">
         <v>979.92</v>
@@ -15231,7 +15231,7 @@
         <v>-0.12</v>
       </c>
       <c r="E76" t="n">
-        <v>1180.45</v>
+        <v>41.5</v>
       </c>
       <c r="F76" t="n">
         <v>1150.99</v>
@@ -15249,7 +15249,7 @@
         <v>23.01</v>
       </c>
       <c r="K76" t="n">
-        <v>1.81</v>
+        <v>0.24</v>
       </c>
       <c r="L76" t="n">
         <v>11.32</v>
@@ -15285,7 +15285,7 @@
         <v>-7.33</v>
       </c>
       <c r="W76" t="n">
-        <v>76.77000000000001</v>
+        <v>14.52000000000001</v>
       </c>
       <c r="X76" t="n">
         <v>58.58</v>
@@ -15300,7 +15300,7 @@
       <c r="AB76" t="inlineStr"/>
       <c r="AC76" t="inlineStr"/>
       <c r="AD76" t="n">
-        <v>32.99999999999999</v>
+        <v>1.239999999999991</v>
       </c>
       <c r="AE76" t="n">
         <v>31.48</v>
@@ -15417,7 +15417,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>145.2300000000002</v>
+        <v>40.50000000000027</v>
       </c>
       <c r="C77" t="n">
         <v>3025.3</v>
@@ -15426,7 +15426,7 @@
         <v>1.58</v>
       </c>
       <c r="E77" t="n">
-        <v>211.9099999999999</v>
+        <v>87.40999999999991</v>
       </c>
       <c r="F77" t="n">
         <v>3536.57</v>
@@ -15444,7 +15444,7 @@
         <v>11.08</v>
       </c>
       <c r="K77" t="n">
-        <v>5.510000000000002</v>
+        <v>1.410000000000002</v>
       </c>
       <c r="L77" t="n">
         <v>20.43</v>
@@ -15471,7 +15471,7 @@
         <v>303.31</v>
       </c>
       <c r="T77" t="n">
-        <v>14.51</v>
+        <v>2.230000000000002</v>
       </c>
       <c r="U77" t="n">
         <v>20.48</v>
@@ -15480,7 +15480,7 @@
         <v>-11.19</v>
       </c>
       <c r="W77" t="n">
-        <v>23.88999999999999</v>
+        <v>9.36999999999998</v>
       </c>
       <c r="X77" t="n">
         <v>199.9</v>
@@ -15495,7 +15495,7 @@
       <c r="AB77" t="inlineStr"/>
       <c r="AC77" t="inlineStr"/>
       <c r="AD77" t="n">
-        <v>9.740000000000023</v>
+        <v>6.020000000000049</v>
       </c>
       <c r="AE77" t="n">
         <v>94.45999999999999</v>
@@ -15612,7 +15612,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2012.73</v>
+        <v>1536.54</v>
       </c>
       <c r="C78" t="n">
         <v>5405.59</v>
@@ -15621,7 +15621,7 @@
         <v>5.57</v>
       </c>
       <c r="E78" t="n">
-        <v>2344.030000000001</v>
+        <v>1620.890000000001</v>
       </c>
       <c r="F78" t="n">
         <v>6304.01</v>
@@ -15630,7 +15630,7 @@
         <v>5.25</v>
       </c>
       <c r="H78" t="n">
-        <v>19.49</v>
+        <v>2.120000000000001</v>
       </c>
       <c r="I78" t="n">
         <v>47.05</v>
@@ -15666,7 +15666,7 @@
         <v>335.78</v>
       </c>
       <c r="T78" t="n">
-        <v>13.69</v>
+        <v>0.859999999999995</v>
       </c>
       <c r="U78" t="n">
         <v>32.66</v>
@@ -15675,7 +15675,7 @@
         <v>-13.07</v>
       </c>
       <c r="W78" t="n">
-        <v>129.42</v>
+        <v>62.90000000000006</v>
       </c>
       <c r="X78" t="n">
         <v>366.65</v>
@@ -15690,7 +15690,7 @@
       <c r="AB78" t="inlineStr"/>
       <c r="AC78" t="inlineStr"/>
       <c r="AD78" t="n">
-        <v>67.69</v>
+        <v>32.44999999999987</v>
       </c>
       <c r="AE78" t="n">
         <v>170.55</v>
@@ -15741,7 +15741,7 @@
         <v>2892.25</v>
       </c>
       <c r="AY78" t="n">
-        <v>0.8500000000000014</v>
+        <v>0.6499999999999986</v>
       </c>
       <c r="AZ78" t="n">
         <v>46.16</v>
@@ -15759,7 +15759,7 @@
         <v>5113.08</v>
       </c>
       <c r="BE78" t="n">
-        <v>4.449999999999974</v>
+        <v>0.4599999999999591</v>
       </c>
       <c r="BF78" t="n">
         <v>150.97</v>
@@ -15825,7 +15825,7 @@
         <v>9.9</v>
       </c>
       <c r="H79" t="n">
-        <v>10.16</v>
+        <v>0.129999999999999</v>
       </c>
       <c r="I79" t="n">
         <v>71.42</v>
@@ -15834,7 +15834,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="K79" t="n">
-        <v>3.729999999999999</v>
+        <v>0.9700000000000011</v>
       </c>
       <c r="L79" t="n">
         <v>32.5</v>
@@ -15861,7 +15861,7 @@
         <v>346.12</v>
       </c>
       <c r="T79" t="n">
-        <v>6.88</v>
+        <v>1.56</v>
       </c>
       <c r="U79" t="n">
         <v>46.76</v>
@@ -15915,7 +15915,7 @@
         <v>2863.04</v>
       </c>
       <c r="AP79" t="n">
-        <v>42.65</v>
+        <v>24.84999999999981</v>
       </c>
       <c r="AQ79" t="n">
         <v>309.15</v>
@@ -15936,7 +15936,7 @@
         <v>2933.72</v>
       </c>
       <c r="AY79" t="n">
-        <v>9.32</v>
+        <v>6.219999999999999</v>
       </c>
       <c r="AZ79" t="n">
         <v>64.14</v>
@@ -15954,7 +15954,7 @@
         <v>5317.36</v>
       </c>
       <c r="BE79" t="n">
-        <v>30.34</v>
+        <v>20.52000000000014</v>
       </c>
       <c r="BF79" t="n">
         <v>218.19</v>
@@ -16002,7 +16002,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>1000.87</v>
+        <v>52.61000000000001</v>
       </c>
       <c r="C80" t="n">
         <v>1196.86</v>
@@ -16011,7 +16011,7 @@
         <v>26.22</v>
       </c>
       <c r="E80" t="n">
-        <v>1176.67</v>
+        <v>65.78999999999996</v>
       </c>
       <c r="F80" t="n">
         <v>1403.92</v>
@@ -16020,7 +16020,7 @@
         <v>26.38</v>
       </c>
       <c r="H80" t="n">
-        <v>4.209999999999999</v>
+        <v>1.959999999999999</v>
       </c>
       <c r="I80" t="n">
         <v>10.14</v>
@@ -16029,7 +16029,7 @@
         <v>-0.2</v>
       </c>
       <c r="K80" t="n">
-        <v>7.610000000000001</v>
+        <v>0.5600000000000009</v>
       </c>
       <c r="L80" t="n">
         <v>8.6</v>
@@ -16056,7 +16056,7 @@
         <v>266.37</v>
       </c>
       <c r="T80" t="n">
-        <v>4.54</v>
+        <v>2.98</v>
       </c>
       <c r="U80" t="n">
         <v>8.029999999999999</v>
@@ -16065,7 +16065,7 @@
         <v>16.72</v>
       </c>
       <c r="W80" t="n">
-        <v>80.2</v>
+        <v>23.15000000000001</v>
       </c>
       <c r="X80" t="n">
         <v>82.84</v>
@@ -16086,7 +16086,7 @@
         <v>565.39</v>
       </c>
       <c r="AD80" t="n">
-        <v>29.8</v>
+        <v>0.1900000000000013</v>
       </c>
       <c r="AE80" t="n">
         <v>41.6</v>
@@ -16116,7 +16116,7 @@
         <v>2637.53</v>
       </c>
       <c r="AP80" t="n">
-        <v>32.29999999999999</v>
+        <v>3.000000000000131</v>
       </c>
       <c r="AQ80" t="n">
         <v>51</v>
@@ -16155,7 +16155,7 @@
         <v>4819.07</v>
       </c>
       <c r="BE80" t="n">
-        <v>24.08</v>
+        <v>1.309999999999938</v>
       </c>
       <c r="BF80" t="n">
         <v>36.43</v>
@@ -16203,7 +16203,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>273.3699999999999</v>
+        <v>115.5399999999999</v>
       </c>
       <c r="C81" t="n">
         <v>3658.59</v>
@@ -16212,7 +16212,7 @@
         <v>26.27</v>
       </c>
       <c r="E81" t="n">
-        <v>296.52</v>
+        <v>99.15000000000003</v>
       </c>
       <c r="F81" t="n">
         <v>4324.02</v>
@@ -16221,7 +16221,7 @@
         <v>27.24</v>
       </c>
       <c r="H81" t="n">
-        <v>5.33</v>
+        <v>1.120000000000001</v>
       </c>
       <c r="I81" t="n">
         <v>30.25</v>
@@ -16230,7 +16230,7 @@
         <v>23.32</v>
       </c>
       <c r="K81" t="n">
-        <v>6.890000000000001</v>
+        <v>0.919999999999995</v>
       </c>
       <c r="L81" t="n">
         <v>15.24</v>
@@ -16287,7 +16287,7 @@
         <v>628.3099999999999</v>
       </c>
       <c r="AD81" t="n">
-        <v>11.38000000000001</v>
+        <v>10.81000000000001</v>
       </c>
       <c r="AE81" t="n">
         <v>117.63</v>
@@ -16356,7 +16356,7 @@
         <v>5351.53</v>
       </c>
       <c r="BE81" t="n">
-        <v>4.319999999999986</v>
+        <v>3.010000000000048</v>
       </c>
       <c r="BF81" t="n">
         <v>118.9</v>
@@ -16422,7 +16422,7 @@
         <v>23.66</v>
       </c>
       <c r="H82" t="n">
-        <v>2.500000000000011</v>
+        <v>0.2600000000000091</v>
       </c>
       <c r="I82" t="n">
         <v>52.68</v>
@@ -16431,7 +16431,7 @@
         <v>19.1</v>
       </c>
       <c r="K82" t="n">
-        <v>3.140000000000001</v>
+        <v>0.130000000000003</v>
       </c>
       <c r="L82" t="n">
         <v>21.42</v>
@@ -16458,7 +16458,7 @@
         <v>299.09</v>
       </c>
       <c r="T82" t="n">
-        <v>1.65</v>
+        <v>1.210000000000003</v>
       </c>
       <c r="U82" t="n">
         <v>35.12</v>
@@ -16518,7 +16518,7 @@
         <v>3147.71</v>
       </c>
       <c r="AP82" t="n">
-        <v>83.91</v>
+        <v>40.02999999999987</v>
       </c>
       <c r="AQ82" t="n">
         <v>233.5</v>
@@ -16539,7 +16539,7 @@
         <v>3099.67</v>
       </c>
       <c r="AY82" t="n">
-        <v>16.32</v>
+        <v>15.56</v>
       </c>
       <c r="AZ82" t="n">
         <v>49.76</v>
@@ -16605,7 +16605,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1029.91</v>
+        <v>994.91</v>
       </c>
       <c r="C83" t="n">
         <v>8932.280000000001</v>
@@ -16614,7 +16614,7 @@
         <v>21.51</v>
       </c>
       <c r="E83" t="n">
-        <v>1205.27</v>
+        <v>930.27</v>
       </c>
       <c r="F83" t="n">
         <v>10591.71</v>
@@ -16623,7 +16623,7 @@
         <v>22.66</v>
       </c>
       <c r="H83" t="n">
-        <v>8.48</v>
+        <v>1.83999999999996</v>
       </c>
       <c r="I83" t="n">
         <v>75.53</v>
@@ -16632,7 +16632,7 @@
         <v>13.7</v>
       </c>
       <c r="K83" t="n">
-        <v>2.649999999999999</v>
+        <v>2.519999999999996</v>
       </c>
       <c r="L83" t="n">
         <v>24.96</v>
@@ -16659,7 +16659,7 @@
         <v>317.12</v>
       </c>
       <c r="T83" t="n">
-        <v>7.3</v>
+        <v>1.359999999999997</v>
       </c>
       <c r="U83" t="n">
         <v>50.99</v>
@@ -16668,7 +16668,7 @@
         <v>18.55</v>
       </c>
       <c r="W83" t="n">
-        <v>71.23999999999999</v>
+        <v>25.07999999999991</v>
       </c>
       <c r="X83" t="n">
         <v>688.86</v>
@@ -16689,7 +16689,7 @@
         <v>689.8099999999999</v>
       </c>
       <c r="AD83" t="n">
-        <v>33.45</v>
+        <v>12.69000000000008</v>
       </c>
       <c r="AE83" t="n">
         <v>287.28</v>
@@ -16758,7 +16758,7 @@
         <v>5937.73</v>
       </c>
       <c r="BE83" t="n">
-        <v>32.02</v>
+        <v>22.69999999999999</v>
       </c>
       <c r="BF83" t="n">
         <v>287.79</v>
@@ -16824,7 +16824,7 @@
         <v>28.36</v>
       </c>
       <c r="H84" t="n">
-        <v>5.049999999999999</v>
+        <v>1.57000000000002</v>
       </c>
       <c r="I84" t="n">
         <v>11.24</v>
@@ -16860,7 +16860,7 @@
         <v>264.61</v>
       </c>
       <c r="T84" t="n">
-        <v>4.170000000000001</v>
+        <v>0.0600000000000005</v>
       </c>
       <c r="U84" t="n">
         <v>9.029999999999999</v>
@@ -16869,7 +16869,7 @@
         <v>23.7</v>
       </c>
       <c r="W84" t="n">
-        <v>48.25</v>
+        <v>0.09000000000005315</v>
       </c>
       <c r="X84" t="n">
         <v>99.25</v>
@@ -16890,7 +16890,7 @@
         <v>607.51</v>
       </c>
       <c r="AD84" t="n">
-        <v>20.04</v>
+        <v>2.15999999999994</v>
       </c>
       <c r="AE84" t="n">
         <v>36.3</v>
@@ -17025,7 +17025,7 @@
         <v>29.49</v>
       </c>
       <c r="H85" t="n">
-        <v>4.970000000000001</v>
+        <v>3.399999999999981</v>
       </c>
       <c r="I85" t="n">
         <v>17.37</v>
@@ -17034,7 +17034,7 @@
         <v>28.38</v>
       </c>
       <c r="K85" t="n">
-        <v>1.37</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="L85" t="n">
         <v>9.31</v>
@@ -17061,7 +17061,7 @@
         <v>273.48</v>
       </c>
       <c r="T85" t="n">
-        <v>3.91</v>
+        <v>3.85</v>
       </c>
       <c r="U85" t="n">
         <v>15.19</v>
@@ -17235,7 +17235,7 @@
         <v>27.73</v>
       </c>
       <c r="K86" t="n">
-        <v>0.8200000000000003</v>
+        <v>0.52</v>
       </c>
       <c r="L86" t="n">
         <v>11.7</v>
@@ -17271,7 +17271,7 @@
         <v>29.65</v>
       </c>
       <c r="W86" t="n">
-        <v>13.16999999999999</v>
+        <v>13.00999999999995</v>
       </c>
       <c r="X86" t="n">
         <v>222.92</v>
@@ -17343,7 +17343,7 @@
         <v>2901.94</v>
       </c>
       <c r="AY86" t="n">
-        <v>4.93</v>
+        <v>0.07000000000000206</v>
       </c>
       <c r="AZ86" t="n">
         <v>26.71</v>
@@ -17361,7 +17361,7 @@
         <v>5123.6</v>
       </c>
       <c r="BE86" t="n">
-        <v>17.6</v>
+        <v>12.08</v>
       </c>
       <c r="BF86" t="n">
         <v>81.88</v>
@@ -17409,7 +17409,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>111.5799999999999</v>
+        <v>96.05999999999862</v>
       </c>
       <c r="C87" t="n">
         <v>3985.62</v>
@@ -17418,7 +17418,7 @@
         <v>28.58</v>
       </c>
       <c r="E87" t="n">
-        <v>112.9300000000003</v>
+        <v>3.17000000000191</v>
       </c>
       <c r="F87" t="n">
         <v>4666.54</v>
@@ -17427,7 +17427,7 @@
         <v>28.33</v>
       </c>
       <c r="H87" t="n">
-        <v>1.510000000000002</v>
+        <v>0.03000000000000536</v>
       </c>
       <c r="I87" t="n">
         <v>31.15</v>
@@ -17436,7 +17436,7 @@
         <v>30.66</v>
       </c>
       <c r="K87" t="n">
-        <v>1.150000000000001</v>
+        <v>0.3300000000000007</v>
       </c>
       <c r="L87" t="n">
         <v>13.22</v>
@@ -17472,7 +17472,7 @@
         <v>33.49</v>
       </c>
       <c r="W87" t="n">
-        <v>59.49000000000001</v>
+        <v>7.050000000000109</v>
       </c>
       <c r="X87" t="n">
         <v>297.62</v>
@@ -17493,7 +17493,7 @@
         <v>622.73</v>
       </c>
       <c r="AD87" t="n">
-        <v>3.72999999999999</v>
+        <v>2.12999999999991</v>
       </c>
       <c r="AE87" t="n">
         <v>106.81</v>
@@ -17523,7 +17523,7 @@
         <v>2928.86</v>
       </c>
       <c r="AP87" t="n">
-        <v>24.31999999999999</v>
+        <v>11.52000000000003</v>
       </c>
       <c r="AQ87" t="n">
         <v>135.8</v>
@@ -17544,7 +17544,7 @@
         <v>2946.9</v>
       </c>
       <c r="AY87" t="n">
-        <v>0.4600000000000009</v>
+        <v>0.3899999999999988</v>
       </c>
       <c r="AZ87" t="n">
         <v>33.46</v>
@@ -17562,7 +17562,7 @@
         <v>5222.47</v>
       </c>
       <c r="BE87" t="n">
-        <v>24.75999999999999</v>
+        <v>7.159999999999989</v>
       </c>
       <c r="BF87" t="n">
         <v>107.21</v>
@@ -17610,7 +17610,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>725.7999999999997</v>
+        <v>302.7600000000019</v>
       </c>
       <c r="C88" t="n">
         <v>5078.36</v>
@@ -17619,7 +17619,7 @@
         <v>29.93</v>
       </c>
       <c r="E88" t="n">
-        <v>830.3099999999995</v>
+        <v>543.2299999999959</v>
       </c>
       <c r="F88" t="n">
         <v>5940.51</v>
@@ -17628,7 +17628,7 @@
         <v>29.45</v>
       </c>
       <c r="H88" t="n">
-        <v>5.050000000000001</v>
+        <v>1.229999999999987</v>
       </c>
       <c r="I88" t="n">
         <v>39.95</v>
@@ -17637,7 +17637,7 @@
         <v>30.17</v>
       </c>
       <c r="K88" t="n">
-        <v>1.129999999999999</v>
+        <v>0.1399999999999969</v>
       </c>
       <c r="L88" t="n">
         <v>14.59</v>
@@ -17664,7 +17664,7 @@
         <v>281.47</v>
       </c>
       <c r="T88" t="n">
-        <v>3.989999999999998</v>
+        <v>1.749999999999996</v>
       </c>
       <c r="U88" t="n">
         <v>29.64</v>
@@ -17673,7 +17673,7 @@
         <v>28.31</v>
       </c>
       <c r="W88" t="n">
-        <v>51.50999999999999</v>
+        <v>5.189999999999969</v>
       </c>
       <c r="X88" t="n">
         <v>386.4</v>
@@ -17694,7 +17694,7 @@
         <v>630.72</v>
       </c>
       <c r="AD88" t="n">
-        <v>21.30999999999999</v>
+        <v>8.79000000000015</v>
       </c>
       <c r="AE88" t="n">
         <v>141.68</v>
@@ -17724,7 +17724,7 @@
         <v>2973.85</v>
       </c>
       <c r="AP88" t="n">
-        <v>23.82000000000002</v>
+        <v>2.700000000000021</v>
       </c>
       <c r="AQ88" t="n">
         <v>166.04</v>
@@ -17745,7 +17745,7 @@
         <v>3007.15</v>
       </c>
       <c r="AY88" t="n">
-        <v>1.030000000000001</v>
+        <v>0.1099999999999992</v>
       </c>
       <c r="AZ88" t="n">
         <v>40.17</v>
@@ -17763,7 +17763,7 @@
         <v>5330.83</v>
       </c>
       <c r="BE88" t="n">
-        <v>22.96000000000001</v>
+        <v>1.480000000000044</v>
       </c>
       <c r="BF88" t="n">
         <v>140.15</v>
@@ -17829,7 +17829,7 @@
         <v>29.41</v>
       </c>
       <c r="H89" t="n">
-        <v>2.399999999999995</v>
+        <v>0.7700000000000031</v>
       </c>
       <c r="I89" t="n">
         <v>47.72</v>
@@ -17865,7 +17865,7 @@
         <v>280.43</v>
       </c>
       <c r="T89" t="n">
-        <v>3.170000000000002</v>
+        <v>0.3000000000000052</v>
       </c>
       <c r="U89" t="n">
         <v>34.68</v>
@@ -17895,7 +17895,7 @@
         <v>634.03</v>
       </c>
       <c r="AD89" t="n">
-        <v>21.21000000000001</v>
+        <v>3.630000000000013</v>
       </c>
       <c r="AE89" t="n">
         <v>168.9</v>
@@ -17946,7 +17946,7 @@
         <v>3005.15</v>
       </c>
       <c r="AY89" t="n">
-        <v>4.829999999999998</v>
+        <v>3.009999999999999</v>
       </c>
       <c r="AZ89" t="n">
         <v>46.23</v>
@@ -18012,7 +18012,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>62.42000000000098</v>
+        <v>43.82000000000062</v>
       </c>
       <c r="C90" t="n">
         <v>6951.57</v>
@@ -18021,7 +18021,7 @@
         <v>29.58</v>
       </c>
       <c r="E90" t="n">
-        <v>859.0900000000001</v>
+        <v>716.9699999999975</v>
       </c>
       <c r="F90" t="n">
         <v>8111.99</v>
@@ -18030,7 +18030,7 @@
         <v>29.07</v>
       </c>
       <c r="H90" t="n">
-        <v>4.390000000000001</v>
+        <v>1.990000000000006</v>
       </c>
       <c r="I90" t="n">
         <v>55.05</v>
@@ -18039,7 +18039,7 @@
         <v>27.46</v>
       </c>
       <c r="K90" t="n">
-        <v>0.3199999999999981</v>
+        <v>0.1499999999999962</v>
       </c>
       <c r="L90" t="n">
         <v>15.44</v>
@@ -18066,7 +18066,7 @@
         <v>291.68</v>
       </c>
       <c r="T90" t="n">
-        <v>1.259999999999994</v>
+        <v>0.9599999999999889</v>
       </c>
       <c r="U90" t="n">
         <v>40.1</v>
@@ -18096,7 +18096,7 @@
         <v>647.16</v>
       </c>
       <c r="AD90" t="n">
-        <v>20.23000000000002</v>
+        <v>12.97</v>
       </c>
       <c r="AE90" t="n">
         <v>194.02</v>
@@ -18165,7 +18165,7 @@
         <v>5443.83</v>
       </c>
       <c r="BE90" t="n">
-        <v>2.430000000000039</v>
+        <v>0.410000000000061</v>
       </c>
       <c r="BF90" t="n">
         <v>192.44</v>
@@ -18213,7 +18213,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>751.2999999999993</v>
+        <v>529.5199999999959</v>
       </c>
       <c r="C91" t="n">
         <v>7939.88</v>
@@ -18231,7 +18231,7 @@
         <v>29.63</v>
       </c>
       <c r="H91" t="n">
-        <v>2.880000000000003</v>
+        <v>0.889999999999997</v>
       </c>
       <c r="I91" t="n">
         <v>62.5</v>
@@ -18240,7 +18240,7 @@
         <v>31.36</v>
       </c>
       <c r="K91" t="n">
-        <v>14.87</v>
+        <v>14.1</v>
       </c>
       <c r="L91" t="n">
         <v>17.48</v>
@@ -18276,7 +18276,7 @@
         <v>36.78</v>
       </c>
       <c r="W91" t="n">
-        <v>6.430000000000014</v>
+        <v>4.989999999999988</v>
       </c>
       <c r="X91" t="n">
         <v>597.97</v>
@@ -18327,7 +18327,7 @@
         <v>3132.58</v>
       </c>
       <c r="AP91" t="n">
-        <v>26.98999999999998</v>
+        <v>21.50999999999982</v>
       </c>
       <c r="AQ91" t="n">
         <v>258.1</v>
@@ -18348,7 +18348,7 @@
         <v>3064.1</v>
       </c>
       <c r="AY91" t="n">
-        <v>5.839999999999996</v>
+        <v>1.36999999999999</v>
       </c>
       <c r="AZ91" t="n">
         <v>62.9</v>
@@ -18366,7 +18366,7 @@
         <v>5539.18</v>
       </c>
       <c r="BE91" t="n">
-        <v>20.38</v>
+        <v>16.71999999999978</v>
       </c>
       <c r="BF91" t="n">
         <v>216.48</v>
@@ -18423,7 +18423,7 @@
         <v>27.8</v>
       </c>
       <c r="E92" t="n">
-        <v>928.0500000000002</v>
+        <v>541.5299999999997</v>
       </c>
       <c r="F92" t="n">
         <v>10303.85</v>
@@ -18432,7 +18432,7 @@
         <v>27.21</v>
       </c>
       <c r="H92" t="n">
-        <v>6.129999999999995</v>
+        <v>0.369999999999989</v>
       </c>
       <c r="I92" t="n">
         <v>71.13</v>
@@ -18468,7 +18468,7 @@
         <v>302.56</v>
       </c>
       <c r="T92" t="n">
-        <v>4.109999999999999</v>
+        <v>1.98999999999998</v>
       </c>
       <c r="U92" t="n">
         <v>52.31</v>
@@ -18498,7 +18498,7 @@
         <v>664.22</v>
       </c>
       <c r="AD92" t="n">
-        <v>6.439999999999998</v>
+        <v>2.020000000000038</v>
       </c>
       <c r="AE92" t="n">
         <v>247.15</v>
@@ -18549,7 +18549,7 @@
         <v>3092.88</v>
       </c>
       <c r="AY92" t="n">
-        <v>1.910000000000004</v>
+        <v>0.540000000000014</v>
       </c>
       <c r="AZ92" t="n">
         <v>70.39</v>
@@ -18615,7 +18615,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>159.4400000000005</v>
+        <v>149.1199999999973</v>
       </c>
       <c r="C93" t="n">
         <v>9767.15</v>
@@ -18633,7 +18633,7 @@
         <v>26.47</v>
       </c>
       <c r="H93" t="n">
-        <v>6.130000000000005</v>
+        <v>1.06581410364015e-14</v>
       </c>
       <c r="I93" t="n">
         <v>78.84999999999999</v>
@@ -18642,7 +18642,7 @@
         <v>29.3</v>
       </c>
       <c r="K93" t="n">
-        <v>14.79</v>
+        <v>12.59</v>
       </c>
       <c r="L93" t="n">
         <v>21.02</v>
@@ -18669,7 +18669,7 @@
         <v>305.27</v>
       </c>
       <c r="T93" t="n">
-        <v>5.010000000000005</v>
+        <v>0.9000000000000057</v>
       </c>
       <c r="U93" t="n">
         <v>53.51</v>
@@ -18678,7 +18678,7 @@
         <v>22.28</v>
       </c>
       <c r="W93" t="n">
-        <v>20.00999999999993</v>
+        <v>0.5299999999999088</v>
       </c>
       <c r="X93" t="n">
         <v>759.49</v>
@@ -18699,7 +18699,7 @@
         <v>674.7</v>
       </c>
       <c r="AD93" t="n">
-        <v>7.180000000000003</v>
+        <v>0.7400000000000055</v>
       </c>
       <c r="AE93" t="n">
         <v>280.6</v>
@@ -18729,7 +18729,7 @@
         <v>3205.17</v>
       </c>
       <c r="AP93" t="n">
-        <v>22.88000000000002</v>
+        <v>20.88000000000002</v>
       </c>
       <c r="AQ93" t="n">
         <v>320.03</v>
@@ -18750,7 +18750,7 @@
         <v>3117.23</v>
       </c>
       <c r="AY93" t="n">
-        <v>6.299999999999997</v>
+        <v>0.569999999999985</v>
       </c>
       <c r="AZ93" t="n">
         <v>72.94</v>
@@ -18816,7 +18816,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>319.5499999999993</v>
+        <v>3.249999999999091</v>
       </c>
       <c r="C94" t="n">
         <v>10759.65</v>
@@ -18825,7 +18825,7 @@
         <v>25.46</v>
       </c>
       <c r="E94" t="n">
-        <v>399.4900000000009</v>
+        <v>71.56000000000451</v>
       </c>
       <c r="F94" t="n">
         <v>12650.02</v>
@@ -18834,7 +18834,7 @@
         <v>25.68</v>
       </c>
       <c r="H94" t="n">
-        <v>9.859999999999999</v>
+        <v>3.729999999999962</v>
       </c>
       <c r="I94" t="n">
         <v>90.5</v>
@@ -18870,7 +18870,7 @@
         <v>306.23</v>
       </c>
       <c r="T94" t="n">
-        <v>7.6</v>
+        <v>0.7899999999999834</v>
       </c>
       <c r="U94" t="n">
         <v>65.48</v>
@@ -18900,7 +18900,7 @@
         <v>678.7</v>
       </c>
       <c r="AD94" t="n">
-        <v>32.63</v>
+        <v>23.22999999999998</v>
       </c>
       <c r="AE94" t="n">
         <v>320.38</v>
@@ -18930,7 +18930,7 @@
         <v>3358.67</v>
       </c>
       <c r="AP94" t="n">
-        <v>46.12</v>
+        <v>0.8599999999999604</v>
       </c>
       <c r="AQ94" t="n">
         <v>387.66</v>
@@ -18951,7 +18951,7 @@
         <v>3218.18</v>
       </c>
       <c r="AY94" t="n">
-        <v>4.630000000000003</v>
+        <v>0.24000000000001</v>
       </c>
       <c r="AZ94" t="n">
         <v>85.06</v>
@@ -18969,7 +18969,7 @@
         <v>6067.35</v>
       </c>
       <c r="BE94" t="n">
-        <v>29.46999999999997</v>
+        <v>9.709999999999853</v>
       </c>
       <c r="BF94" t="n">
         <v>289.92</v>
@@ -19017,7 +19017,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>809.4000000000001</v>
+        <v>323.2400000000039</v>
       </c>
       <c r="C95" t="n">
         <v>1401.8</v>
@@ -19026,7 +19026,7 @@
         <v>13.7</v>
       </c>
       <c r="E95" t="n">
-        <v>956.9700000000003</v>
+        <v>14.86999999998942</v>
       </c>
       <c r="F95" t="n">
         <v>1645.84</v>
@@ -19035,7 +19035,7 @@
         <v>14.55</v>
       </c>
       <c r="H95" t="n">
-        <v>5.91</v>
+        <v>2.180000000000006</v>
       </c>
       <c r="I95" t="n">
         <v>10.76</v>
@@ -19071,7 +19071,7 @@
         <v>283.32</v>
       </c>
       <c r="T95" t="n">
-        <v>6.06</v>
+        <v>0.9900000000000326</v>
       </c>
       <c r="U95" t="n">
         <v>10.02</v>
@@ -19080,7 +19080,7 @@
         <v>31.84</v>
       </c>
       <c r="W95" t="n">
-        <v>62.56999999999999</v>
+        <v>43.04999999999979</v>
       </c>
       <c r="X95" t="n">
         <v>106</v>
@@ -19101,7 +19101,7 @@
         <v>650.53</v>
       </c>
       <c r="AD95" t="n">
-        <v>24.66</v>
+        <v>0.690000000000019</v>
       </c>
       <c r="AE95" t="n">
         <v>38.53</v>
@@ -19135,7 +19135,7 @@
         <v>2944.75</v>
       </c>
       <c r="AP95" t="n">
-        <v>27.3</v>
+        <v>2.3400000000001</v>
       </c>
       <c r="AQ95" t="n">
         <v>53.75</v>
@@ -19160,7 +19160,7 @@
         <v>2903.36</v>
       </c>
       <c r="AY95" t="n">
-        <v>7.25</v>
+        <v>2.139999999999977</v>
       </c>
       <c r="AZ95" t="n">
         <v>12.74</v>
@@ -19178,7 +19178,7 @@
         <v>5286.45</v>
       </c>
       <c r="BE95" t="n">
-        <v>22.27</v>
+        <v>2.680000000000089</v>
       </c>
       <c r="BF95" t="n">
         <v>41.38</v>
@@ -19230,7 +19230,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>637.3400000000001</v>
+        <v>147.4899999999993</v>
       </c>
       <c r="C96" t="n">
         <v>2315.79</v>
@@ -19239,7 +19239,7 @@
         <v>13.39</v>
       </c>
       <c r="E96" t="n">
-        <v>750.96</v>
+        <v>107.0500000000068</v>
       </c>
       <c r="F96" t="n">
         <v>2710.51</v>
@@ -19248,7 +19248,7 @@
         <v>13.23</v>
       </c>
       <c r="H96" t="n">
-        <v>5.199999999999999</v>
+        <v>0.839999999999987</v>
       </c>
       <c r="I96" t="n">
         <v>17.44</v>
@@ -19284,7 +19284,7 @@
         <v>290.81</v>
       </c>
       <c r="T96" t="n">
-        <v>4.100000000000001</v>
+        <v>0.6299999999999963</v>
       </c>
       <c r="U96" t="n">
         <v>16.54</v>
@@ -19348,7 +19348,7 @@
         <v>3085.07</v>
       </c>
       <c r="AP96" t="n">
-        <v>21.72</v>
+        <v>14.45999999999992</v>
       </c>
       <c r="AQ96" t="n">
         <v>85.7</v>
@@ -19373,7 +19373,7 @@
         <v>3088.91</v>
       </c>
       <c r="AY96" t="n">
-        <v>5.080000000000002</v>
+        <v>0.08000000000001783</v>
       </c>
       <c r="AZ96" t="n">
         <v>20.35</v>
@@ -19391,7 +19391,7 @@
         <v>5510.17</v>
       </c>
       <c r="BE96" t="n">
-        <v>18.69</v>
+        <v>16.00999999999991</v>
       </c>
       <c r="BF96" t="n">
         <v>65.15000000000001</v>
@@ -19497,7 +19497,7 @@
         <v>264.32</v>
       </c>
       <c r="T97" t="n">
-        <v>0.8799999999999955</v>
+        <v>0.2499999999999991</v>
       </c>
       <c r="U97" t="n">
         <v>21.23</v>
@@ -19674,7 +19674,7 @@
         <v>9.83</v>
       </c>
       <c r="H98" t="n">
-        <v>1.43</v>
+        <v>0.03999999999999893</v>
       </c>
       <c r="I98" t="n">
         <v>28.79</v>
@@ -19683,7 +19683,7 @@
         <v>4.46</v>
       </c>
       <c r="K98" t="n">
-        <v>1.710000000000001</v>
+        <v>0.7100000000000091</v>
       </c>
       <c r="L98" t="n">
         <v>15.98</v>
@@ -19710,7 +19710,7 @@
         <v>268.86</v>
       </c>
       <c r="T98" t="n">
-        <v>3.610000000000003</v>
+        <v>0.09000000000002206</v>
       </c>
       <c r="U98" t="n">
         <v>24.93</v>
@@ -19740,7 +19740,7 @@
         <v>635.28</v>
       </c>
       <c r="AD98" t="n">
-        <v>9.190000000000012</v>
+        <v>0.510000000000054</v>
       </c>
       <c r="AE98" t="n">
         <v>103.45</v>
@@ -19774,7 +19774,7 @@
         <v>2980.16</v>
       </c>
       <c r="AP98" t="n">
-        <v>28.27000000000001</v>
+        <v>0.3500000000000085</v>
       </c>
       <c r="AQ98" t="n">
         <v>142</v>
@@ -19817,7 +19817,7 @@
         <v>5259.01</v>
       </c>
       <c r="BE98" t="n">
-        <v>6.789999999999988</v>
+        <v>1.789999999999988</v>
       </c>
       <c r="BF98" t="n">
         <v>104.09</v>
@@ -19869,7 +19869,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>772.1300000000001</v>
+        <v>236.9699999999985</v>
       </c>
       <c r="C99" t="n">
         <v>4782</v>
@@ -19878,7 +19878,7 @@
         <v>9.210000000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>897.3200000000006</v>
+        <v>296.8400000000047</v>
       </c>
       <c r="F99" t="n">
         <v>5593.37</v>
@@ -19887,7 +19887,7 @@
         <v>8.640000000000001</v>
       </c>
       <c r="H99" t="n">
-        <v>6.730000000000004</v>
+        <v>5.180000000000007</v>
       </c>
       <c r="I99" t="n">
         <v>36.81</v>
@@ -19932,7 +19932,7 @@
         <v>17.19</v>
       </c>
       <c r="W99" t="n">
-        <v>59.28999999999996</v>
+        <v>35.2099999999998</v>
       </c>
       <c r="X99" t="n">
         <v>369.84</v>
@@ -19953,7 +19953,7 @@
         <v>662.13</v>
       </c>
       <c r="AD99" t="n">
-        <v>23.25000000000001</v>
+        <v>8.189999999999859</v>
       </c>
       <c r="AE99" t="n">
         <v>131.09</v>
@@ -19987,7 +19987,7 @@
         <v>3067.75</v>
       </c>
       <c r="AP99" t="n">
-        <v>27.02999999999997</v>
+        <v>5.739999999999959</v>
       </c>
       <c r="AQ99" t="n">
         <v>173.57</v>
@@ -20012,7 +20012,7 @@
         <v>3027.82</v>
       </c>
       <c r="AY99" t="n">
-        <v>4.840000000000003</v>
+        <v>4.000000000000015</v>
       </c>
       <c r="AZ99" t="n">
         <v>38.72</v>
@@ -20030,7 +20030,7 @@
         <v>5369.66</v>
       </c>
       <c r="BE99" t="n">
-        <v>25.83000000000001</v>
+        <v>13.67000000000005</v>
       </c>
       <c r="BF99" t="n">
         <v>127.98</v>
@@ -20136,7 +20136,7 @@
         <v>287.17</v>
       </c>
       <c r="T100" t="n">
-        <v>1.32</v>
+        <v>0.08000000000001228</v>
       </c>
       <c r="U100" t="n">
         <v>36.95</v>
@@ -20145,7 +20145,7 @@
         <v>20.83</v>
       </c>
       <c r="W100" t="n">
-        <v>58.15000000000003</v>
+        <v>4.880000000000109</v>
       </c>
       <c r="X100" t="n">
         <v>426.29</v>
@@ -20166,7 +20166,7 @@
         <v>668.77</v>
       </c>
       <c r="AD100" t="n">
-        <v>23.19999999999999</v>
+        <v>0.4400000000000741</v>
       </c>
       <c r="AE100" t="n">
         <v>154.64</v>
@@ -20196,7 +20196,7 @@
         <v>3097.17</v>
       </c>
       <c r="AP100" t="n">
-        <v>26.35000000000002</v>
+        <v>14.8700000000001</v>
       </c>
       <c r="AQ100" t="n">
         <v>203.4</v>
@@ -20235,7 +20235,7 @@
         <v>5426.13</v>
       </c>
       <c r="BE100" t="n">
-        <v>22.54999999999998</v>
+        <v>3.509999999999959</v>
       </c>
       <c r="BF100" t="n">
         <v>149.71</v>
@@ -20283,7 +20283,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>49.48999999999978</v>
+        <v>1.32999999999994</v>
       </c>
       <c r="C101" t="n">
         <v>6419.12</v>
@@ -20292,7 +20292,7 @@
         <v>8.16</v>
       </c>
       <c r="E101" t="n">
-        <v>39.32999999999993</v>
+        <v>12.82000000000062</v>
       </c>
       <c r="F101" t="n">
         <v>7507.26</v>
@@ -20301,7 +20301,7 @@
         <v>7.71</v>
       </c>
       <c r="H101" t="n">
-        <v>6.789999999999999</v>
+        <v>6.470000000000034</v>
       </c>
       <c r="I101" t="n">
         <v>50.06</v>
@@ -20310,7 +20310,7 @@
         <v>1.91</v>
       </c>
       <c r="K101" t="n">
-        <v>0.5500000000000012</v>
+        <v>0.1000000000000019</v>
       </c>
       <c r="L101" t="n">
         <v>22.73</v>
@@ -20337,7 +20337,7 @@
         <v>283.53</v>
       </c>
       <c r="T101" t="n">
-        <v>8.390000000000001</v>
+        <v>6.209999999999969</v>
       </c>
       <c r="U101" t="n">
         <v>40.5</v>
@@ -20426,7 +20426,7 @@
         <v>3068.89</v>
       </c>
       <c r="AY101" t="n">
-        <v>1.810000000000002</v>
+        <v>7.105427357601002e-15</v>
       </c>
       <c r="AZ101" t="n">
         <v>51.11</v>
@@ -20444,7 +20444,7 @@
         <v>5500.64</v>
       </c>
       <c r="BE101" t="n">
-        <v>22.08000000000001</v>
+        <v>15.06000000000009</v>
       </c>
       <c r="BF101" t="n">
         <v>174.2</v>
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>744.6000000000004</v>
+        <v>618.880000000001</v>
       </c>
       <c r="C102" t="n">
         <v>7269.47</v>
@@ -20505,7 +20505,7 @@
         <v>7.4</v>
       </c>
       <c r="E102" t="n">
-        <v>880.4399999999996</v>
+        <v>802.6499999999978</v>
       </c>
       <c r="F102" t="n">
         <v>8516.9</v>
@@ -20523,7 +20523,7 @@
         <v>2.11</v>
       </c>
       <c r="K102" t="n">
-        <v>0.9500000000000028</v>
+        <v>0.09999999999999599</v>
       </c>
       <c r="L102" t="n">
         <v>22.57</v>
@@ -20580,7 +20580,7 @@
         <v>671.92</v>
       </c>
       <c r="AD102" t="n">
-        <v>20.21000000000001</v>
+        <v>11.64999999999997</v>
       </c>
       <c r="AE102" t="n">
         <v>198.14</v>
@@ -20639,7 +20639,7 @@
         <v>3079.04</v>
       </c>
       <c r="AY102" t="n">
-        <v>5.979999999999997</v>
+        <v>4.169999999999973</v>
       </c>
       <c r="AZ102" t="n">
         <v>57.76</v>
@@ -20657,7 +20657,7 @@
         <v>5569.72</v>
       </c>
       <c r="BE102" t="n">
-        <v>21.33000000000001</v>
+        <v>2.759999999999959</v>
       </c>
       <c r="BF102" t="n">
         <v>199.98</v>
@@ -20727,7 +20727,7 @@
         <v>7.7</v>
       </c>
       <c r="H103" t="n">
-        <v>7.359999999999999</v>
+        <v>4.479999999999975</v>
       </c>
       <c r="I103" t="n">
         <v>64.09</v>
@@ -20736,7 +20736,7 @@
         <v>1.06</v>
       </c>
       <c r="K103" t="n">
-        <v>1.129999999999995</v>
+        <v>0.1799999999999922</v>
       </c>
       <c r="L103" t="n">
         <v>24.12</v>
@@ -20763,7 +20763,7 @@
         <v>286.29</v>
       </c>
       <c r="T103" t="n">
-        <v>41.51</v>
+        <v>23.67</v>
       </c>
       <c r="U103" t="n">
         <v>50.61</v>
@@ -20827,7 +20827,7 @@
         <v>3113.87</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.75</v>
+        <v>0.01000000000005796</v>
       </c>
       <c r="AQ103" t="n">
         <v>292.58</v>
@@ -20922,7 +20922,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>40.57999999999902</v>
+        <v>14.38999999999942</v>
       </c>
       <c r="C104" t="n">
         <v>8953.440000000001</v>
@@ -20931,7 +20931,7 @@
         <v>8.08</v>
       </c>
       <c r="E104" t="n">
-        <v>91.23999999999785</v>
+        <v>22.17999999999473</v>
       </c>
       <c r="F104" t="n">
         <v>10511.47</v>
@@ -20949,7 +20949,7 @@
         <v>2.88</v>
       </c>
       <c r="K104" t="n">
-        <v>16.11</v>
+        <v>14.44000000000003</v>
       </c>
       <c r="L104" t="n">
         <v>25.77</v>
@@ -20985,7 +20985,7 @@
         <v>20.69</v>
       </c>
       <c r="W104" t="n">
-        <v>40.56999999999996</v>
+        <v>27.5699999999995</v>
       </c>
       <c r="X104" t="n">
         <v>710.59</v>
@@ -21036,7 +21036,7 @@
         <v>3223.51</v>
       </c>
       <c r="AP104" t="n">
-        <v>27.13000000000006</v>
+        <v>23.60999999999994</v>
       </c>
       <c r="AQ104" t="n">
         <v>331.69</v>
@@ -21057,7 +21057,7 @@
         <v>3111.74</v>
       </c>
       <c r="AY104" t="n">
-        <v>10.82999999999999</v>
+        <v>6.349999999999971</v>
       </c>
       <c r="AZ104" t="n">
         <v>70.5</v>
@@ -21123,7 +21123,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>485.890000000001</v>
+        <v>402.1400000000038</v>
       </c>
       <c r="C105" t="n">
         <v>9819.4</v>
@@ -21132,7 +21132,7 @@
         <v>7.96</v>
       </c>
       <c r="E105" t="n">
-        <v>516.810000000001</v>
+        <v>324.5000000000174</v>
       </c>
       <c r="F105" t="n">
         <v>11581.14</v>
@@ -21141,7 +21141,7 @@
         <v>7.89</v>
       </c>
       <c r="H105" t="n">
-        <v>9.85</v>
+        <v>1.949999999999998</v>
       </c>
       <c r="I105" t="n">
         <v>84.34999999999999</v>
@@ -21186,7 +21186,7 @@
         <v>12.19</v>
       </c>
       <c r="W105" t="n">
-        <v>99.39</v>
+        <v>21.50000000000021</v>
       </c>
       <c r="X105" t="n">
         <v>819.4</v>
@@ -21207,7 +21207,7 @@
         <v>664.91</v>
       </c>
       <c r="AD105" t="n">
-        <v>2.250000000000028</v>
+        <v>0.400000000000055</v>
       </c>
       <c r="AE105" t="n">
         <v>307.69</v>
@@ -21241,7 +21241,7 @@
         <v>3270.26</v>
       </c>
       <c r="AP105" t="n">
-        <v>50.14</v>
+        <v>23.00999999999994</v>
       </c>
       <c r="AQ105" t="n">
         <v>375.92</v>
@@ -21284,7 +21284,7 @@
         <v>5890.43</v>
       </c>
       <c r="BE105" t="n">
-        <v>12.79000000000001</v>
+        <v>7.910000000000005</v>
       </c>
       <c r="BF105" t="n">
         <v>279.75</v>
@@ -21336,7 +21336,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>800.6000000000001</v>
+        <v>314.7099999999991</v>
       </c>
       <c r="C106" t="n">
         <v>1400.39</v>
@@ -21345,7 +21345,7 @@
         <v>7.95</v>
       </c>
       <c r="E106" t="n">
-        <v>941.3600000000001</v>
+        <v>55.68999999999244</v>
       </c>
       <c r="F106" t="n">
         <v>1665.52</v>
@@ -21354,7 +21354,7 @@
         <v>9.359999999999999</v>
       </c>
       <c r="H106" t="n">
-        <v>6.130000000000001</v>
+        <v>0.2300000000000022</v>
       </c>
       <c r="I106" t="n">
         <v>11.16</v>
@@ -21399,7 +21399,7 @@
         <v>-1.34</v>
       </c>
       <c r="W106" t="n">
-        <v>65.91000000000001</v>
+        <v>7.089999999999968</v>
       </c>
       <c r="X106" t="n">
         <v>106.18</v>
@@ -21420,7 +21420,7 @@
         <v>651.97</v>
       </c>
       <c r="AD106" t="n">
-        <v>21.58</v>
+        <v>18.1299999999998</v>
       </c>
       <c r="AE106" t="n">
         <v>38.79</v>
@@ -21450,7 +21450,7 @@
         <v>3111.95</v>
       </c>
       <c r="AP106" t="n">
-        <v>30.05</v>
+        <v>7.04000000000006</v>
       </c>
       <c r="AQ106" t="n">
         <v>56.46</v>
@@ -21471,7 +21471,7 @@
         <v>3139.9</v>
       </c>
       <c r="AY106" t="n">
-        <v>7.079999999999998</v>
+        <v>6.679999999999992</v>
       </c>
       <c r="AZ106" t="n">
         <v>11.94</v>
@@ -21489,7 +21489,7 @@
         <v>5742.4</v>
       </c>
       <c r="BE106" t="n">
-        <v>21.98</v>
+        <v>0.05999999999998273</v>
       </c>
       <c r="BF106" t="n">
         <v>40.42</v>
@@ -21600,7 +21600,7 @@
         <v>-3.92</v>
       </c>
       <c r="W107" t="n">
-        <v>56.95999999999998</v>
+        <v>42.78000000000004</v>
       </c>
       <c r="X107" t="n">
         <v>177.68</v>
@@ -21621,7 +21621,7 @@
         <v>665.14</v>
       </c>
       <c r="AD107" t="n">
-        <v>21.55</v>
+        <v>2.220000000000031</v>
       </c>
       <c r="AE107" t="n">
         <v>62.38</v>
@@ -21651,7 +21651,7 @@
         <v>3181.98</v>
       </c>
       <c r="AP107" t="n">
-        <v>29.32000000000001</v>
+        <v>15.23999999999989</v>
       </c>
       <c r="AQ107" t="n">
         <v>87.56999999999999</v>
@@ -21690,7 +21690,7 @@
         <v>5810.59</v>
       </c>
       <c r="BE107" t="n">
-        <v>20.65000000000001</v>
+        <v>2.27000000000003</v>
       </c>
       <c r="BF107" t="n">
         <v>64.14</v>
@@ -21738,7 +21738,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>26.27000000000044</v>
+        <v>3.050000000000871</v>
       </c>
       <c r="C108" t="n">
         <v>3180.99</v>
@@ -21747,7 +21747,7 @@
         <v>8.880000000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>34.69000000000051</v>
+        <v>10.79000000000087</v>
       </c>
       <c r="F108" t="n">
         <v>3735.73</v>
@@ -21756,7 +21756,7 @@
         <v>8.92</v>
       </c>
       <c r="H108" t="n">
-        <v>6.029999999999998</v>
+        <v>5.349999999999998</v>
       </c>
       <c r="I108" t="n">
         <v>23.81</v>
@@ -21951,7 +21951,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>697.8899999999999</v>
+        <v>662.4699999999968</v>
       </c>
       <c r="C109" t="n">
         <v>4062.76</v>
@@ -21960,7 +21960,7 @@
         <v>7.71</v>
       </c>
       <c r="E109" t="n">
-        <v>835.1899999999996</v>
+        <v>768.1299999999965</v>
       </c>
       <c r="F109" t="n">
         <v>4752.7</v>
@@ -21978,7 +21978,7 @@
         <v>7.31</v>
       </c>
       <c r="K109" t="n">
-        <v>13.28</v>
+        <v>10.4</v>
       </c>
       <c r="L109" t="n">
         <v>19.07</v>
@@ -22014,7 +22014,7 @@
         <v>-4.68</v>
       </c>
       <c r="W109" t="n">
-        <v>10.16999999999996</v>
+        <v>1.599999999999911</v>
       </c>
       <c r="X109" t="n">
         <v>308.39</v>
@@ -22069,7 +22069,7 @@
         <v>3323.47</v>
       </c>
       <c r="AP109" t="n">
-        <v>23.80000000000001</v>
+        <v>16.56000000000013</v>
       </c>
       <c r="AQ109" t="n">
         <v>146.28</v>
@@ -22227,7 +22227,7 @@
         <v>-5.23</v>
       </c>
       <c r="W110" t="n">
-        <v>65.99000000000001</v>
+        <v>51.02000000000032</v>
       </c>
       <c r="X110" t="n">
         <v>367.97</v>
@@ -22248,7 +22248,7 @@
         <v>636.28</v>
       </c>
       <c r="AD110" t="n">
-        <v>22.5</v>
+        <v>19.34</v>
       </c>
       <c r="AE110" t="n">
         <v>131.17</v>
@@ -22325,7 +22325,7 @@
         <v>5721.26</v>
       </c>
       <c r="BE110" t="n">
-        <v>21.22</v>
+        <v>20.62</v>
       </c>
       <c r="BF110" t="n">
         <v>130.92</v>
@@ -22431,7 +22431,7 @@
         <v>255.82</v>
       </c>
       <c r="T111" t="n">
-        <v>3.060000000000002</v>
+        <v>1.250000000000004</v>
       </c>
       <c r="U111" t="n">
         <v>30.69</v>
@@ -22440,7 +22440,7 @@
         <v>-6</v>
       </c>
       <c r="W111" t="n">
-        <v>63.10999999999996</v>
+        <v>7.289999999999907</v>
       </c>
       <c r="X111" t="n">
         <v>430.59</v>
@@ -22461,7 +22461,7 @@
         <v>646.52</v>
       </c>
       <c r="AD111" t="n">
-        <v>20.45000000000002</v>
+        <v>0.3200000000000216</v>
       </c>
       <c r="AE111" t="n">
         <v>154.49</v>
@@ -22512,7 +22512,7 @@
         <v>3127.54</v>
       </c>
       <c r="AY111" t="n">
-        <v>5.090000000000003</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="AZ111" t="n">
         <v>40.44</v>
@@ -22578,7 +22578,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>36.19999999999891</v>
+        <v>14.54999999999836</v>
       </c>
       <c r="C112" t="n">
         <v>6414.04</v>
@@ -22587,7 +22587,7 @@
         <v>6.51</v>
       </c>
       <c r="E112" t="n">
-        <v>39.45999999999913</v>
+        <v>9.039999999999058</v>
       </c>
       <c r="F112" t="n">
         <v>7453.66</v>
@@ -22596,7 +22596,7 @@
         <v>5.07</v>
       </c>
       <c r="H112" t="n">
-        <v>0.1599999999999886</v>
+        <v>0.1199999999999362</v>
       </c>
       <c r="I112" t="n">
         <v>47.72</v>
@@ -22632,7 +22632,7 @@
         <v>258.56</v>
       </c>
       <c r="T112" t="n">
-        <v>2.11</v>
+        <v>0.8599999999999959</v>
       </c>
       <c r="U112" t="n">
         <v>35.04</v>
@@ -22692,7 +22692,7 @@
         <v>3302.71</v>
       </c>
       <c r="AP112" t="n">
-        <v>29.32000000000002</v>
+        <v>15.99999999999998</v>
       </c>
       <c r="AQ112" t="n">
         <v>233.55</v>
@@ -22713,7 +22713,7 @@
         <v>3174.1</v>
       </c>
       <c r="AY112" t="n">
-        <v>1.149999999999999</v>
+        <v>1.129999999999999</v>
       </c>
       <c r="AZ112" t="n">
         <v>46.1</v>
@@ -22779,7 +22779,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>796.0700000000006</v>
+        <v>716.2200000000066</v>
       </c>
       <c r="C113" t="n">
         <v>7292.36</v>
@@ -22788,7 +22788,7 @@
         <v>6.53</v>
       </c>
       <c r="E113" t="n">
-        <v>937.5600000000013</v>
+        <v>870.980000000005</v>
       </c>
       <c r="F113" t="n">
         <v>8477.129999999999</v>
@@ -22806,7 +22806,7 @@
         <v>5.26</v>
       </c>
       <c r="K113" t="n">
-        <v>1.010000000000002</v>
+        <v>0.5700000000000043</v>
       </c>
       <c r="L113" t="n">
         <v>26.42</v>
@@ -22833,7 +22833,7 @@
         <v>256.75</v>
       </c>
       <c r="T113" t="n">
-        <v>3.539999999999999</v>
+        <v>0.5700000000000032</v>
       </c>
       <c r="U113" t="n">
         <v>40.74</v>
@@ -22863,7 +22863,7 @@
         <v>646.08</v>
       </c>
       <c r="AD113" t="n">
-        <v>2.460000000000043</v>
+        <v>0.6400000000000849</v>
       </c>
       <c r="AE113" t="n">
         <v>194.81</v>
@@ -22893,7 +22893,7 @@
         <v>3344.09</v>
       </c>
       <c r="AP113" t="n">
-        <v>26.48000000000002</v>
+        <v>0.4900000000000126</v>
       </c>
       <c r="AQ113" t="n">
         <v>263.22</v>
@@ -22914,7 +22914,7 @@
         <v>3176.39</v>
       </c>
       <c r="AY113" t="n">
-        <v>5.129999999999995</v>
+        <v>0.5299999999999989</v>
       </c>
       <c r="AZ113" t="n">
         <v>53.67</v>
@@ -22932,7 +22932,7 @@
         <v>5904.2</v>
       </c>
       <c r="BE113" t="n">
-        <v>22.69</v>
+        <v>18.33</v>
       </c>
       <c r="BF113" t="n">
         <v>201.78</v>
@@ -22980,7 +22980,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>790.2599999999993</v>
+        <v>30.3899999999976</v>
       </c>
       <c r="C114" t="n">
         <v>8120.18</v>
@@ -22998,7 +22998,7 @@
         <v>5</v>
       </c>
       <c r="H114" t="n">
-        <v>1.780000000000001</v>
+        <v>1.419999999999989</v>
       </c>
       <c r="I114" t="n">
         <v>61.73</v>
@@ -23034,7 +23034,7 @@
         <v>263.56</v>
       </c>
       <c r="T114" t="n">
-        <v>0.6400000000000006</v>
+        <v>0.0699999999999974</v>
       </c>
       <c r="U114" t="n">
         <v>44.95</v>
@@ -23064,7 +23064,7 @@
         <v>658.54</v>
       </c>
       <c r="AD114" t="n">
-        <v>8.549999999999979</v>
+        <v>4.169999999999681</v>
       </c>
       <c r="AE114" t="n">
         <v>223.45</v>
@@ -23094,7 +23094,7 @@
         <v>3388.46</v>
       </c>
       <c r="AP114" t="n">
-        <v>11.27999999999997</v>
+        <v>10.29999999999995</v>
       </c>
       <c r="AQ114" t="n">
         <v>294.94</v>
@@ -23133,7 +23133,7 @@
         <v>6006.47</v>
       </c>
       <c r="BE114" t="n">
-        <v>22.59</v>
+        <v>0.9899999999999984</v>
       </c>
       <c r="BF114" t="n">
         <v>224.7</v>
@@ -23190,7 +23190,7 @@
         <v>6.32</v>
       </c>
       <c r="E115" t="n">
-        <v>37.21000000000095</v>
+        <v>17.57000000000335</v>
       </c>
       <c r="F115" t="n">
         <v>10455.52</v>
@@ -23199,7 +23199,7 @@
         <v>5</v>
       </c>
       <c r="H115" t="n">
-        <v>2.67</v>
+        <v>0.889999999999999</v>
       </c>
       <c r="I115" t="n">
         <v>70.75</v>
@@ -23208,7 +23208,7 @@
         <v>6.62</v>
       </c>
       <c r="K115" t="n">
-        <v>20.14</v>
+        <v>19.58</v>
       </c>
       <c r="L115" t="n">
         <v>27.12</v>
@@ -23235,7 +23235,7 @@
         <v>275.74</v>
       </c>
       <c r="T115" t="n">
-        <v>2.57</v>
+        <v>0.0099999999999969</v>
       </c>
       <c r="U115" t="n">
         <v>49.88</v>
@@ -23244,7 +23244,7 @@
         <v>2.63</v>
       </c>
       <c r="W115" t="n">
-        <v>12.69999999999993</v>
+        <v>3.48000000000013</v>
       </c>
       <c r="X115" t="n">
         <v>716.21</v>
@@ -23265,7 +23265,7 @@
         <v>680.21</v>
       </c>
       <c r="AD115" t="n">
-        <v>5.139999999999986</v>
+        <v>0.3300000000002203</v>
       </c>
       <c r="AE115" t="n">
         <v>253.59</v>
@@ -23316,7 +23316,7 @@
         <v>3272.05</v>
       </c>
       <c r="AY115" t="n">
-        <v>1.670000000000002</v>
+        <v>0.4099999999999946</v>
       </c>
       <c r="AZ115" t="n">
         <v>66.28</v>
@@ -23334,7 +23334,7 @@
         <v>6118.26</v>
       </c>
       <c r="BE115" t="n">
-        <v>10.29999999999999</v>
+        <v>8.319999999999993</v>
       </c>
       <c r="BF115" t="n">
         <v>250.48</v>
@@ -23382,7 +23382,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>495.1999999999996</v>
+        <v>452.8399999999954</v>
       </c>
       <c r="C116" t="n">
         <v>9841.16</v>
@@ -23391,7 +23391,7 @@
         <v>6.59</v>
       </c>
       <c r="E116" t="n">
-        <v>538.5500000000002</v>
+        <v>448.629999999989</v>
       </c>
       <c r="F116" t="n">
         <v>11513.89</v>
@@ -23400,7 +23400,7 @@
         <v>5.13</v>
       </c>
       <c r="H116" t="n">
-        <v>9.93</v>
+        <v>4.590000000000003</v>
       </c>
       <c r="I116" t="n">
         <v>80.65000000000001</v>
@@ -23436,7 +23436,7 @@
         <v>280.89</v>
       </c>
       <c r="T116" t="n">
-        <v>1.34</v>
+        <v>0.05000000000000204</v>
       </c>
       <c r="U116" t="n">
         <v>56.02</v>
@@ -23445,7 +23445,7 @@
         <v>1.21</v>
       </c>
       <c r="W116" t="n">
-        <v>9.820000000000064</v>
+        <v>1.730000000000034</v>
       </c>
       <c r="X116" t="n">
         <v>825.41</v>
@@ -23466,7 +23466,7 @@
         <v>664.17</v>
       </c>
       <c r="AD116" t="n">
-        <v>35.87</v>
+        <v>15.31000000000004</v>
       </c>
       <c r="AE116" t="n">
         <v>288.82</v>
@@ -23496,7 +23496,7 @@
         <v>3475.19</v>
       </c>
       <c r="AP116" t="n">
-        <v>11.24000000000001</v>
+        <v>3.480000000000005</v>
       </c>
       <c r="AQ116" t="n">
         <v>373.42</v>
@@ -23517,7 +23517,7 @@
         <v>3195.61</v>
       </c>
       <c r="AY116" t="n">
-        <v>2.66</v>
+        <v>0.170000000000009</v>
       </c>
       <c r="AZ116" t="n">
         <v>73.28</v>
@@ -23583,7 +23583,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>827.55</v>
+        <v>332.3500000000004</v>
       </c>
       <c r="C117" t="n">
         <v>1361.52</v>
@@ -23592,7 +23592,7 @@
         <v>5.05</v>
       </c>
       <c r="E117" t="n">
-        <v>968.9400000000001</v>
+        <v>430.3899999999999</v>
       </c>
       <c r="F117" t="n">
         <v>1583.29</v>
@@ -23601,7 +23601,7 @@
         <v>3.28</v>
       </c>
       <c r="H117" t="n">
-        <v>5.970000000000001</v>
+        <v>0.4899999999999984</v>
       </c>
       <c r="I117" t="n">
         <v>10.27</v>
@@ -23637,7 +23637,7 @@
         <v>264.2</v>
       </c>
       <c r="T117" t="n">
-        <v>4.609999999999999</v>
+        <v>0.5399999999999978</v>
       </c>
       <c r="U117" t="n">
         <v>8.34</v>
@@ -23646,7 +23646,7 @@
         <v>3.09</v>
       </c>
       <c r="W117" t="n">
-        <v>67.20999999999999</v>
+        <v>44.10999999999981</v>
       </c>
       <c r="X117" t="n">
         <v>106.77</v>
@@ -23667,7 +23667,7 @@
         <v>639.28</v>
       </c>
       <c r="AD117" t="n">
-        <v>22.43</v>
+        <v>1.979999999999968</v>
       </c>
       <c r="AE117" t="n">
         <v>36.66</v>
@@ -23697,7 +23697,7 @@
         <v>3304.28</v>
       </c>
       <c r="AP117" t="n">
-        <v>29.82</v>
+        <v>4.259999999999969</v>
       </c>
       <c r="AQ117" t="n">
         <v>52</v>
@@ -23718,7 +23718,7 @@
         <v>3047.29</v>
       </c>
       <c r="AY117" t="n">
-        <v>6.210000000000001</v>
+        <v>0.9900000000000013</v>
       </c>
       <c r="AZ117" t="n">
         <v>10.92</v>
@@ -23736,7 +23736,7 @@
         <v>5879.27</v>
       </c>
       <c r="BE117" t="n">
-        <v>23.24</v>
+        <v>5.029999999999973</v>
       </c>
       <c r="BF117" t="n">
         <v>38.24</v>
@@ -23784,7 +23784,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>646</v>
+        <v>313.6499999999996</v>
       </c>
       <c r="C118" t="n">
         <v>2192.9</v>
@@ -23793,7 +23793,7 @@
         <v>3.3</v>
       </c>
       <c r="E118" t="n">
-        <v>766.7999999999997</v>
+        <v>336.4099999999999</v>
       </c>
       <c r="F118" t="n">
         <v>2548.1</v>
@@ -23838,7 +23838,7 @@
         <v>276.7</v>
       </c>
       <c r="T118" t="n">
-        <v>3</v>
+        <v>0.4800000000000002</v>
       </c>
       <c r="U118" t="n">
         <v>13.9</v>
@@ -23847,7 +23847,7 @@
         <v>10.1</v>
       </c>
       <c r="W118" t="n">
-        <v>48.70000000000002</v>
+        <v>1.130000000000145</v>
       </c>
       <c r="X118" t="n">
         <v>171</v>
@@ -23898,7 +23898,7 @@
         <v>3371.8</v>
       </c>
       <c r="AP118" t="n">
-        <v>21.7</v>
+        <v>3.120000000000008</v>
       </c>
       <c r="AQ118" t="n">
         <v>81.2</v>
@@ -23919,7 +23919,7 @@
         <v>3120.5</v>
       </c>
       <c r="AY118" t="n">
-        <v>4</v>
+        <v>0.4499999999999988</v>
       </c>
       <c r="AZ118" t="n">
         <v>18.1</v>
@@ -23937,7 +23937,7 @@
         <v>5968.3</v>
       </c>
       <c r="BE118" t="n">
-        <v>17.7</v>
+        <v>0.5300000000000082</v>
       </c>
       <c r="BF118" t="n">
         <v>60.6</v>
@@ -24048,7 +24048,7 @@
         <v>6.5</v>
       </c>
       <c r="W119" t="n">
-        <v>13.39999999999996</v>
+        <v>12.26999999999981</v>
       </c>
       <c r="X119" t="n">
         <v>221.1</v>
@@ -24099,7 +24099,7 @@
         <v>3328.9</v>
       </c>
       <c r="AP119" t="n">
-        <v>4.70000000000001</v>
+        <v>1.580000000000002</v>
       </c>
       <c r="AQ119" t="n">
         <v>106.1</v>
@@ -24120,7 +24120,7 @@
         <v>3074.4</v>
       </c>
       <c r="AY119" t="n">
-        <v>0.8999999999999986</v>
+        <v>9.992007221626409e-16</v>
       </c>
       <c r="AZ119" t="n">
         <v>21.8</v>
@@ -24138,7 +24138,7 @@
         <v>5863.8</v>
       </c>
       <c r="BE119" t="n">
-        <v>2.199999999999992</v>
+        <v>1.139999999999976</v>
       </c>
       <c r="BF119" t="n">
         <v>80.2</v>
@@ -24204,7 +24204,7 @@
         <v>1.3</v>
       </c>
       <c r="H120" t="n">
-        <v>1.099999999999994</v>
+        <v>0.3999999999999895</v>
       </c>
       <c r="I120" t="n">
         <v>27.5</v>
@@ -24213,7 +24213,7 @@
         <v>3.3</v>
       </c>
       <c r="K120" t="n">
-        <v>0.2999999999999992</v>
+        <v>0.09999999999999538</v>
       </c>
       <c r="L120" t="n">
         <v>16.1</v>
@@ -24240,7 +24240,7 @@
         <v>269.6</v>
       </c>
       <c r="T120" t="n">
-        <v>1.400000000000003</v>
+        <v>5.329070518200751e-15</v>
       </c>
       <c r="U120" t="n">
         <v>20.6</v>
@@ -24300,7 +24300,7 @@
         <v>3362.4</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.699999999999982</v>
+        <v>1.11999999999998</v>
       </c>
       <c r="AQ120" t="n">
         <v>133.4</v>
@@ -24321,7 +24321,7 @@
         <v>3100.8</v>
       </c>
       <c r="AY120" t="n">
-        <v>1.900000000000002</v>
+        <v>0.1000000000000045</v>
       </c>
       <c r="AZ120" t="n">
         <v>27.1</v>
@@ -24339,7 +24339,7 @@
         <v>5940.3</v>
       </c>
       <c r="BE120" t="n">
-        <v>3.400000000000009</v>
+        <v>1.200000000000017</v>
       </c>
       <c r="BF120" t="n">
         <v>104.7</v>
@@ -24387,7 +24387,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2751.2</v>
+        <v>2500.400000000003</v>
       </c>
       <c r="C121" t="n">
         <v>4523.3</v>
@@ -24396,7 +24396,7 @@
         <v>2.3</v>
       </c>
       <c r="E121" t="n">
-        <v>3233.1</v>
+        <v>2918.700000000003</v>
       </c>
       <c r="F121" t="n">
         <v>5245.3</v>
@@ -24405,7 +24405,7 @@
         <v>1.4</v>
       </c>
       <c r="H121" t="n">
-        <v>23</v>
+        <v>20.70000000000004</v>
       </c>
       <c r="I121" t="n">
         <v>34.2</v>
@@ -24414,7 +24414,7 @@
         <v>2.4</v>
       </c>
       <c r="K121" t="n">
-        <v>14</v>
+        <v>13.3</v>
       </c>
       <c r="L121" t="n">
         <v>17.8</v>
@@ -24441,7 +24441,7 @@
         <v>271.3</v>
       </c>
       <c r="T121" t="n">
-        <v>14</v>
+        <v>11.9</v>
       </c>
       <c r="U121" t="n">
         <v>25.7</v>
@@ -24450,7 +24450,7 @@
         <v>4.9</v>
       </c>
       <c r="W121" t="n">
-        <v>204.9</v>
+        <v>197.3</v>
       </c>
       <c r="X121" t="n">
         <v>349</v>
@@ -24471,7 +24471,7 @@
         <v>643.8</v>
       </c>
       <c r="AD121" t="n">
-        <v>77.49999999999999</v>
+        <v>44.29999999999994</v>
       </c>
       <c r="AE121" t="n">
         <v>118.7</v>
@@ -24501,7 +24501,7 @@
         <v>3451.5</v>
       </c>
       <c r="AP121" t="n">
-        <v>118.7</v>
+        <v>107.9</v>
       </c>
       <c r="AQ121" t="n">
         <v>163.8</v>
@@ -24522,7 +24522,7 @@
         <v>3173.1</v>
       </c>
       <c r="AY121" t="n">
-        <v>18.5</v>
+        <v>15.39999999999998</v>
       </c>
       <c r="AZ121" t="n">
         <v>34.1</v>
@@ -24540,7 +24540,7 @@
         <v>6074.1</v>
       </c>
       <c r="BE121" t="n">
-        <v>96.2</v>
+        <v>89.19999999999995</v>
       </c>
       <c r="BF121" t="n">
         <v>130</v>
@@ -25008,7 +25008,7 @@
         <v>1.7</v>
       </c>
       <c r="H124" t="n">
-        <v>5</v>
+        <v>1.399999999999992</v>
       </c>
       <c r="I124" t="n">
         <v>39.7</v>
@@ -25044,7 +25044,7 @@
         <v>204.6</v>
       </c>
       <c r="T124" t="n">
-        <v>2.599999999999998</v>
+        <v>1.199999999999992</v>
       </c>
       <c r="U124" t="n">
         <v>29</v>
@@ -25053,7 +25053,7 @@
         <v>11.1</v>
       </c>
       <c r="W124" t="n">
-        <v>9.099999999999973</v>
+        <v>2.300000000000026</v>
       </c>
       <c r="X124" t="n">
         <v>362.5</v>
@@ -25125,7 +25125,7 @@
         <v>2776.3</v>
       </c>
       <c r="AY124" t="n">
-        <v>3.799999999999997</v>
+        <v>0.9999999999999911</v>
       </c>
       <c r="AZ124" t="n">
         <v>37.4</v>
@@ -25143,7 +25143,7 @@
         <v>4696.8</v>
       </c>
       <c r="BE124" t="n">
-        <v>18.19999999999999</v>
+        <v>17.80000000000003</v>
       </c>
       <c r="BF124" t="n">
         <v>173.6</v>
@@ -25191,7 +25191,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>572.3000000000002</v>
+        <v>567.5000000000045</v>
       </c>
       <c r="C125" t="n">
         <v>5358</v>
@@ -25254,7 +25254,7 @@
         <v>10.8</v>
       </c>
       <c r="W125" t="n">
-        <v>50</v>
+        <v>33.99999999999996</v>
       </c>
       <c r="X125" t="n">
         <v>415.2</v>
@@ -25401,7 +25401,7 @@
         <v>0.8</v>
       </c>
       <c r="E126" t="n">
-        <v>85.59999999999945</v>
+        <v>78.80000000000018</v>
       </c>
       <c r="F126" t="n">
         <v>6925.6</v>
@@ -25410,7 +25410,7 @@
         <v>0.6</v>
       </c>
       <c r="H126" t="n">
-        <v>1.400000000000006</v>
+        <v>0.6000000000000087</v>
       </c>
       <c r="I126" t="n">
         <v>50.9</v>
@@ -25419,7 +25419,7 @@
         <v>2</v>
       </c>
       <c r="K126" t="n">
-        <v>19.2</v>
+        <v>18.4</v>
       </c>
       <c r="L126" t="n">
         <v>20.8</v>
@@ -25446,7 +25446,7 @@
         <v>229.3</v>
       </c>
       <c r="T126" t="n">
-        <v>1.000000000000004</v>
+        <v>3.996802888650564e-15</v>
       </c>
       <c r="U126" t="n">
         <v>35.6</v>
@@ -25476,7 +25476,7 @@
         <v>490.3</v>
       </c>
       <c r="AD126" t="n">
-        <v>5.500000000000032</v>
+        <v>5.100000000000041</v>
       </c>
       <c r="AE126" t="n">
         <v>169.7</v>
@@ -25506,7 +25506,7 @@
         <v>3039.3</v>
       </c>
       <c r="AP126" t="n">
-        <v>7.099999999999991</v>
+        <v>0.7999999999999972</v>
       </c>
       <c r="AQ126" t="n">
         <v>251.3</v>
@@ -25593,7 +25593,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>246.2999999999998</v>
+        <v>55.7999999999998</v>
       </c>
       <c r="C127" t="n">
         <v>6545.5</v>
@@ -25602,7 +25602,7 @@
         <v>0.7</v>
       </c>
       <c r="E127" t="n">
-        <v>262.9000000000003</v>
+        <v>11.20000000000144</v>
       </c>
       <c r="F127" t="n">
         <v>7706.1</v>
@@ -25611,7 +25611,7 @@
         <v>0.7</v>
       </c>
       <c r="H127" t="n">
-        <v>7.2</v>
+        <v>3.999999999999969</v>
       </c>
       <c r="I127" t="n">
         <v>58.3</v>
@@ -25647,7 +25647,7 @@
         <v>241.5</v>
       </c>
       <c r="T127" t="n">
-        <v>1.299999999999999</v>
+        <v>0.2999999999999829</v>
       </c>
       <c r="U127" t="n">
         <v>41.3</v>
@@ -25656,7 +25656,7 @@
         <v>11.9</v>
       </c>
       <c r="W127" t="n">
-        <v>66.8</v>
+        <v>13.60000000000006</v>
       </c>
       <c r="X127" t="n">
         <v>538</v>
@@ -25677,7 +25677,7 @@
         <v>493.9</v>
       </c>
       <c r="AD127" t="n">
-        <v>23.4</v>
+        <v>1.999999999999865</v>
       </c>
       <c r="AE127" t="n">
         <v>195.4</v>
@@ -25707,7 +25707,7 @@
         <v>3052.1</v>
       </c>
       <c r="AP127" t="n">
-        <v>4.5</v>
+        <v>0.8000000000000078</v>
       </c>
       <c r="AQ127" t="n">
         <v>290.4</v>
@@ -25728,7 +25728,7 @@
         <v>2887.3</v>
       </c>
       <c r="AY127" t="n">
-        <v>2.599999999999994</v>
+        <v>0.5999999999999659</v>
       </c>
       <c r="AZ127" t="n">
         <v>52.7</v>
@@ -25746,7 +25746,7 @@
         <v>4936.1</v>
       </c>
       <c r="BE127" t="n">
-        <v>5.79999999999999</v>
+        <v>1.199999999999968</v>
       </c>
       <c r="BF127" t="n">
         <v>250.8</v>
@@ -25794,7 +25794,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>528.1999999999999</v>
+        <v>43.30000000000048</v>
       </c>
       <c r="C128" t="n">
         <v>888.3</v>
@@ -25803,7 +25803,7 @@
         <v>0.7</v>
       </c>
       <c r="E128" t="n">
-        <v>616.8</v>
+        <v>71.99999999999599</v>
       </c>
       <c r="F128" t="n">
         <v>1042.3</v>
@@ -25848,7 +25848,7 @@
         <v>218.7</v>
       </c>
       <c r="T128" t="n">
-        <v>4.199999999999999</v>
+        <v>2.000000000000027</v>
       </c>
       <c r="U128" t="n">
         <v>6.9</v>
@@ -25857,7 +25857,7 @@
         <v>16.9</v>
       </c>
       <c r="W128" t="n">
-        <v>40.90000000000001</v>
+        <v>0.6999999999999815</v>
       </c>
       <c r="X128" t="n">
         <v>66.8</v>
@@ -25878,7 +25878,7 @@
         <v>462.9</v>
       </c>
       <c r="AD128" t="n">
-        <v>13.4</v>
+        <v>0.9000000000000608</v>
       </c>
       <c r="AE128" t="n">
         <v>23.9</v>
@@ -25908,7 +25908,7 @@
         <v>2963.9</v>
       </c>
       <c r="AP128" t="n">
-        <v>19.9</v>
+        <v>4.799999999999995</v>
       </c>
       <c r="AQ128" t="n">
         <v>39.9</v>
@@ -25929,7 +25929,7 @@
         <v>2824</v>
       </c>
       <c r="AY128" t="n">
-        <v>5</v>
+        <v>0.3000000000000189</v>
       </c>
       <c r="AZ128" t="n">
         <v>8.300000000000001</v>
@@ -25947,7 +25947,7 @@
         <v>4701.3</v>
       </c>
       <c r="BE128" t="n">
-        <v>16.8</v>
+        <v>5.100000000000096</v>
       </c>
       <c r="BF128" t="n">
         <v>30.1</v>
@@ -25995,7 +25995,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>513.2</v>
+        <v>33.09999999999943</v>
       </c>
       <c r="C129" t="n">
         <v>1398.4</v>
@@ -26004,7 +26004,7 @@
         <v>-0.8</v>
       </c>
       <c r="E129" t="n">
-        <v>598.5</v>
+        <v>68.00000000000171</v>
       </c>
       <c r="F129" t="n">
         <v>1640.4</v>
@@ -26058,7 +26058,7 @@
         <v>3</v>
       </c>
       <c r="W129" t="n">
-        <v>38.7</v>
+        <v>37.30000000000004</v>
       </c>
       <c r="X129" t="n">
         <v>106.3</v>
@@ -26079,7 +26079,7 @@
         <v>463.8</v>
       </c>
       <c r="AD129" t="n">
-        <v>2.1</v>
+        <v>1.199999999999939</v>
       </c>
       <c r="AE129" t="n">
         <v>38</v>
@@ -26130,7 +26130,7 @@
         <v>2986.2</v>
       </c>
       <c r="AY129" t="n">
-        <v>2.800000000000001</v>
+        <v>0.09999999999997611</v>
       </c>
       <c r="AZ129" t="n">
         <v>12.1</v>
@@ -26280,7 +26280,7 @@
         <v>465.8</v>
       </c>
       <c r="AD130" t="n">
-        <v>13.3</v>
+        <v>4.9</v>
       </c>
       <c r="AE130" t="n">
         <v>51</v>
@@ -26310,7 +26310,7 @@
         <v>3156.8</v>
       </c>
       <c r="AP130" t="n">
-        <v>21.09999999999999</v>
+        <v>12.29999999999999</v>
       </c>
       <c r="AQ130" t="n">
         <v>82.8</v>
@@ -26331,7 +26331,7 @@
         <v>3086.4</v>
       </c>
       <c r="AY130" t="n">
-        <v>1.099999999999998</v>
+        <v>0.600000000000027</v>
       </c>
       <c r="AZ130" t="n">
         <v>15.9</v>
@@ -26349,7 +26349,7 @@
         <v>5010.9</v>
       </c>
       <c r="BE130" t="n">
-        <v>2.100000000000001</v>
+        <v>0.9000000000000019</v>
       </c>
       <c r="BF130" t="n">
         <v>65.90000000000001</v>
@@ -26397,7 +26397,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>56.70000000000027</v>
+        <v>17.7000000000005</v>
       </c>
       <c r="C131" t="n">
         <v>2439.8</v>
@@ -26406,7 +26406,7 @@
         <v>-1.5</v>
       </c>
       <c r="E131" t="n">
-        <v>64.39999999999964</v>
+        <v>19.59999999999945</v>
       </c>
       <c r="F131" t="n">
         <v>2845.7</v>
@@ -26415,7 +26415,7 @@
         <v>-1.5</v>
       </c>
       <c r="H131" t="n">
-        <v>0.5999999999999979</v>
+        <v>0.2999999999999972</v>
       </c>
       <c r="I131" t="n">
         <v>20.5</v>
@@ -26460,7 +26460,7 @@
         <v>11.5</v>
       </c>
       <c r="W131" t="n">
-        <v>5.199999999999989</v>
+        <v>1.899999999999991</v>
       </c>
       <c r="X131" t="n">
         <v>192.6</v>
@@ -26532,7 +26532,7 @@
         <v>3127.2</v>
       </c>
       <c r="AY131" t="n">
-        <v>1.8</v>
+        <v>0.700000000000002</v>
       </c>
       <c r="AZ131" t="n">
         <v>19.9</v>
@@ -26598,7 +26598,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>409.8000000000002</v>
+        <v>299.9999999999984</v>
       </c>
       <c r="C132" t="n">
         <v>3030.2</v>
@@ -26607,7 +26607,7 @@
         <v>-1.8</v>
       </c>
       <c r="E132" t="n">
-        <v>485.0999999999999</v>
+        <v>361.900000000002</v>
       </c>
       <c r="F132" t="n">
         <v>3527.2</v>
@@ -26616,7 +26616,7 @@
         <v>-2</v>
       </c>
       <c r="H132" t="n">
-        <v>2.100000000000001</v>
+        <v>0.6000000000000116</v>
       </c>
       <c r="I132" t="n">
         <v>25.6</v>
@@ -26652,7 +26652,7 @@
         <v>205.2</v>
       </c>
       <c r="T132" t="n">
-        <v>1.299999999999997</v>
+        <v>0.499999999999994</v>
       </c>
       <c r="U132" t="n">
         <v>21.3</v>
@@ -26661,7 +26661,7 @@
         <v>8.699999999999999</v>
       </c>
       <c r="W132" t="n">
-        <v>27.79999999999998</v>
+        <v>16.90000000000002</v>
       </c>
       <c r="X132" t="n">
         <v>235.3</v>
@@ -26682,7 +26682,7 @@
         <v>463.6</v>
       </c>
       <c r="AD132" t="n">
-        <v>12.60000000000001</v>
+        <v>3.800000000000012</v>
       </c>
       <c r="AE132" t="n">
         <v>79.7</v>
@@ -26712,7 +26712,7 @@
         <v>3231.3</v>
       </c>
       <c r="AP132" t="n">
-        <v>18.80000000000001</v>
+        <v>9.599999999999932</v>
       </c>
       <c r="AQ132" t="n">
         <v>128.3</v>
@@ -26733,7 +26733,7 @@
         <v>3189.9</v>
       </c>
       <c r="AY132" t="n">
-        <v>2.600000000000001</v>
+        <v>0.09999999999999898</v>
       </c>
       <c r="AZ132" t="n">
         <v>24.1</v>
@@ -26751,7 +26751,7 @@
         <v>5138.7</v>
       </c>
       <c r="BE132" t="n">
-        <v>20.3</v>
+        <v>16.7</v>
       </c>
       <c r="BF132" t="n">
         <v>101.1</v>
@@ -26817,7 +26817,7 @@
         <v>-2.5</v>
       </c>
       <c r="H133" t="n">
-        <v>4</v>
+        <v>0.3999999999999959</v>
       </c>
       <c r="I133" t="n">
         <v>29.2</v>
@@ -26826,7 +26826,7 @@
         <v>-8.5</v>
       </c>
       <c r="K133" t="n">
-        <v>0.7000000000000002</v>
+        <v>0.09999999999999781</v>
       </c>
       <c r="L133" t="n">
         <v>14.9</v>
@@ -26853,7 +26853,7 @@
         <v>202.1</v>
       </c>
       <c r="T133" t="n">
-        <v>1.600000000000005</v>
+        <v>0.300000000000008</v>
       </c>
       <c r="U133" t="n">
         <v>23.3</v>
@@ -26934,7 +26934,7 @@
         <v>3118.2</v>
       </c>
       <c r="AY133" t="n">
-        <v>1.299999999999998</v>
+        <v>0.2999999999999991</v>
       </c>
       <c r="AZ133" t="n">
         <v>28.3</v>
@@ -27018,7 +27018,7 @@
         <v>-2.4</v>
       </c>
       <c r="H134" t="n">
-        <v>1.899999999999999</v>
+        <v>1.100000000000007</v>
       </c>
       <c r="I134" t="n">
         <v>33.8</v>
@@ -27027,7 +27027,7 @@
         <v>-5.8</v>
       </c>
       <c r="K134" t="n">
-        <v>1.5</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="L134" t="n">
         <v>15.1</v>
@@ -27063,7 +27063,7 @@
         <v>28.2</v>
       </c>
       <c r="W134" t="n">
-        <v>12.5</v>
+        <v>3.499999999999968</v>
       </c>
       <c r="X134" t="n">
         <v>299.2</v>
@@ -27135,7 +27135,7 @@
         <v>3203</v>
       </c>
       <c r="AY134" t="n">
-        <v>3.600000000000001</v>
+        <v>0.1000000000000099</v>
       </c>
       <c r="AZ134" t="n">
         <v>32.1</v>
@@ -27219,7 +27219,7 @@
         <v>-2.7</v>
       </c>
       <c r="H135" t="n">
-        <v>3.000000000000007</v>
+        <v>1.100000000000008</v>
       </c>
       <c r="I135" t="n">
         <v>38.5</v>
@@ -27228,7 +27228,7 @@
         <v>1.9</v>
       </c>
       <c r="K135" t="n">
-        <v>0.6999999999999993</v>
+        <v>0.3999999999999971</v>
       </c>
       <c r="L135" t="n">
         <v>16.2</v>
@@ -27255,7 +27255,7 @@
         <v>239.4</v>
       </c>
       <c r="T135" t="n">
-        <v>2.800000000000001</v>
+        <v>2.000000000000017</v>
       </c>
       <c r="U135" t="n">
         <v>33.6</v>
@@ -27264,7 +27264,7 @@
         <v>24.9</v>
       </c>
       <c r="W135" t="n">
-        <v>3.699999999999989</v>
+        <v>0.200000000000021</v>
       </c>
       <c r="X135" t="n">
         <v>344.2</v>
@@ -27336,7 +27336,7 @@
         <v>3170.5</v>
       </c>
       <c r="AY135" t="n">
-        <v>1.899999999999999</v>
+        <v>0.3999999999999859</v>
       </c>
       <c r="AZ135" t="n">
         <v>35.2</v>
@@ -27402,7 +27402,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>542.2000000000007</v>
+        <v>522.2000000000044</v>
       </c>
       <c r="C136" t="n">
         <v>4895.3</v>
@@ -27411,7 +27411,7 @@
         <v>-3.9</v>
       </c>
       <c r="E136" t="n">
-        <v>642.8999999999996</v>
+        <v>594.1000000000004</v>
       </c>
       <c r="F136" t="n">
         <v>5766.9</v>
@@ -27420,7 +27420,7 @@
         <v>-3.4</v>
       </c>
       <c r="H136" t="n">
-        <v>1.199999999999989</v>
+        <v>0.09999999999998099</v>
       </c>
       <c r="I136" t="n">
         <v>43.2</v>
@@ -27429,7 +27429,7 @@
         <v>1.2</v>
       </c>
       <c r="K136" t="n">
-        <v>16.7</v>
+        <v>14.2</v>
       </c>
       <c r="L136" t="n">
         <v>17.3</v>
@@ -27465,7 +27465,7 @@
         <v>23.6</v>
       </c>
       <c r="W136" t="n">
-        <v>0.8000000000000114</v>
+        <v>0.3999999999999693</v>
       </c>
       <c r="X136" t="n">
         <v>395.3</v>
@@ -27486,7 +27486,7 @@
         <v>468.3</v>
       </c>
       <c r="AD136" t="n">
-        <v>5</v>
+        <v>3.799999999999997</v>
       </c>
       <c r="AE136" t="n">
         <v>133</v>
@@ -27516,7 +27516,7 @@
         <v>3317.6</v>
       </c>
       <c r="AP136" t="n">
-        <v>2.400000000000002</v>
+        <v>1.19999999999993</v>
       </c>
       <c r="AQ136" t="n">
         <v>224</v>
@@ -27537,7 +27537,7 @@
         <v>3224.8</v>
       </c>
       <c r="AY136" t="n">
-        <v>4.299999999999997</v>
+        <v>0.4999999999999991</v>
       </c>
       <c r="AZ136" t="n">
         <v>39.4</v>
@@ -27555,7 +27555,7 @@
         <v>5259.3</v>
       </c>
       <c r="BE136" t="n">
-        <v>14.90000000000001</v>
+        <v>14.50000000000005</v>
       </c>
       <c r="BF136" t="n">
         <v>200.1</v>
@@ -27621,7 +27621,7 @@
         <v>-3.6</v>
       </c>
       <c r="H137" t="n">
-        <v>1.100000000000009</v>
+        <v>0.900000000000047</v>
       </c>
       <c r="I137" t="n">
         <v>48.3</v>
@@ -27657,7 +27657,7 @@
         <v>242</v>
       </c>
       <c r="T137" t="n">
-        <v>1.7</v>
+        <v>0.8000000000000023</v>
       </c>
       <c r="U137" t="n">
         <v>40.9</v>
@@ -27666,7 +27666,7 @@
         <v>22.5</v>
       </c>
       <c r="W137" t="n">
-        <v>11.5</v>
+        <v>8.499999999999977</v>
       </c>
       <c r="X137" t="n">
         <v>447.4</v>
@@ -27717,7 +27717,7 @@
         <v>3370.4</v>
       </c>
       <c r="AP137" t="n">
-        <v>10.79999999999996</v>
+        <v>3.00000000000006</v>
       </c>
       <c r="AQ137" t="n">
         <v>247.6</v>
@@ -27738,7 +27738,7 @@
         <v>3235.8</v>
       </c>
       <c r="AY137" t="n">
-        <v>0.6000000000000085</v>
+        <v>0.1000000000000094</v>
       </c>
       <c r="AZ137" t="n">
         <v>45.4</v>
@@ -27756,7 +27756,7 @@
         <v>5303.1</v>
       </c>
       <c r="BE137" t="n">
-        <v>25.19999999999998</v>
+        <v>10.29999999999997</v>
       </c>
       <c r="BF137" t="n">
         <v>217.9</v>
@@ -27804,7 +27804,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>209.8000000000008</v>
+        <v>61.60000000000375</v>
       </c>
       <c r="C138" t="n">
         <v>5870.1</v>
@@ -27813,7 +27813,7 @@
         <v>-6.1</v>
       </c>
       <c r="E138" t="n">
-        <v>211.5000000000002</v>
+        <v>93.7</v>
       </c>
       <c r="F138" t="n">
         <v>6947.5</v>
@@ -27829,7 +27829,7 @@
         <v>-3.6</v>
       </c>
       <c r="K138" t="n">
-        <v>3.799999999999999</v>
+        <v>0.699999999999998</v>
       </c>
       <c r="L138" t="n">
         <v>18.3</v>
@@ -27856,7 +27856,7 @@
         <v>252.9</v>
       </c>
       <c r="T138" t="n">
-        <v>1.000000000000002</v>
+        <v>0.1999999999999997</v>
       </c>
       <c r="U138" t="n">
         <v>46.6</v>
@@ -27865,7 +27865,7 @@
         <v>20.1</v>
       </c>
       <c r="W138" t="n">
-        <v>63.8</v>
+        <v>22.60000000000007</v>
       </c>
       <c r="X138" t="n">
         <v>507.5</v>
@@ -27935,7 +27935,7 @@
         <v>3030.3</v>
       </c>
       <c r="AY138" t="n">
-        <v>2.799999999999994</v>
+        <v>0.8999999999999591</v>
       </c>
       <c r="AZ138" t="n">
         <v>51.1</v>
@@ -27953,7 +27953,7 @@
         <v>5141.4</v>
       </c>
       <c r="BE138" t="n">
-        <v>29.1</v>
+        <v>3.90000000000002</v>
       </c>
       <c r="BF138" t="n">
         <v>239</v>
@@ -28001,7 +28001,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>476.4999999999999</v>
+        <v>7.799999999989289</v>
       </c>
       <c r="C139" t="n">
         <v>795.8</v>
@@ -28010,7 +28010,7 @@
         <v>-3.7</v>
       </c>
       <c r="E139" t="n">
-        <v>559.8999999999999</v>
+        <v>67.2999999999996</v>
       </c>
       <c r="F139" t="n">
         <v>939</v>
@@ -28022,7 +28022,7 @@
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>1.6</v>
+        <v>0.2000000000000042</v>
       </c>
       <c r="L139" t="n">
         <v>6</v>
@@ -28049,7 +28049,7 @@
         <v>239.1</v>
       </c>
       <c r="T139" t="n">
-        <v>3.199999999999999</v>
+        <v>0.7999999999999956</v>
       </c>
       <c r="U139" t="n">
         <v>7.2</v>
@@ -28058,7 +28058,7 @@
         <v>12.5</v>
       </c>
       <c r="W139" t="n">
-        <v>37</v>
+        <v>5.299999999999969</v>
       </c>
       <c r="X139" t="n">
         <v>63.6</v>
@@ -28103,7 +28103,7 @@
         <v>3045.4</v>
       </c>
       <c r="AP139" t="n">
-        <v>21.2</v>
+        <v>20.79999999999988</v>
       </c>
       <c r="AQ139" t="n">
         <v>41.2</v>
@@ -28124,7 +28124,7 @@
         <v>2934.8</v>
       </c>
       <c r="AY139" t="n">
-        <v>3.499999999999999</v>
+        <v>0.7000000000000051</v>
       </c>
       <c r="AZ139" t="n">
         <v>7.8</v>
@@ -28142,7 +28142,7 @@
         <v>4779.2</v>
       </c>
       <c r="BE139" t="n">
-        <v>17.5</v>
+        <v>5.79999999999994</v>
       </c>
       <c r="BF139" t="n">
         <v>29.3</v>
@@ -28186,7 +28186,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>474</v>
+        <v>6.900000000011062</v>
       </c>
       <c r="C140" t="n">
         <v>1264.8</v>
@@ -28195,7 +28195,7 @@
         <v>-2.9</v>
       </c>
       <c r="E140" t="n">
-        <v>553.5999999999999</v>
+        <v>44.2000000000007</v>
       </c>
       <c r="F140" t="n">
         <v>1492.9</v>
@@ -28207,7 +28207,7 @@
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>0.8000000000000007</v>
+        <v>0.5999999999999965</v>
       </c>
       <c r="L140" t="n">
         <v>8</v>
@@ -28234,7 +28234,7 @@
         <v>237</v>
       </c>
       <c r="T140" t="n">
-        <v>3.1</v>
+        <v>0.900000000000003</v>
       </c>
       <c r="U140" t="n">
         <v>11.2</v>
@@ -28327,7 +28327,7 @@
         <v>4880.7</v>
       </c>
       <c r="BE140" t="n">
-        <v>17.3</v>
+        <v>3.700000000000021</v>
       </c>
       <c r="BF140" t="n">
         <v>50.3</v>
@@ -28371,7 +28371,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>441.9000000000001</v>
+        <v>158.2999999999951</v>
       </c>
       <c r="C141" t="n">
         <v>1727.8</v>
@@ -28380,7 +28380,7 @@
         <v>-2.7</v>
       </c>
       <c r="E141" t="n">
-        <v>512.7000000000003</v>
+        <v>102.2999999999997</v>
       </c>
       <c r="F141" t="n">
         <v>2041.1</v>
@@ -28494,7 +28494,7 @@
         <v>2985.6</v>
       </c>
       <c r="AY141" t="n">
-        <v>3.399999999999999</v>
+        <v>2.999999999999991</v>
       </c>
       <c r="AZ141" t="n">
         <v>14.2</v>
@@ -28512,7 +28512,7 @@
         <v>4880.4</v>
       </c>
       <c r="BE141" t="n">
-        <v>15.9</v>
+        <v>12.19999999999998</v>
       </c>
       <c r="BF141" t="n">
         <v>70.2</v>
@@ -28577,7 +28577,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>1.1</v>
+        <v>0.3000000000000029</v>
       </c>
       <c r="L142" t="n">
         <v>9.5</v>
@@ -28613,7 +28613,7 @@
         <v>17.9</v>
       </c>
       <c r="W142" t="n">
-        <v>40.5</v>
+        <v>5.700000000000079</v>
       </c>
       <c r="X142" t="n">
         <v>177.8</v>
@@ -28658,7 +28658,7 @@
         <v>3120.7</v>
       </c>
       <c r="AP142" t="n">
-        <v>0.8999999999999915</v>
+        <v>0.09999999999999432</v>
       </c>
       <c r="AQ142" t="n">
         <v>108.6</v>
@@ -28741,7 +28741,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>472.5</v>
+        <v>157.3000000000011</v>
       </c>
       <c r="C143" t="n">
         <v>2768.9</v>
@@ -28750,7 +28750,7 @@
         <v>1.1</v>
       </c>
       <c r="E143" t="n">
-        <v>553.8000000000002</v>
+        <v>184.2000000000016</v>
       </c>
       <c r="F143" t="n">
         <v>3257.6</v>
@@ -28762,7 +28762,7 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>0.7999999999999989</v>
+        <v>0.09999999999999742</v>
       </c>
       <c r="L143" t="n">
         <v>10.9</v>
@@ -28789,7 +28789,7 @@
         <v>228</v>
       </c>
       <c r="T143" t="n">
-        <v>3.099999999999998</v>
+        <v>2.699999999999994</v>
       </c>
       <c r="U143" t="n">
         <v>24.2</v>
@@ -28798,7 +28798,7 @@
         <v>22.2</v>
       </c>
       <c r="W143" t="n">
-        <v>34.60000000000002</v>
+        <v>2.800000000000004</v>
       </c>
       <c r="X143" t="n">
         <v>219.5</v>
@@ -28843,7 +28843,7 @@
         <v>3127.6</v>
       </c>
       <c r="AP143" t="n">
-        <v>20.80000000000001</v>
+        <v>18.40000000000004</v>
       </c>
       <c r="AQ143" t="n">
         <v>131.4</v>
@@ -28864,7 +28864,7 @@
         <v>2974</v>
       </c>
       <c r="AY143" t="n">
-        <v>1.299999999999997</v>
+        <v>0.2999999999999907</v>
       </c>
       <c r="AZ143" t="n">
         <v>23.2</v>
@@ -28882,7 +28882,7 @@
         <v>4937.6</v>
       </c>
       <c r="BE143" t="n">
-        <v>3.300000000000001</v>
+        <v>2.100000000000005</v>
       </c>
       <c r="BF143" t="n">
         <v>109.2</v>
@@ -28926,7 +28926,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>450.2000000000003</v>
+        <v>56.5</v>
       </c>
       <c r="C144" t="n">
         <v>3238</v>
@@ -28947,7 +28947,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>0.2000000000000011</v>
+        <v>0.1000000000000037</v>
       </c>
       <c r="L144" t="n">
         <v>12.1</v>
@@ -28974,7 +28974,7 @@
         <v>269.6</v>
       </c>
       <c r="T144" t="n">
-        <v>3.900000000000002</v>
+        <v>0.8000000000000043</v>
       </c>
       <c r="U144" t="n">
         <v>29.6</v>
@@ -29049,7 +29049,7 @@
         <v>3464.3</v>
       </c>
       <c r="AY144" t="n">
-        <v>3.699999999999999</v>
+        <v>1.000000000000026</v>
       </c>
       <c r="AZ144" t="n">
         <v>28.7</v>
@@ -29067,7 +29067,7 @@
         <v>5445.2</v>
       </c>
       <c r="BE144" t="n">
-        <v>17</v>
+        <v>5.599999999999992</v>
       </c>
       <c r="BF144" t="n">
         <v>127.6</v>
@@ -29120,7 +29120,7 @@
         <v>1.4</v>
       </c>
       <c r="E145" t="n">
-        <v>28.30000000000109</v>
+        <v>15.10000000000401</v>
       </c>
       <c r="F145" t="n">
         <v>4366.6</v>
@@ -29132,7 +29132,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>0.5999999999999979</v>
+        <v>0.1999999999999957</v>
       </c>
       <c r="L145" t="n">
         <v>13.3</v>
@@ -29159,7 +29159,7 @@
         <v>269.4</v>
       </c>
       <c r="T145" t="n">
-        <v>2.999999999999901</v>
+        <v>0.5999999999998888</v>
       </c>
       <c r="U145" t="n">
         <v>34.8</v>
@@ -29168,7 +29168,7 @@
         <v>16.4</v>
       </c>
       <c r="W145" t="n">
-        <v>8.800000000000075</v>
+        <v>6.000000000000377</v>
       </c>
       <c r="X145" t="n">
         <v>287.4</v>
@@ -29213,7 +29213,7 @@
         <v>3326.2</v>
       </c>
       <c r="AP145" t="n">
-        <v>22.09999999999999</v>
+        <v>1.70000000000001</v>
       </c>
       <c r="AQ145" t="n">
         <v>183.1</v>
@@ -29234,7 +29234,7 @@
         <v>3513.1</v>
       </c>
       <c r="AY145" t="n">
-        <v>2.799999999999898</v>
+        <v>0.399999999999896</v>
       </c>
       <c r="AZ145" t="n">
         <v>32.5</v>
@@ -29252,7 +29252,7 @@
         <v>5538.6</v>
       </c>
       <c r="BE145" t="n">
-        <v>21.69999999999999</v>
+        <v>4.699999999999989</v>
       </c>
       <c r="BF145" t="n">
         <v>142.7</v>
@@ -29296,7 +29296,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>482.00000000001</v>
+        <v>300.8000000000532</v>
       </c>
       <c r="C146" t="n">
         <v>4185.1</v>
@@ -29305,7 +29305,7 @@
         <v>0.7</v>
       </c>
       <c r="E146" t="n">
-        <v>583.8000000000002</v>
+        <v>490.3999999999915</v>
       </c>
       <c r="F146" t="n">
         <v>4923.4</v>
@@ -29317,7 +29317,7 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>0.7000000000000011</v>
+        <v>0.1000000000000032</v>
       </c>
       <c r="L146" t="n">
         <v>14.3</v>
@@ -29419,7 +29419,7 @@
         <v>3538.8</v>
       </c>
       <c r="AY146" t="n">
-        <v>1.800000000000103</v>
+        <v>1.000000000000311</v>
       </c>
       <c r="AZ146" t="n">
         <v>36.5</v>
@@ -29437,7 +29437,7 @@
         <v>5610.8</v>
       </c>
       <c r="BE146" t="n">
-        <v>21.30000000000001</v>
+        <v>7.200000000000042</v>
       </c>
       <c r="BF146" t="n">
         <v>165.7</v>
@@ -29502,7 +29502,7 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>1.100000000000001</v>
+        <v>0.09999999999999029</v>
       </c>
       <c r="L147" t="n">
         <v>15.1</v>
@@ -29529,7 +29529,7 @@
         <v>272.899999999999</v>
       </c>
       <c r="T147" t="n">
-        <v>0.7000000000001023</v>
+        <v>0.2000000000000033</v>
       </c>
       <c r="U147" t="n">
         <v>44</v>
@@ -29583,7 +29583,7 @@
         <v>3359.9</v>
       </c>
       <c r="AP147" t="n">
-        <v>0.7000000000020101</v>
+        <v>0.2000000000030013</v>
       </c>
       <c r="AQ147" t="n">
         <v>229.7</v>
@@ -29622,7 +29622,7 @@
         <v>5707.8</v>
       </c>
       <c r="BE147" t="n">
-        <v>17.69999999999999</v>
+        <v>1.099999999999969</v>
       </c>
       <c r="BF147" t="n">
         <v>187.5</v>
@@ -29666,7 +29666,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>506.6000000000004</v>
+        <v>402.2000000000388</v>
       </c>
       <c r="C148" t="n">
         <v>5137.2</v>
@@ -29687,7 +29687,7 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>0.5</v>
+        <v>0.1000000000000001</v>
       </c>
       <c r="L148" t="n">
         <v>15.7</v>
@@ -29714,7 +29714,7 @@
         <v>281.9</v>
       </c>
       <c r="T148" t="n">
-        <v>1.399999999999899</v>
+        <v>0.09999999999978693</v>
       </c>
       <c r="U148" t="n">
         <v>49.5</v>
@@ -29723,7 +29723,7 @@
         <v>21.9</v>
       </c>
       <c r="W148" t="n">
-        <v>10.20000000000004</v>
+        <v>9.000000000000194</v>
       </c>
       <c r="X148" t="n">
         <v>420.6</v>
@@ -29768,7 +29768,7 @@
         <v>2976.7</v>
       </c>
       <c r="AP148" t="n">
-        <v>4.399999999999011</v>
+        <v>3.099999999987997</v>
       </c>
       <c r="AQ148" t="n">
         <v>258.3</v>
@@ -29789,7 +29789,7 @@
         <v>3400.5</v>
       </c>
       <c r="AY148" t="n">
-        <v>5.800000000000004</v>
+        <v>0.199999999999616</v>
       </c>
       <c r="AZ148" t="n">
         <v>45.6</v>
@@ -29807,7 +29807,7 @@
         <v>5563.9</v>
       </c>
       <c r="BE148" t="n">
-        <v>3.700000000000021</v>
+        <v>2.600000000000052</v>
       </c>
       <c r="BF148" t="n">
         <v>205.3</v>
@@ -29860,7 +29860,7 @@
         <v>-0.6</v>
       </c>
       <c r="E149" t="n">
-        <v>285.7000000000005</v>
+        <v>231.3000000000025</v>
       </c>
       <c r="F149" t="n">
         <v>6670.8</v>
@@ -29872,7 +29872,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="L149" t="n">
         <v>16.3</v>
@@ -29899,7 +29899,7 @@
         <v>295</v>
       </c>
       <c r="T149" t="n">
-        <v>1.599999999999999</v>
+        <v>0.2000000000000999</v>
       </c>
       <c r="U149" t="n">
         <v>54.6</v>
@@ -29953,7 +29953,7 @@
         <v>3057.1</v>
       </c>
       <c r="AP149" t="n">
-        <v>11.89999999999998</v>
+        <v>0.3000000000099701</v>
       </c>
       <c r="AQ149" t="n">
         <v>295.9</v>
@@ -29974,7 +29974,7 @@
         <v>3469.9</v>
       </c>
       <c r="AY149" t="n">
-        <v>1.999999999999996</v>
+        <v>0.400000000000283</v>
       </c>
       <c r="AZ149" t="n">
         <v>52.6</v>
@@ -29992,7 +29992,7 @@
         <v>5683</v>
       </c>
       <c r="BE149" t="n">
-        <v>7.099999999999991</v>
+        <v>3.39999999999997</v>
       </c>
       <c r="BF149" t="n">
         <v>234.2</v>
@@ -30036,7 +30036,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>454.4000000000001</v>
+        <v>197.0000000000005</v>
       </c>
       <c r="C150" t="n">
         <v>813.6</v>
@@ -30045,7 +30045,7 @@
         <v>6.5</v>
       </c>
       <c r="E150" t="n">
-        <v>538</v>
+        <v>7.399999999997505</v>
       </c>
       <c r="F150" t="n">
         <v>976.6</v>
@@ -30084,7 +30084,7 @@
         <v>312.6</v>
       </c>
       <c r="T150" t="n">
-        <v>4.2</v>
+        <v>1.999999999999701</v>
       </c>
       <c r="U150" t="n">
         <v>9</v>
@@ -30093,7 +30093,7 @@
         <v>25</v>
       </c>
       <c r="W150" t="n">
-        <v>34.5</v>
+        <v>27.70000000000004</v>
       </c>
       <c r="X150" t="n">
         <v>68.5</v>
@@ -30138,7 +30138,7 @@
         <v>2887</v>
       </c>
       <c r="AP150" t="n">
-        <v>21.8</v>
+        <v>2.09999999998908</v>
       </c>
       <c r="AQ150" t="n">
         <v>47.5</v>
@@ -30159,7 +30159,7 @@
         <v>3416.6</v>
       </c>
       <c r="AY150" t="n">
-        <v>3.600000000000001</v>
+        <v>1.600000000000005</v>
       </c>
       <c r="AZ150" t="n">
         <v>1.1</v>
@@ -30177,7 +30177,7 @@
         <v>5359.7</v>
       </c>
       <c r="BE150" t="n">
-        <v>20.7</v>
+        <v>3.4000000000001</v>
       </c>
       <c r="BF150" t="n">
         <v>43.1</v>
@@ -30221,7 +30221,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>446.3</v>
+        <v>52.29999999999899</v>
       </c>
       <c r="C151" t="n">
         <v>1280</v>
@@ -30230,7 +30230,7 @@
         <v>5.1</v>
       </c>
       <c r="E151" t="n">
-        <v>529.3</v>
+        <v>24.70000000000101</v>
       </c>
       <c r="F151" t="n">
         <v>1543.6</v>
@@ -30269,7 +30269,7 @@
         <v>307.9</v>
       </c>
       <c r="T151" t="n">
-        <v>3.5</v>
+        <v>0.899999999999999</v>
       </c>
       <c r="U151" t="n">
         <v>14.4</v>
@@ -30323,7 +30323,7 @@
         <v>2943.7</v>
       </c>
       <c r="AP151" t="n">
-        <v>21.7</v>
+        <v>7.000000000001879</v>
       </c>
       <c r="AQ151" t="n">
         <v>75.7</v>
@@ -30344,7 +30344,7 @@
         <v>3458.1</v>
       </c>
       <c r="AY151" t="n">
-        <v>3.1</v>
+        <v>1.499999999999995</v>
       </c>
       <c r="AZ151" t="n">
         <v>4.8</v>
@@ -30362,7 +30362,7 @@
         <v>5423.7</v>
       </c>
       <c r="BE151" t="n">
-        <v>19.59999999999999</v>
+        <v>5.99999999999998</v>
       </c>
       <c r="BF151" t="n">
         <v>72.90000000000001</v>
@@ -30415,7 +30415,7 @@
         <v>5.3</v>
       </c>
       <c r="E152" t="n">
-        <v>25.50000000000023</v>
+        <v>0.7999999999992227</v>
       </c>
       <c r="F152" t="n">
         <v>2106.9</v>
@@ -30427,7 +30427,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>0.7999999999999989</v>
+        <v>0.3999999999999968</v>
       </c>
       <c r="L152" t="n">
         <v>7.5</v>
@@ -30454,7 +30454,7 @@
         <v>313.5</v>
       </c>
       <c r="T152" t="n">
-        <v>0.9999999999999982</v>
+        <v>0.0999999999999992</v>
       </c>
       <c r="U152" t="n">
         <v>19.2</v>
@@ -30547,7 +30547,7 @@
         <v>5493.8</v>
       </c>
       <c r="BE152" t="n">
-        <v>18</v>
+        <v>6.00000000000004</v>
       </c>
       <c r="BF152" t="n">
         <v>99.3</v>
@@ -30591,7 +30591,7 @@
         </is>
       </c>
       <c r="B153" t="n">
-        <v>303.5</v>
+        <v>180.2999999999996</v>
       </c>
       <c r="C153" t="n">
         <v>2279.5</v>
@@ -30600,7 +30600,7 @@
         <v>6.4</v>
       </c>
       <c r="E153" t="n">
-        <v>373.0999999999999</v>
+        <v>271.0999999999991</v>
       </c>
       <c r="F153" t="n">
         <v>2711.7</v>
@@ -30639,7 +30639,7 @@
         <v>323.7</v>
       </c>
       <c r="T153" t="n">
-        <v>13.3</v>
+        <v>10.2</v>
       </c>
       <c r="U153" t="n">
         <v>23.2</v>
@@ -30648,7 +30648,7 @@
         <v>19.6</v>
       </c>
       <c r="W153" t="n">
-        <v>31</v>
+        <v>28.59999999999988</v>
       </c>
       <c r="X153" t="n">
         <v>179.4</v>
@@ -30693,7 +30693,7 @@
         <v>3086.1</v>
       </c>
       <c r="AP153" t="n">
-        <v>14.69999999999999</v>
+        <v>10.29999999999995</v>
       </c>
       <c r="AQ153" t="n">
         <v>124.6</v>
@@ -30714,7 +30714,7 @@
         <v>3539.7</v>
       </c>
       <c r="AY153" t="n">
-        <v>12.9</v>
+        <v>10.1</v>
       </c>
       <c r="AZ153" t="n">
         <v>13.7</v>
@@ -30732,7 +30732,7 @@
         <v>5605.5</v>
       </c>
       <c r="BE153" t="n">
-        <v>18</v>
+        <v>5.99999999999998</v>
       </c>
       <c r="BF153" t="n">
         <v>108.5</v>
@@ -30797,7 +30797,7 @@
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>0.7999999999999989</v>
+        <v>0.1999999999999944</v>
       </c>
       <c r="L154" t="n">
         <v>7.3</v>
@@ -30878,7 +30878,7 @@
         <v>2722</v>
       </c>
       <c r="AP154" t="n">
-        <v>11.50000000000003</v>
+        <v>0.1000000000000707</v>
       </c>
       <c r="AQ154" t="n">
         <v>136.2</v>
@@ -30961,7 +30961,7 @@
         </is>
       </c>
       <c r="B155" t="n">
-        <v>441.8000000000002</v>
+        <v>56.20000000000081</v>
       </c>
       <c r="C155" t="n">
         <v>3167.4</v>
@@ -30970,7 +30970,7 @@
         <v>7.7</v>
       </c>
       <c r="E155" t="n">
-        <v>514.0999999999999</v>
+        <v>69.49999999999952</v>
       </c>
       <c r="F155" t="n">
         <v>3726.1</v>
@@ -30982,7 +30982,7 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>0.2000000000000011</v>
+        <v>6.689093723366568e-15</v>
       </c>
       <c r="L155" t="n">
         <v>7.8</v>
@@ -31018,7 +31018,7 @@
         <v>14.7</v>
       </c>
       <c r="W155" t="n">
-        <v>31.00000000000003</v>
+        <v>14.70000000000005</v>
       </c>
       <c r="X155" t="n">
         <v>259.4</v>
@@ -31063,7 +31063,7 @@
         <v>2862.7</v>
       </c>
       <c r="AP155" t="n">
-        <v>22.59999999999999</v>
+        <v>11.09999999999996</v>
       </c>
       <c r="AQ155" t="n">
         <v>167.2</v>
@@ -31102,7 +31102,7 @@
         <v>5225.2</v>
       </c>
       <c r="BE155" t="n">
-        <v>14.5</v>
+        <v>14.09999999999996</v>
       </c>
       <c r="BF155" t="n">
         <v>135.8</v>
@@ -31146,7 +31146,7 @@
         </is>
       </c>
       <c r="B156" t="n">
-        <v>339.2999999999997</v>
+        <v>34.0999999999984</v>
       </c>
       <c r="C156" t="n">
         <v>3633.7</v>
@@ -31155,7 +31155,7 @@
         <v>7.4</v>
       </c>
       <c r="E156" t="n">
-        <v>408.1000000000004</v>
+        <v>46.80000000000118</v>
       </c>
       <c r="F156" t="n">
         <v>4245.9</v>
@@ -31167,7 +31167,7 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>0.5</v>
+        <v>0.09999999999999779</v>
       </c>
       <c r="L156" t="n">
         <v>8.699999999999999</v>
@@ -31203,7 +31203,7 @@
         <v>14.6</v>
       </c>
       <c r="W156" t="n">
-        <v>29</v>
+        <v>14.29999999999995</v>
       </c>
       <c r="X156" t="n">
         <v>294.1</v>
@@ -31331,7 +31331,7 @@
         </is>
       </c>
       <c r="B157" t="n">
-        <v>112.1000000000008</v>
+        <v>21.80000000000159</v>
       </c>
       <c r="C157" t="n">
         <v>3974.2</v>
@@ -31340,7 +31340,7 @@
         <v>6.8</v>
       </c>
       <c r="E157" t="n">
-        <v>135.0999999999994</v>
+        <v>18.7999999999987</v>
       </c>
       <c r="F157" t="n">
         <v>4709.2</v>
@@ -31352,7 +31352,7 @@
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>10.7</v>
+        <v>9.700000000000005</v>
       </c>
       <c r="L157" t="n">
         <v>10.2</v>
@@ -31379,7 +31379,7 @@
         <v>298.3</v>
       </c>
       <c r="T157" t="n">
-        <v>0.3000000000000038</v>
+        <v>5.828670879282072e-15</v>
       </c>
       <c r="U157" t="n">
         <v>35.2</v>
@@ -31388,7 +31388,7 @@
         <v>17.3</v>
       </c>
       <c r="W157" t="n">
-        <v>20.79999999999995</v>
+        <v>6.500000000000002</v>
       </c>
       <c r="X157" t="n">
         <v>323.4</v>
@@ -31433,7 +31433,7 @@
         <v>2909.3</v>
       </c>
       <c r="AP157" t="n">
-        <v>18.90000000000001</v>
+        <v>14.10000000000005</v>
       </c>
       <c r="AQ157" t="n">
         <v>205.8</v>
@@ -31472,7 +31472,7 @@
         <v>5330.2</v>
       </c>
       <c r="BE157" t="n">
-        <v>21.30000000000001</v>
+        <v>3.907985046680551e-14</v>
       </c>
       <c r="BF157" t="n">
         <v>179.2</v>
@@ -31516,7 +31516,7 @@
         </is>
       </c>
       <c r="B158" t="n">
-        <v>422.7999999999993</v>
+        <v>64.6999999999953</v>
       </c>
       <c r="C158" t="n">
         <v>4405.9</v>
@@ -31525,7 +31525,7 @@
         <v>5.6</v>
       </c>
       <c r="E158" t="n">
-        <v>507.3999999999996</v>
+        <v>83.3000000000027</v>
       </c>
       <c r="F158" t="n">
         <v>5242.4</v>
@@ -31564,7 +31564,7 @@
         <v>312.9</v>
       </c>
       <c r="T158" t="n">
-        <v>3.099999999999994</v>
+        <v>2.799999999999972</v>
       </c>
       <c r="U158" t="n">
         <v>39.2</v>
@@ -31573,7 +31573,7 @@
         <v>14.6</v>
       </c>
       <c r="W158" t="n">
-        <v>41.10000000000002</v>
+        <v>13.80000000000007</v>
       </c>
       <c r="X158" t="n">
         <v>371.3</v>
@@ -31639,7 +31639,7 @@
         <v>3235.9</v>
       </c>
       <c r="AY158" t="n">
-        <v>1.100000000000001</v>
+        <v>0.7000000000000095</v>
       </c>
       <c r="AZ158" t="n">
         <v>27.8</v>
@@ -31657,7 +31657,7 @@
         <v>5383.2</v>
       </c>
       <c r="BE158" t="n">
-        <v>15.39999999999998</v>
+        <v>1.199999999999921</v>
       </c>
       <c r="BF158" t="n">
         <v>206.7</v>
@@ -31701,7 +31701,7 @@
         </is>
       </c>
       <c r="B159" t="n">
-        <v>168.5</v>
+        <v>82.00000000000311</v>
       </c>
       <c r="C159" t="n">
         <v>4410.8</v>
@@ -31710,7 +31710,7 @@
         <v>-4</v>
       </c>
       <c r="E159" t="n">
-        <v>262.1999999999998</v>
+        <v>24.99999999999901</v>
       </c>
       <c r="F159" t="n">
         <v>5271.1</v>
@@ -31722,7 +31722,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>1.399999999999998</v>
+        <v>0.1999999999999949</v>
       </c>
       <c r="L159" t="n">
         <v>13.5</v>
@@ -31758,7 +31758,7 @@
         <v>13.9</v>
       </c>
       <c r="W159" t="n">
-        <v>36</v>
+        <v>15.69999999999993</v>
       </c>
       <c r="X159" t="n">
         <v>368</v>
@@ -31803,7 +31803,7 @@
         <v>2819.8</v>
       </c>
       <c r="AP159" t="n">
-        <v>7.30000000000004</v>
+        <v>1.600000000000057</v>
       </c>
       <c r="AQ159" t="n">
         <v>243.8</v>
@@ -31824,7 +31824,7 @@
         <v>3126</v>
       </c>
       <c r="AY159" t="n">
-        <v>2.300000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="AZ159" t="n">
         <v>30.3</v>
@@ -31842,7 +31842,7 @@
         <v>5272.9</v>
       </c>
       <c r="BE159" t="n">
-        <v>9.200000000000038</v>
+        <v>6.800000000000118</v>
       </c>
       <c r="BF159" t="n">
         <v>229</v>
@@ -31886,7 +31886,7 @@
         </is>
       </c>
       <c r="B160" t="n">
-        <v>310.4</v>
+        <v>141.9</v>
       </c>
       <c r="C160" t="n">
         <v>4459.8</v>
@@ -31895,7 +31895,7 @@
         <v>-6.4</v>
       </c>
       <c r="E160" t="n">
-        <v>329.8000000000002</v>
+        <v>42.60000000000136</v>
       </c>
       <c r="F160" t="n">
         <v>5413.8</v>
@@ -31907,7 +31907,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>2.100000000000001</v>
+        <v>0.2000000000000074</v>
       </c>
       <c r="L160" t="n">
         <v>11.8</v>
@@ -31934,7 +31934,7 @@
         <v>340.6</v>
       </c>
       <c r="T160" t="n">
-        <v>1.099999999999999</v>
+        <v>0.09999999999999098</v>
       </c>
       <c r="U160" t="n">
         <v>48.1</v>
@@ -31943,7 +31943,7 @@
         <v>16.2</v>
       </c>
       <c r="W160" t="n">
-        <v>35.9</v>
+        <v>4.50000000000014</v>
       </c>
       <c r="X160" t="n">
         <v>399.9</v>
@@ -31988,7 +31988,7 @@
         <v>2897.7</v>
       </c>
       <c r="AP160" t="n">
-        <v>7.999999999999968</v>
+        <v>0.6999999999999282</v>
       </c>
       <c r="AQ160" t="n">
         <v>288.9</v>
@@ -32027,7 +32027,7 @@
         <v>5405.7</v>
       </c>
       <c r="BE160" t="n">
-        <v>13.39999999999998</v>
+        <v>4.199999999999942</v>
       </c>
       <c r="BF160" t="n">
         <v>253.1</v>
@@ -32071,7 +32071,7 @@
         </is>
       </c>
       <c r="B161" t="n">
-        <v>250.6</v>
+        <v>108.7</v>
       </c>
       <c r="C161" t="n">
         <v>480.8</v>
@@ -32080,7 +32080,7 @@
         <v>0.4</v>
       </c>
       <c r="E161" t="n">
-        <v>320.5</v>
+        <v>117.6999999999988</v>
       </c>
       <c r="F161" t="n">
         <v>598.7</v>
@@ -32092,7 +32092,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>1.600000000000001</v>
+        <v>0.1999999999999948</v>
       </c>
       <c r="L161" t="n">
         <v>4.3</v>
@@ -32119,7 +32119,7 @@
         <v>319.5</v>
       </c>
       <c r="T161" t="n">
-        <v>3.3</v>
+        <v>1.900000000000028</v>
       </c>
       <c r="U161" t="n">
         <v>6.8</v>
@@ -32179,7 +32179,7 @@
         <v>2482</v>
       </c>
       <c r="AP161" t="n">
-        <v>24</v>
+        <v>13.90000000000024</v>
       </c>
       <c r="AQ161" t="n">
         <v>41.4</v>
@@ -32206,7 +32206,7 @@
         <v>2862.9</v>
       </c>
       <c r="AY161" t="n">
-        <v>4.5</v>
+        <v>16.5</v>
       </c>
       <c r="AZ161" t="n">
         <v>6.2</v>
@@ -32224,7 +32224,7 @@
         <v>4322.6</v>
       </c>
       <c r="BE161" t="n">
-        <v>26.90000000000001</v>
+        <v>0.9000000000002064</v>
       </c>
       <c r="BF161" t="n">
         <v>32.1</v>
@@ -32272,7 +32272,7 @@
         </is>
       </c>
       <c r="B162" t="n">
-        <v>221.2</v>
+        <v>3.799999999999997</v>
       </c>
       <c r="C162" t="n">
         <v>787.2</v>
@@ -32281,7 +32281,7 @@
         <v>7.9</v>
       </c>
       <c r="E162" t="n">
-        <v>279.9000000000001</v>
+        <v>27.00000000000048</v>
       </c>
       <c r="F162" t="n">
         <v>971</v>
@@ -32293,7 +32293,7 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>1.5</v>
+        <v>0.4000000000000073</v>
       </c>
       <c r="L162" t="n">
         <v>6.4</v>
@@ -32380,7 +32380,7 @@
         <v>2526.2</v>
       </c>
       <c r="AP162" t="n">
-        <v>19.00000000000001</v>
+        <v>2.999999999999982</v>
       </c>
       <c r="AQ162" t="n">
         <v>61.4</v>
@@ -32425,7 +32425,7 @@
         <v>4536.5</v>
       </c>
       <c r="BE162" t="n">
-        <v>22.19999999999999</v>
+        <v>3.59999999999981</v>
       </c>
       <c r="BF162" t="n">
         <v>50.1</v>
@@ -32482,7 +32482,7 @@
         <v>9</v>
       </c>
       <c r="E163" t="n">
-        <v>54.49999999999983</v>
+        <v>27.49999999999935</v>
       </c>
       <c r="F163" t="n">
         <v>1270</v>
@@ -32521,7 +32521,7 @@
         <v>323.2</v>
       </c>
       <c r="T163" t="n">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="U163" t="n">
         <v>13.4</v>
@@ -32530,7 +32530,7 @@
         <v>11.7</v>
       </c>
       <c r="W163" t="n">
-        <v>3.899999999999999</v>
+        <v>2.299999999999991</v>
       </c>
       <c r="X163" t="n">
         <v>75.3</v>
@@ -32563,7 +32563,7 @@
         <v>416.9</v>
       </c>
       <c r="AJ163" t="n">
-        <v>0.9000000000000004</v>
+        <v>0.1000000000000005</v>
       </c>
       <c r="AK163" t="n">
         <v>7.8</v>
@@ -32590,7 +32590,7 @@
         <v>-8.9</v>
       </c>
       <c r="AS163" t="n">
-        <v>3.299999999999983</v>
+        <v>0.4999999999999509</v>
       </c>
       <c r="AT163" t="n">
         <v>73.40000000000001</v>
@@ -32674,7 +32674,7 @@
         </is>
       </c>
       <c r="B164" t="n">
-        <v>257.7</v>
+        <v>8.900000000000347</v>
       </c>
       <c r="C164" t="n">
         <v>1289.8</v>
@@ -32683,7 +32683,7 @@
         <v>4.5</v>
       </c>
       <c r="E164" t="n">
-        <v>263.8</v>
+        <v>45.80000000000076</v>
       </c>
       <c r="F164" t="n">
         <v>1590.5</v>
@@ -32731,7 +32731,7 @@
         <v>27.4</v>
       </c>
       <c r="W164" t="n">
-        <v>15.7</v>
+        <v>2.500000000000016</v>
       </c>
       <c r="X164" t="n">
         <v>93.09999999999999</v>
@@ -32764,7 +32764,7 @@
         <v>390.2</v>
       </c>
       <c r="AJ164" t="n">
-        <v>0.6999999999999997</v>
+        <v>0.3999999999999982</v>
       </c>
       <c r="AK164" t="n">
         <v>13.6</v>
@@ -32782,7 +32782,7 @@
         <v>2604.1</v>
       </c>
       <c r="AP164" t="n">
-        <v>9.299999999999997</v>
+        <v>1.700000000000075</v>
       </c>
       <c r="AQ164" t="n">
         <v>100.4</v>
@@ -32791,7 +32791,7 @@
         <v>-3.3</v>
       </c>
       <c r="AS164" t="n">
-        <v>13.2</v>
+        <v>4.200000000000116</v>
       </c>
       <c r="AT164" t="n">
         <v>91.09999999999999</v>
@@ -32809,7 +32809,7 @@
         <v>2956.5</v>
       </c>
       <c r="AY164" t="n">
-        <v>0.3000000000000012</v>
+        <v>0.1000000000000024</v>
       </c>
       <c r="AZ164" t="n">
         <v>19.7</v>
@@ -32875,7 +32875,7 @@
         </is>
       </c>
       <c r="B165" t="n">
-        <v>206.8</v>
+        <v>11.2999999999999</v>
       </c>
       <c r="C165" t="n">
         <v>1511.7</v>
@@ -32884,7 +32884,7 @@
         <v>1.3</v>
       </c>
       <c r="E165" t="n">
-        <v>258.7000000000003</v>
+        <v>49.40000000000006</v>
       </c>
       <c r="F165" t="n">
         <v>1861.7</v>
@@ -32923,7 +32923,7 @@
         <v>337.2</v>
       </c>
       <c r="T165" t="n">
-        <v>3.100000000000001</v>
+        <v>0.100000000000001</v>
       </c>
       <c r="U165" t="n">
         <v>22.5</v>
@@ -32932,7 +32932,7 @@
         <v>23.6</v>
       </c>
       <c r="W165" t="n">
-        <v>15.39999999999999</v>
+        <v>3.599999999999989</v>
       </c>
       <c r="X165" t="n">
         <v>109.7</v>
@@ -32965,7 +32965,7 @@
         <v>443.5</v>
       </c>
       <c r="AJ165" t="n">
-        <v>3.5</v>
+        <v>1.000000000000002</v>
       </c>
       <c r="AK165" t="n">
         <v>15.8</v>
@@ -32983,7 +32983,7 @@
         <v>2596</v>
       </c>
       <c r="AP165" t="n">
-        <v>16.00000000000001</v>
+        <v>1.199999999999978</v>
       </c>
       <c r="AQ165" t="n">
         <v>117.4</v>
@@ -33010,7 +33010,7 @@
         <v>2999</v>
       </c>
       <c r="AY165" t="n">
-        <v>2.100000000000001</v>
+        <v>1.499999999999994</v>
       </c>
       <c r="AZ165" t="n">
         <v>21</v>
@@ -33028,7 +33028,7 @@
         <v>4564.3</v>
       </c>
       <c r="BE165" t="n">
-        <v>10.5</v>
+        <v>1.5</v>
       </c>
       <c r="BF165" t="n">
         <v>103</v>
@@ -33076,7 +33076,7 @@
         </is>
       </c>
       <c r="B166" t="n">
-        <v>55.30000000000007</v>
+        <v>32.70000000000027</v>
       </c>
       <c r="C166" t="n">
         <v>1733.2</v>
@@ -33097,7 +33097,7 @@
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
-        <v>0.9000000000000004</v>
+        <v>0.5000000000000018</v>
       </c>
       <c r="L166" t="n">
         <v>11.8</v>
@@ -33124,7 +33124,7 @@
         <v>324.4</v>
       </c>
       <c r="T166" t="n">
-        <v>0.299999999999998</v>
+        <v>0.199999999999997</v>
       </c>
       <c r="U166" t="n">
         <v>27.3</v>
@@ -33133,7 +33133,7 @@
         <v>28.2</v>
       </c>
       <c r="W166" t="n">
-        <v>14.60000000000001</v>
+        <v>7.400000000000031</v>
       </c>
       <c r="X166" t="n">
         <v>125.2</v>
@@ -33184,7 +33184,7 @@
         <v>2598.6</v>
       </c>
       <c r="AP166" t="n">
-        <v>19.09999999999999</v>
+        <v>1.900000000000002</v>
       </c>
       <c r="AQ166" t="n">
         <v>139.1</v>
@@ -33193,7 +33193,7 @@
         <v>0.5</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.50000000000002</v>
+        <v>0.300000000000046</v>
       </c>
       <c r="AT166" t="n">
         <v>122.9</v>
@@ -33229,7 +33229,7 @@
         <v>4588.2</v>
       </c>
       <c r="BE166" t="n">
-        <v>6.800000000000001</v>
+        <v>0.8000000000000007</v>
       </c>
       <c r="BF166" t="n">
         <v>123.8</v>
@@ -33286,7 +33286,7 @@
         <v>-0.6</v>
       </c>
       <c r="E167" t="n">
-        <v>101.7000000000003</v>
+        <v>6.900000000003072</v>
       </c>
       <c r="F167" t="n">
         <v>2416.1</v>
@@ -33367,7 +33367,7 @@
         <v>415.4</v>
       </c>
       <c r="AJ167" t="n">
-        <v>2.699999999999999</v>
+        <v>0.2999999999999969</v>
       </c>
       <c r="AK167" t="n">
         <v>22.7</v>
@@ -33385,7 +33385,7 @@
         <v>2611.7</v>
       </c>
       <c r="AP167" t="n">
-        <v>8</v>
+        <v>1.80000000000004</v>
       </c>
       <c r="AQ167" t="n">
         <v>160.4</v>
@@ -33394,7 +33394,7 @@
         <v>1.8</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.700000000000003</v>
+        <v>0.09999999999995413</v>
       </c>
       <c r="AT167" t="n">
         <v>136.9</v>
@@ -33412,7 +33412,7 @@
         <v>3083</v>
       </c>
       <c r="AY167" t="n">
-        <v>2</v>
+        <v>0.5000000000000011</v>
       </c>
       <c r="AZ167" t="n">
         <v>25.7</v>
@@ -33430,7 +33430,7 @@
         <v>4665.5</v>
       </c>
       <c r="BE167" t="n">
-        <v>10.40000000000001</v>
+        <v>2.000000000000007</v>
       </c>
       <c r="BF167" t="n">
         <v>144</v>
@@ -33478,7 +33478,7 @@
         </is>
       </c>
       <c r="B168" t="n">
-        <v>105.2000000000001</v>
+        <v>16.80000000000046</v>
       </c>
       <c r="C168" t="n">
         <v>2015.8</v>
@@ -33487,7 +33487,7 @@
         <v>1.7</v>
       </c>
       <c r="E168" t="n">
-        <v>90.19999999999979</v>
+        <v>12.19999999999879</v>
       </c>
       <c r="F168" t="n">
         <v>2526.5</v>
@@ -33526,7 +33526,7 @@
         <v>305.5</v>
       </c>
       <c r="T168" t="n">
-        <v>2.799999999999997</v>
+        <v>2.799999999999985</v>
       </c>
       <c r="U168" t="n">
         <v>32.7</v>
@@ -33535,7 +33535,7 @@
         <v>16.4</v>
       </c>
       <c r="W168" t="n">
-        <v>17.00000000000003</v>
+        <v>4.100000000000085</v>
       </c>
       <c r="X168" t="n">
         <v>145.9</v>
@@ -33568,7 +33568,7 @@
         <v>423</v>
       </c>
       <c r="AJ168" t="n">
-        <v>11.7</v>
+        <v>6.900000000000007</v>
       </c>
       <c r="AK168" t="n">
         <v>31.7</v>
@@ -33586,7 +33586,7 @@
         <v>2475.5</v>
       </c>
       <c r="AP168" t="n">
-        <v>8.699999999999989</v>
+        <v>0.6999999999999886</v>
       </c>
       <c r="AQ168" t="n">
         <v>181.1</v>
@@ -33595,7 +33595,7 @@
         <v>9.4</v>
       </c>
       <c r="AS168" t="n">
-        <v>14.70000000000001</v>
+        <v>10.60000000000013</v>
       </c>
       <c r="AT168" t="n">
         <v>143.5</v>
@@ -33613,7 +33613,7 @@
         <v>2949.8</v>
       </c>
       <c r="AY168" t="n">
-        <v>1.5</v>
+        <v>0.4999999999999978</v>
       </c>
       <c r="AZ168" t="n">
         <v>28.5</v>
@@ -33631,7 +33631,7 @@
         <v>4530.1</v>
       </c>
       <c r="BE168" t="n">
-        <v>12.09999999999999</v>
+        <v>1.699999999999982</v>
       </c>
       <c r="BF168" t="n">
         <v>168.3</v>
@@ -33679,7 +33679,7 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>59.50000000000021</v>
+        <v>20.59999999999985</v>
       </c>
       <c r="C169" t="n">
         <v>2114.5</v>
@@ -33688,7 +33688,7 @@
         <v>0.2</v>
       </c>
       <c r="E169" t="n">
-        <v>66.79999999999973</v>
+        <v>42.40000000000215</v>
       </c>
       <c r="F169" t="n">
         <v>2701.6</v>
@@ -33700,7 +33700,7 @@
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
-        <v>0.5999999999999996</v>
+        <v>0.2000000000000081</v>
       </c>
       <c r="L169" t="n">
         <v>13.9</v>
@@ -33787,7 +33787,7 @@
         <v>2504</v>
       </c>
       <c r="AP169" t="n">
-        <v>1.500000000000032</v>
+        <v>0.1000000000000547</v>
       </c>
       <c r="AQ169" t="n">
         <v>210.8</v>
@@ -33814,7 +33814,7 @@
         <v>3008.7</v>
       </c>
       <c r="AY169" t="n">
-        <v>1.5</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="AZ169" t="n">
         <v>30.7</v>
@@ -33832,7 +33832,7 @@
         <v>4538.2</v>
       </c>
       <c r="BE169" t="n">
-        <v>3.699999999999989</v>
+        <v>0.3000000000000251</v>
       </c>
       <c r="BF169" t="n">
         <v>195.8</v>
@@ -33880,7 +33880,7 @@
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1516.2</v>
+        <v>1278.2</v>
       </c>
       <c r="C170" t="n">
         <v>2304.4</v>
@@ -33889,7 +33889,7 @@
         <v>0.3</v>
       </c>
       <c r="E170" t="n">
-        <v>1724.6</v>
+        <v>1469.599999999999</v>
       </c>
       <c r="F170" t="n">
         <v>2979.6</v>
@@ -33901,7 +33901,7 @@
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
-        <v>10.3</v>
+        <v>8.499999999999989</v>
       </c>
       <c r="L170" t="n">
         <v>14.4</v>
@@ -33928,7 +33928,7 @@
         <v>320.2</v>
       </c>
       <c r="T170" t="n">
-        <v>13.3</v>
+        <v>2.899999999999995</v>
       </c>
       <c r="U170" t="n">
         <v>39.7</v>
@@ -33937,7 +33937,7 @@
         <v>18.5</v>
       </c>
       <c r="W170" t="n">
-        <v>80.7</v>
+        <v>75.90000000000005</v>
       </c>
       <c r="X170" t="n">
         <v>191.5</v>
@@ -33988,7 +33988,7 @@
         <v>2547.8</v>
       </c>
       <c r="AP170" t="n">
-        <v>89.09999999999998</v>
+        <v>85.19999999999983</v>
       </c>
       <c r="AQ170" t="n">
         <v>238.2</v>
@@ -33997,7 +33997,7 @@
         <v>18.9</v>
       </c>
       <c r="AS170" t="n">
-        <v>75.8</v>
+        <v>63.40000000000002</v>
       </c>
       <c r="AT170" t="n">
         <v>186.9</v>
@@ -34015,7 +34015,7 @@
         <v>3022.3</v>
       </c>
       <c r="AY170" t="n">
-        <v>13.7</v>
+        <v>8.699999999999998</v>
       </c>
       <c r="AZ170" t="n">
         <v>33.5</v>
@@ -34033,7 +34033,7 @@
         <v>4580.4</v>
       </c>
       <c r="BE170" t="n">
-        <v>18.50000000000001</v>
+        <v>8.799999999999997</v>
       </c>
       <c r="BF170" t="n">
         <v>233.3</v>
